--- a/src/13.10.2021/12.10.2021_cat_subcat.xlsx
+++ b/src/13.10.2021/12.10.2021_cat_subcat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C44594-450E-47EB-8F42-7F35FB6C2092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838126B6-3B8C-431E-88F0-41119F767183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="420" windowWidth="12435" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12105" yWindow="195" windowWidth="11325" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>1. Бумага писчая</t>
   </si>
@@ -683,6 +683,579 @@
   </si>
   <si>
     <t>9. Товары для детей =&gt; 9.12. Товары для детского творчества</t>
+  </si>
+  <si>
+    <t>1. Подложка впс белая</t>
+  </si>
+  <si>
+    <t>2. Салфетка влагопоглощающая</t>
+  </si>
+  <si>
+    <t>3. Подложка впс цветная</t>
+  </si>
+  <si>
+    <t>1. Средства для ухода за мебелью</t>
+  </si>
+  <si>
+    <t>2. Средства для пола и ковровых покрытий</t>
+  </si>
+  <si>
+    <t>4. Инсектициды</t>
+  </si>
+  <si>
+    <t>6. Средства для мытья стёкол и зеркал</t>
+  </si>
+  <si>
+    <t>8. Освежители воздуха</t>
+  </si>
+  <si>
+    <t>9. Универсальные чистящие и моющие средства</t>
+  </si>
+  <si>
+    <t>12. Техническая химия</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.1. Мыло туалетное</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.2. Мыло хозяйственное</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.3. Мыло жидкое</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 1. Стиральные порошки</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 2. Антистатики и крахмалы</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 3. Кондиционеры и ополаскиватели для белья</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 4. Отбеливатели и пятновыводители</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.1. Средства для удаления жира, накипи</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.2. Средства для мытья посуды</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.3. Средства для пмм</t>
+  </si>
+  <si>
+    <t>10. Уход за телом =&gt; 10.1. Средства для рук</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.1. Средства для унитазов и писуаров</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.2. Средства для ухода за сантехникой</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.3. Средства для прочистки труб</t>
+  </si>
+  <si>
+    <t>2. Уборочная техника =&gt; 2.1. Профессиональные пылесосы</t>
+  </si>
+  <si>
+    <t>3. Ящики, контейнеры универсальные</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.1. Специнвентарь</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.2. Мётлы</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.3. Лопаты и черенки</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.4. Движки д/снега</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.5. Грабли</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.6. Тачки строительные, садовые</t>
+  </si>
+  <si>
+    <t>4. Инвентарь для уборки пыли</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.1. Вёдра на колесах, вёдра с отжимом</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.2. Комплекты (совок + щетка)</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.3. Совки для мусора</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.4. Швабры</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.5. Щётки</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.6. Информационные таблички напольные</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.7. Сгоны для пола</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.8. Веники</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.9. Держатели мопов (флаундеры)</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.10. Комплекты для уборки</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.11. Мопы</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.12. Тележки уборочные</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.13. Вёдра</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.14. Пады и размывочные круги, держатели</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.15. Рукоятки</t>
+  </si>
+  <si>
+    <t>10. Стремянки</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.1. Баки для мусора</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.2. Урны</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.3. Контейнеры для мусора</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.4. Контейнеры и урны для раздельного сбора отходов</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.1. Вёдра для мытья окон</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.2. Комплекты для мытья окон</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.3. Шубки и держатели для мытья окон</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.4. Сгоны, склизы для стёкол</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.5. Скребки, лезвия</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.6. Распылители</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.7. Телескопические рукоятки</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.1. Салфетки из микрофибры</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.2. Салфетки для стеклянных поверхностей</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.3. Салфетки прорезиненные</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.4. Салфетки вискозные</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.1. Входные грязезащитные влаговпитывающие коврики</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.2. Дезинфекционные коврики</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.3. Резиновые и диэлектрические коврики</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.4. Противоскользящие ленты, коврики для ванной комнаты и туалета</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.1. Ткани</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.2. Тряпки</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.3. Протирочный материал</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.4. Полотенца</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.1. Зеркала</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.2. Тазы</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.3. Ерши для туалета</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.4. Вантузы</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.1. Ерши для бутылок</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.2. Губки для мытья посуды</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.3. Щётки для посуды, скребки</t>
+  </si>
+  <si>
+    <t>1. Конверты для столовых приборов</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.1. Свечи конические</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.2. Свечи столовые и хозяйственные</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.3. Свечи для торта</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.4. Свечи столбик</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.5. Свечи плавающие</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.6. Свечи в стеклянном подсвечнике и прочее</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.1. Палочки для мороженого</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.2. Размешиватели деревянные</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.3. Размешиватели пластиковые</t>
+  </si>
+  <si>
+    <t>4. Декоративные украшения</t>
+  </si>
+  <si>
+    <t>5. Шампуры барные</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.1. Скатерти нетканые</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.2. Скатерти бумажные</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.1. Трубочки без изгиба</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.2. Трубочки гофрированные</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.3. Бумажные трубочки</t>
+  </si>
+  <si>
+    <t>8. Пики =&gt; 8.1. Пики пластиковые</t>
+  </si>
+  <si>
+    <t>8. Пики =&gt; 8.2. Пики деревянные</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.1. Салфетки под чашку</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.2. Салфетки для торта</t>
+  </si>
+  <si>
+    <t>10. Палочки для еды</t>
+  </si>
+  <si>
+    <t>11. Зубочистки</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.1. Профессиональная (без инд. упаковки)</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.2. Бытовая</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.1. Ёмкости для хранения продуктов</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.2. Пакеты для заморозки</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.3. Бумага для выпечки</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.4. Ёмкости для соуса</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.5. Рукав для запекания</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.6. Пергамент силиконизированный</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.1. Тарталетки бумажные</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.2. Формы для выпечки бумажные</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.3. Лента бордюрная для торта</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.4. Мешки кондитерские</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.5. Баллончики для сифона</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.1. Стаканы мерные</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.2. Ножи кухонные поварские, молотки</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.3. Разделочные доски</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.1. Жидкость для розжига</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.2. Зажигалки, газ</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.3. Дрова</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.4. Уголь</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.5. Гели для подогрева</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.6. Сухое горючее</t>
+  </si>
+  <si>
+    <t>1. Плёнка упаковочная цветочная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая =&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп =&gt; </t>
+  </si>
+  <si>
+    <t>3. Плёнка стрейч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку =&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая) =&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ =&gt; </t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.2. Пакеты бумажные с ручками</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.3. Пакеты бумажные под выпечку, уголки с плоским дном</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.4. Пакеты бумажные на вынос с прямоугольным дном</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.1. Пакеты типа майка</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.2. Пакеты типа "zip lock"</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.3. Пакеты вакуумные</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.4. Пакеты мусорные</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.5. Фасовочные пакеты</t>
+  </si>
+  <si>
+    <t>3. Термопакеты</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.1. Пакеты пп</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.2. Пакеты пп с прямоугольным дном</t>
+  </si>
+  <si>
+    <t>5. Пакеты с вырубными и петлевыми ручками =&gt; 5.1. Пакеты цветные</t>
+  </si>
+  <si>
+    <t>2. Упаковка из фбв =&gt; 2.1. Лотки и подложки фбв</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.4. Коробки для пиццы</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.3. Гофрокороба</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.2. Подложка под пиццу, пирог</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.1. Коробки для торта</t>
+  </si>
+  <si>
+    <t>3. Бумага обёрточная, упаковочная</t>
+  </si>
+  <si>
+    <t>4. Скобы, стяжки, хомуты</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.1. Сетка-рукав</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.2. Сетка на бутылку</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.1. Диспенсеры для скотча</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.2. Клейкие ленты типа "скотч"</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.3. Малярная лента optiroll</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.4. Специальные ленты</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.1. Шпагаты натуральные</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.2. Шпагаты пп</t>
+  </si>
+  <si>
+    <t>8. Ленты декоративные</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.1. Чехлы и щётки для одежды</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.2. Средства по уходу за обувью</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.3. Галантерея</t>
+  </si>
+  <si>
+    <t>2. Гостиничная парфюмерия и косметика =&gt; 2.1. Серия "hotel"</t>
+  </si>
+  <si>
+    <t>1. Головные уборы</t>
+  </si>
+  <si>
+    <t>2. Спецобувь =&gt; 2.1. Сабо</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.1. Очки</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.2. Респираторы и маски</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.4. Комбинезоны/полукомбенизоны/жилеты/куртки</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.5. Плащи</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.3. Фартуки</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.2. Костюмы рабочие</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.1. Халаты</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.1. Перчатки латексные</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.2. Перчатки тпэ</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.3. Рукавицы</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.4. Перчатки виниловые</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.5. Перчатки резиновые</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.6. Перчатки х/б</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.7. Перчатки нитриловые</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.8. Перчатки специального назначения</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.9. Перчатки полиэтиленовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.1. Халаты одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.2. Нарукавники одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.3. Комбинезоны, костюмы одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.4. Носки одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.5. Фартуки одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.6. Набородники</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.7. Бахилы</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.8. Головные уборы одноразовые</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские</t>
   </si>
 </sst>
 </file>
@@ -1160,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1893"/>
+  <dimension ref="A1:B2088"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A441" sqref="A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2483,1067 +3056,1450 @@
       <c r="A225" s="7"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="16" t="s">
+    <row r="227" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
+      <c r="A228" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B228" s="1"/>
     </row>
     <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
+      <c r="A229" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="16" t="s">
-        <v>48</v>
+      <c r="A230" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+      <c r="A231" s="16"/>
       <c r="B231" s="1"/>
     </row>
     <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="16" t="s">
-        <v>49</v>
-      </c>
+    <row r="233" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="7"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
+    <row r="234" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
+      <c r="A235" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="16" t="s">
-        <v>50</v>
+      <c r="A236" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
+      <c r="A237" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
+      <c r="A238" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="16" t="s">
-        <v>51</v>
+      <c r="A239" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="A240" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="B240" s="1"/>
     </row>
     <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
+      <c r="A241" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="16" t="s">
-        <v>52</v>
+      <c r="A242" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B242" s="1"/>
     </row>
     <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+      <c r="A243" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="B243" s="1"/>
     </row>
     <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+      <c r="A244" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="B244" s="1"/>
     </row>
     <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7"/>
+      <c r="A245" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="7"/>
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="11" t="s">
-        <v>53</v>
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
+      <c r="A248" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="B248" s="1"/>
     </row>
     <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
+      <c r="A249" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="B249" s="1"/>
     </row>
     <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
+      <c r="A250" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="B250" s="1"/>
     </row>
     <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
+      <c r="A251" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="B251" s="1"/>
     </row>
     <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
+      <c r="A252" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="B252" s="1"/>
     </row>
     <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
+      <c r="A253" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="B253" s="1"/>
     </row>
     <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="A254" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="B254" s="1"/>
     </row>
     <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
+      <c r="A255" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="B255" s="1"/>
     </row>
     <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
+      <c r="A256" s="16"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="1"/>
     </row>
     <row r="258" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="7"/>
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B281" s="1"/>
+    </row>
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B287" s="1"/>
+    </row>
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B289" s="1"/>
+    </row>
+    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B291" s="1"/>
+    </row>
+    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B292" s="1"/>
+    </row>
+    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B293" s="1"/>
+    </row>
+    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B294" s="1"/>
+    </row>
+    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="1"/>
+    </row>
+    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B297" s="1"/>
+    </row>
+    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B298" s="1"/>
+    </row>
+    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B305" s="1"/>
+    </row>
+    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B307" s="1"/>
+    </row>
+    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B308" s="1"/>
+    </row>
+    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B309" s="1"/>
+    </row>
+    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B310" s="1"/>
+    </row>
+    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B311" s="1"/>
+    </row>
+    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B312" s="1"/>
+    </row>
+    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B313" s="1"/>
+    </row>
+    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="16"/>
+      <c r="B315" s="1"/>
+    </row>
+    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="7"/>
+      <c r="B316" s="1"/>
+    </row>
+    <row r="317" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="7"/>
+      <c r="B317" s="1"/>
+    </row>
+    <row r="318" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B318" s="1"/>
+    </row>
+    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B319" s="1"/>
+    </row>
+    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B320" s="1"/>
+    </row>
+    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B321" s="1"/>
+    </row>
+    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B322" s="1"/>
+    </row>
+    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B323" s="1"/>
+    </row>
+    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B324" s="1"/>
+    </row>
+    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B325" s="1"/>
+    </row>
+    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B326" s="1"/>
+    </row>
+    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B327" s="1"/>
+    </row>
+    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B328" s="1"/>
+    </row>
+    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B329" s="1"/>
+    </row>
+    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B330" s="1"/>
+    </row>
+    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B331" s="1"/>
+    </row>
+    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B332" s="1"/>
+    </row>
+    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B333" s="1"/>
+    </row>
+    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B334" s="1"/>
+    </row>
+    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B335" s="1"/>
+    </row>
+    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B336" s="1"/>
+    </row>
+    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B337" s="1"/>
+    </row>
+    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B338" s="1"/>
+    </row>
+    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B339" s="1"/>
+    </row>
+    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B340" s="1"/>
+    </row>
+    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B341" s="1"/>
+    </row>
+    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="16"/>
+      <c r="B342" s="1"/>
+    </row>
+    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7"/>
+      <c r="B343" s="1"/>
+    </row>
+    <row r="344" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7"/>
+      <c r="B344" s="1"/>
+    </row>
+    <row r="345" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B345" s="1"/>
+    </row>
+    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B346" s="1"/>
+    </row>
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B347" s="1"/>
+    </row>
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B348" s="1"/>
+    </row>
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="16"/>
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="7"/>
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="7"/>
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="7"/>
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="7"/>
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="7"/>
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B385" s="1"/>
+    </row>
+    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B386" s="1"/>
+    </row>
+    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B387" s="1"/>
+    </row>
+    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B388" s="1"/>
+    </row>
+    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B389" s="1"/>
+    </row>
+    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B390" s="1"/>
+    </row>
+    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B391" s="1"/>
+    </row>
+    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B393" s="1"/>
+    </row>
+    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B394" s="1"/>
+    </row>
+    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B395" s="1"/>
+    </row>
+    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="12"/>
+      <c r="B396" s="1"/>
+    </row>
+    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="12"/>
+      <c r="B397" s="1"/>
+    </row>
+    <row r="398" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="7"/>
+      <c r="B398" s="1"/>
+    </row>
+    <row r="399" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
-      <c r="B260" s="1"/>
-    </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
-      <c r="B261" s="1"/>
-    </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
-      <c r="B262" s="1"/>
-    </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
-      <c r="B263" s="1"/>
-    </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-      <c r="B264" s="1"/>
-    </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="1"/>
-    </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7"/>
-      <c r="B266" s="1"/>
-    </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="16" t="s">
+      <c r="B399" s="1"/>
+    </row>
+    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B400" s="1"/>
+    </row>
+    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B401" s="1"/>
+    </row>
+    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B402" s="1"/>
+    </row>
+    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B403" s="1"/>
+    </row>
+    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B404" s="1"/>
+    </row>
+    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B405" s="1"/>
+    </row>
+    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B406" s="1"/>
+    </row>
+    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B407" s="1"/>
+    </row>
+    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B408" s="1"/>
+    </row>
+    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B409" s="1"/>
+    </row>
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B412" s="1"/>
+    </row>
+    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B413" s="1"/>
+    </row>
+    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B414" s="1"/>
+    </row>
+    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B415" s="1"/>
+    </row>
+    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="12"/>
+      <c r="B416" s="1"/>
+    </row>
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="12"/>
+      <c r="B417" s="1"/>
+    </row>
+    <row r="418" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="7"/>
+      <c r="B418" s="1"/>
+    </row>
+    <row r="419" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B267" s="1"/>
-    </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="7"/>
-      <c r="B268" s="1"/>
-    </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
-      <c r="B269" s="1"/>
-    </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="16" t="s">
+      <c r="B419" s="1"/>
+    </row>
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B420" s="1"/>
+    </row>
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B421" s="1"/>
+    </row>
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B422" s="1"/>
+    </row>
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B423" s="1"/>
+    </row>
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="16"/>
+      <c r="B424" s="1"/>
+    </row>
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="7"/>
+      <c r="B425" s="1"/>
+    </row>
+    <row r="426" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="7"/>
+      <c r="B426" s="1"/>
+    </row>
+    <row r="427" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="1"/>
-    </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
-      <c r="B271" s="1"/>
-    </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7"/>
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="16" t="s">
+      <c r="B427" s="1"/>
+    </row>
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B428" s="1"/>
+    </row>
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B429" s="1"/>
+    </row>
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B430" s="1"/>
+    </row>
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B431" s="1"/>
+    </row>
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B432" s="1"/>
+    </row>
+    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B433" s="1"/>
+    </row>
+    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B434" s="1"/>
+    </row>
+    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B435" s="1"/>
+    </row>
+    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B436" s="1"/>
+    </row>
+    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B437" s="1"/>
+    </row>
+    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B438" s="1"/>
+    </row>
+    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B439" s="1"/>
+    </row>
+    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B440" s="1"/>
+    </row>
+    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B441" s="1"/>
+    </row>
+    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B442" s="1"/>
+    </row>
+    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B443" s="1"/>
+    </row>
+    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B444" s="1"/>
+    </row>
+    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B445" s="1"/>
+    </row>
+    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B446" s="1"/>
+    </row>
+    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B447" s="1"/>
+    </row>
+    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B448" s="1"/>
+    </row>
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B449" s="1"/>
+    </row>
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B450" s="1"/>
+    </row>
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B451" s="1"/>
+    </row>
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B452" s="1"/>
+    </row>
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B453" s="1"/>
+    </row>
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B454" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="16"/>
+      <c r="B455" s="1"/>
+    </row>
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="7"/>
+      <c r="B456" s="1"/>
+    </row>
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="7"/>
+      <c r="B457" s="1"/>
+    </row>
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7"/>
-      <c r="B274" s="1"/>
-    </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="7"/>
-      <c r="B275" s="1"/>
-    </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="16" t="s">
+      <c r="B458" s="1"/>
+    </row>
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="16"/>
+      <c r="B459" s="1"/>
+    </row>
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="16"/>
+      <c r="B460" s="1"/>
+    </row>
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="7"/>
+      <c r="B461" s="1"/>
+    </row>
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="7"/>
+      <c r="B462" s="1"/>
+    </row>
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B276" s="1"/>
-    </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="7"/>
-      <c r="B277" s="1"/>
-    </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
-      <c r="B278" s="1"/>
-    </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="16" t="s">
+      <c r="B463" s="1"/>
+    </row>
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="16"/>
+      <c r="B464" s="1"/>
+    </row>
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="16"/>
+      <c r="B465" s="1"/>
+    </row>
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="7"/>
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="7"/>
+      <c r="B467" s="1"/>
+    </row>
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B279" s="1"/>
-    </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="7"/>
-      <c r="B280" s="1"/>
-    </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
-      <c r="B281" s="1"/>
-    </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="16" t="s">
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="16"/>
+      <c r="B469" s="1"/>
+    </row>
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="16"/>
+      <c r="B470" s="1"/>
+    </row>
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="7"/>
+      <c r="B471" s="1"/>
+    </row>
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7"/>
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B282" s="1"/>
-    </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
-      <c r="B283" s="1"/>
-    </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
-      <c r="B284" s="1"/>
-    </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="16" t="s">
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="16"/>
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="16"/>
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="7"/>
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="7"/>
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B285" s="1"/>
-    </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="7"/>
-      <c r="B286" s="1"/>
-    </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
-      <c r="B287" s="1"/>
-    </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="16" t="s">
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="16"/>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="16"/>
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="7"/>
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="7"/>
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="1"/>
-    </row>
-    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
-      <c r="B292" s="1"/>
-    </row>
-    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
-      <c r="B294" s="1"/>
-    </row>
-    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
-      <c r="B295" s="1"/>
-    </row>
-    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
-      <c r="B296" s="1"/>
-    </row>
-    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
-      <c r="B297" s="1"/>
-    </row>
-    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
-      <c r="B298" s="1"/>
-    </row>
-    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
-      <c r="B299" s="1"/>
-    </row>
-    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
-      <c r="B301" s="1"/>
-    </row>
-    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
-      <c r="B302" s="1"/>
-    </row>
-    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
-      <c r="B303" s="1"/>
-    </row>
-    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
-      <c r="B304" s="1"/>
-    </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
-      <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
-      <c r="B309" s="1"/>
-    </row>
-    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
-      <c r="B310" s="1"/>
-    </row>
-    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
-      <c r="B311" s="1"/>
-    </row>
-    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
-      <c r="B312" s="1"/>
-    </row>
-    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
-      <c r="B315" s="1"/>
-    </row>
-    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="1"/>
-    </row>
-    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
-      <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
-      <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
-      <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
-      <c r="B330" s="1"/>
-    </row>
-    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
-      <c r="B331" s="1"/>
-    </row>
-    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
-      <c r="B332" s="1"/>
-    </row>
-    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
-      <c r="B333" s="1"/>
-    </row>
-    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
-      <c r="B335" s="1"/>
-    </row>
-    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6"/>
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="6"/>
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="6"/>
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="6"/>
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="6"/>
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="6"/>
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="6"/>
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="6"/>
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="6"/>
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="6"/>
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="6"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="6"/>
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="6"/>
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="6"/>
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="6"/>
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="6"/>
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="6"/>
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="6"/>
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="6"/>
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="6"/>
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="6"/>
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="6"/>
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="6"/>
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="6"/>
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="6"/>
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="6"/>
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="6"/>
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="6"/>
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="6"/>
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="6"/>
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="6"/>
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="6"/>
-      <c r="B380" s="1"/>
-    </row>
-    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="6"/>
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="6"/>
-      <c r="B382" s="1"/>
-    </row>
-    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="6"/>
-      <c r="B383" s="1"/>
-    </row>
-    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="6"/>
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="6"/>
-      <c r="B385" s="1"/>
-    </row>
-    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="6"/>
-      <c r="B386" s="1"/>
-    </row>
-    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="6"/>
-      <c r="B387" s="1"/>
-    </row>
-    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="6"/>
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="6"/>
-      <c r="B389" s="1"/>
-    </row>
-    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="6"/>
-      <c r="B390" s="1"/>
-    </row>
-    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="6"/>
-      <c r="B391" s="1"/>
-    </row>
-    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="6"/>
-      <c r="B392" s="1"/>
-    </row>
-    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="6"/>
-      <c r="B393" s="1"/>
-    </row>
-    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="6"/>
-      <c r="B394" s="1"/>
-    </row>
-    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="6"/>
-      <c r="B395" s="1"/>
-    </row>
-    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="6"/>
-      <c r="B396" s="1"/>
-    </row>
-    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="6"/>
-      <c r="B397" s="1"/>
-    </row>
-    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="6"/>
-      <c r="B398" s="1"/>
-    </row>
-    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="6"/>
-      <c r="B399" s="1"/>
-    </row>
-    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="6"/>
-      <c r="B400" s="1"/>
-    </row>
-    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="6"/>
-      <c r="B401" s="1"/>
-    </row>
-    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="6"/>
-      <c r="B402" s="1"/>
-    </row>
-    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="6"/>
-      <c r="B403" s="1"/>
-    </row>
-    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="6"/>
-      <c r="B404" s="1"/>
-    </row>
-    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="6"/>
-      <c r="B405" s="1"/>
-    </row>
-    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="6"/>
-      <c r="B406" s="1"/>
-    </row>
-    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="6"/>
-      <c r="B407" s="1"/>
-    </row>
-    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="6"/>
-      <c r="B408" s="1"/>
-    </row>
-    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="6"/>
-      <c r="B409" s="1"/>
-    </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="6"/>
-      <c r="B410" s="1"/>
-    </row>
-    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="6"/>
-      <c r="B411" s="1"/>
-    </row>
-    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="6"/>
-      <c r="B412" s="1"/>
-    </row>
-    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="6"/>
-      <c r="B413" s="1"/>
-    </row>
-    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="6"/>
-      <c r="B414" s="1"/>
-    </row>
-    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="6"/>
-      <c r="B415" s="1"/>
-    </row>
-    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
-      <c r="B416" s="1"/>
-    </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="6"/>
-      <c r="B417" s="1"/>
-    </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="6"/>
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="6"/>
-      <c r="B419" s="1"/>
-    </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
-      <c r="B420" s="1"/>
-    </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="6"/>
-      <c r="B421" s="1"/>
-    </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="6"/>
-      <c r="B422" s="1"/>
-    </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
-      <c r="B423" s="1"/>
-    </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="6"/>
-      <c r="B424" s="1"/>
-    </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="6"/>
-      <c r="B425" s="1"/>
-    </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="6"/>
-      <c r="B426" s="1"/>
-    </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="6"/>
-      <c r="B427" s="1"/>
-    </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="6"/>
-      <c r="B428" s="1"/>
-    </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="6"/>
-      <c r="B429" s="1"/>
-    </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="6"/>
-      <c r="B430" s="1"/>
-    </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="6"/>
-      <c r="B431" s="1"/>
-    </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="6"/>
-      <c r="B432" s="1"/>
-    </row>
-    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="6"/>
-      <c r="B433" s="1"/>
-    </row>
-    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="6"/>
-      <c r="B434" s="1"/>
-    </row>
-    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="6"/>
-      <c r="B435" s="1"/>
-    </row>
-    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="6"/>
-      <c r="B436" s="1"/>
-    </row>
-    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="6"/>
-      <c r="B437" s="1"/>
-    </row>
-    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="6"/>
-      <c r="B438" s="1"/>
-    </row>
-    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="6"/>
-      <c r="B439" s="1"/>
-    </row>
-    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="6"/>
-      <c r="B440" s="1"/>
-    </row>
-    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="6"/>
-      <c r="B441" s="1"/>
-    </row>
-    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="6"/>
-      <c r="B442" s="1"/>
-    </row>
-    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="6"/>
-      <c r="B443" s="1"/>
-    </row>
-    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="6"/>
-      <c r="B444" s="1"/>
-    </row>
-    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="6"/>
-      <c r="B445" s="1"/>
-    </row>
-    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="6"/>
-      <c r="B446" s="1"/>
-    </row>
-    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="6"/>
-      <c r="B447" s="1"/>
-    </row>
-    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="6"/>
-      <c r="B448" s="1"/>
-    </row>
-    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="6"/>
-      <c r="B449" s="1"/>
-    </row>
-    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="6"/>
-      <c r="B450" s="1"/>
-    </row>
-    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="6"/>
-      <c r="B451" s="1"/>
-    </row>
-    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="6"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="6"/>
-      <c r="B453" s="1"/>
-    </row>
-    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="6"/>
-      <c r="B454" s="1"/>
-    </row>
-    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="6"/>
-      <c r="B455" s="1"/>
-    </row>
-    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="6"/>
-      <c r="B456" s="1"/>
-    </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="6"/>
-      <c r="B457" s="1"/>
-    </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="6"/>
-      <c r="B458" s="1"/>
-    </row>
-    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="6"/>
-      <c r="B459" s="1"/>
-    </row>
-    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="6"/>
-      <c r="B460" s="1"/>
-    </row>
-    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="6"/>
-      <c r="B461" s="1"/>
-    </row>
-    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="6"/>
-      <c r="B462" s="1"/>
-    </row>
-    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="6"/>
-      <c r="B463" s="1"/>
-    </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="6"/>
-      <c r="B464" s="1"/>
-    </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="6"/>
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
-      <c r="B466" s="1"/>
-    </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="6"/>
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="6"/>
-      <c r="B468" s="1"/>
-    </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="6"/>
-      <c r="B469" s="1"/>
-    </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
-      <c r="B470" s="1"/>
-    </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="6"/>
-      <c r="B471" s="1"/>
-    </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
-      <c r="B472" s="1"/>
-    </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="6"/>
-      <c r="B473" s="1"/>
-    </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="6"/>
-      <c r="B474" s="1"/>
-    </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="6"/>
-      <c r="B475" s="1"/>
-    </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="6"/>
-      <c r="B476" s="1"/>
-    </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="6"/>
-      <c r="B477" s="1"/>
-    </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="6"/>
-      <c r="B478" s="1"/>
-    </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="6"/>
-      <c r="B479" s="1"/>
-    </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="6"/>
-      <c r="B480" s="1"/>
-    </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="6"/>
-      <c r="B481" s="1"/>
-    </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="6"/>
-      <c r="B482" s="1"/>
-    </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="6"/>
       <c r="B483" s="1"/>
     </row>
     <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,7 +4507,6 @@
       <c r="B484" s="1"/>
     </row>
     <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="6"/>
       <c r="B485" s="1"/>
     </row>
     <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,612 +6942,807 @@
       <c r="B1093" s="1"/>
     </row>
     <row r="1094" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="6"/>
       <c r="B1094" s="1"/>
     </row>
     <row r="1095" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="6"/>
       <c r="B1095" s="1"/>
     </row>
     <row r="1096" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="6"/>
       <c r="B1096" s="1"/>
     </row>
     <row r="1097" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="6"/>
       <c r="B1097" s="1"/>
     </row>
     <row r="1098" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="6"/>
       <c r="B1098" s="1"/>
     </row>
     <row r="1099" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="6"/>
       <c r="B1099" s="1"/>
     </row>
     <row r="1100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="6"/>
       <c r="B1100" s="1"/>
     </row>
     <row r="1101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="6"/>
       <c r="B1101" s="1"/>
     </row>
     <row r="1102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="6"/>
       <c r="B1102" s="1"/>
     </row>
     <row r="1103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="6"/>
       <c r="B1103" s="1"/>
     </row>
     <row r="1104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="6"/>
       <c r="B1104" s="1"/>
     </row>
-    <row r="1105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="6"/>
       <c r="B1105" s="1"/>
     </row>
-    <row r="1106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="6"/>
       <c r="B1106" s="1"/>
     </row>
-    <row r="1107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="6"/>
       <c r="B1107" s="1"/>
     </row>
-    <row r="1108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="6"/>
       <c r="B1108" s="1"/>
     </row>
-    <row r="1109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="6"/>
       <c r="B1109" s="1"/>
     </row>
-    <row r="1110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="6"/>
       <c r="B1110" s="1"/>
     </row>
-    <row r="1111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="6"/>
       <c r="B1111" s="1"/>
     </row>
-    <row r="1112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="6"/>
       <c r="B1112" s="1"/>
     </row>
-    <row r="1113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="6"/>
       <c r="B1113" s="1"/>
     </row>
-    <row r="1114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="6"/>
       <c r="B1114" s="1"/>
     </row>
-    <row r="1115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="6"/>
       <c r="B1115" s="1"/>
     </row>
-    <row r="1116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="6"/>
       <c r="B1116" s="1"/>
     </row>
-    <row r="1117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="6"/>
       <c r="B1117" s="1"/>
     </row>
-    <row r="1118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="6"/>
       <c r="B1118" s="1"/>
     </row>
-    <row r="1119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="6"/>
       <c r="B1119" s="1"/>
     </row>
-    <row r="1120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="6"/>
       <c r="B1120" s="1"/>
     </row>
-    <row r="1121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="6"/>
       <c r="B1121" s="1"/>
     </row>
-    <row r="1122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="6"/>
       <c r="B1122" s="1"/>
     </row>
-    <row r="1123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="6"/>
       <c r="B1123" s="1"/>
     </row>
-    <row r="1124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="6"/>
       <c r="B1124" s="1"/>
     </row>
-    <row r="1125" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="6"/>
       <c r="B1125" s="1"/>
     </row>
-    <row r="1126" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="6"/>
       <c r="B1126" s="1"/>
     </row>
-    <row r="1127" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="6"/>
       <c r="B1127" s="1"/>
     </row>
-    <row r="1128" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="6"/>
       <c r="B1128" s="1"/>
     </row>
-    <row r="1129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6"/>
       <c r="B1129" s="1"/>
     </row>
-    <row r="1130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="6"/>
       <c r="B1130" s="1"/>
     </row>
-    <row r="1131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="6"/>
       <c r="B1131" s="1"/>
     </row>
-    <row r="1132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="6"/>
       <c r="B1132" s="1"/>
     </row>
-    <row r="1133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="6"/>
       <c r="B1133" s="1"/>
     </row>
-    <row r="1134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="6"/>
       <c r="B1134" s="1"/>
     </row>
-    <row r="1135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="6"/>
       <c r="B1135" s="1"/>
     </row>
-    <row r="1136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="6"/>
       <c r="B1136" s="1"/>
     </row>
-    <row r="1137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="6"/>
       <c r="B1137" s="1"/>
     </row>
-    <row r="1138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="6"/>
       <c r="B1138" s="1"/>
     </row>
-    <row r="1139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="6"/>
       <c r="B1139" s="1"/>
     </row>
-    <row r="1140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="6"/>
       <c r="B1140" s="1"/>
     </row>
-    <row r="1141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="6"/>
       <c r="B1141" s="1"/>
     </row>
-    <row r="1142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="6"/>
       <c r="B1142" s="1"/>
     </row>
-    <row r="1143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="6"/>
       <c r="B1143" s="1"/>
     </row>
-    <row r="1144" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="6"/>
       <c r="B1144" s="1"/>
     </row>
-    <row r="1145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="6"/>
       <c r="B1145" s="1"/>
     </row>
-    <row r="1146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="6"/>
       <c r="B1146" s="1"/>
     </row>
-    <row r="1147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="6"/>
       <c r="B1147" s="1"/>
     </row>
-    <row r="1148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="6"/>
       <c r="B1148" s="1"/>
     </row>
-    <row r="1149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="6"/>
       <c r="B1149" s="1"/>
     </row>
-    <row r="1150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="6"/>
       <c r="B1150" s="1"/>
     </row>
-    <row r="1151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="6"/>
       <c r="B1151" s="1"/>
     </row>
-    <row r="1152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="6"/>
       <c r="B1152" s="1"/>
     </row>
-    <row r="1153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="6"/>
       <c r="B1153" s="1"/>
     </row>
-    <row r="1154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="6"/>
       <c r="B1154" s="1"/>
     </row>
-    <row r="1155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="6"/>
       <c r="B1155" s="1"/>
     </row>
-    <row r="1156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="6"/>
       <c r="B1156" s="1"/>
     </row>
-    <row r="1157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="6"/>
       <c r="B1157" s="1"/>
     </row>
-    <row r="1158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="6"/>
       <c r="B1158" s="1"/>
     </row>
-    <row r="1159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="6"/>
       <c r="B1159" s="1"/>
     </row>
-    <row r="1160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="6"/>
       <c r="B1160" s="1"/>
     </row>
-    <row r="1161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="6"/>
       <c r="B1161" s="1"/>
     </row>
-    <row r="1162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="6"/>
       <c r="B1162" s="1"/>
     </row>
-    <row r="1163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="6"/>
       <c r="B1163" s="1"/>
     </row>
-    <row r="1164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="6"/>
       <c r="B1164" s="1"/>
     </row>
-    <row r="1165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="6"/>
       <c r="B1165" s="1"/>
     </row>
-    <row r="1166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="6"/>
       <c r="B1166" s="1"/>
     </row>
-    <row r="1167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="6"/>
       <c r="B1167" s="1"/>
     </row>
-    <row r="1168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="6"/>
       <c r="B1168" s="1"/>
     </row>
-    <row r="1169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="6"/>
       <c r="B1169" s="1"/>
     </row>
-    <row r="1170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="6"/>
       <c r="B1170" s="1"/>
     </row>
-    <row r="1171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="6"/>
       <c r="B1171" s="1"/>
     </row>
-    <row r="1172" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="6"/>
       <c r="B1172" s="1"/>
     </row>
-    <row r="1173" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="6"/>
       <c r="B1173" s="1"/>
     </row>
-    <row r="1174" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="6"/>
       <c r="B1174" s="1"/>
     </row>
-    <row r="1175" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="6"/>
       <c r="B1175" s="1"/>
     </row>
-    <row r="1176" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="6"/>
       <c r="B1176" s="1"/>
     </row>
-    <row r="1177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="6"/>
       <c r="B1177" s="1"/>
     </row>
-    <row r="1178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="6"/>
       <c r="B1178" s="1"/>
     </row>
-    <row r="1179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="6"/>
       <c r="B1179" s="1"/>
     </row>
-    <row r="1180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="6"/>
       <c r="B1180" s="1"/>
     </row>
-    <row r="1181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="6"/>
       <c r="B1181" s="1"/>
     </row>
-    <row r="1182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="6"/>
       <c r="B1182" s="1"/>
     </row>
-    <row r="1183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="6"/>
       <c r="B1183" s="1"/>
     </row>
-    <row r="1184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="6"/>
       <c r="B1184" s="1"/>
     </row>
-    <row r="1185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="6"/>
       <c r="B1185" s="1"/>
     </row>
-    <row r="1186" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="6"/>
       <c r="B1186" s="1"/>
     </row>
-    <row r="1187" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="6"/>
       <c r="B1187" s="1"/>
     </row>
-    <row r="1188" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="6"/>
       <c r="B1188" s="1"/>
     </row>
-    <row r="1189" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="6"/>
       <c r="B1189" s="1"/>
     </row>
-    <row r="1190" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="6"/>
       <c r="B1190" s="1"/>
     </row>
-    <row r="1191" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="6"/>
       <c r="B1191" s="1"/>
     </row>
-    <row r="1192" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="6"/>
       <c r="B1192" s="1"/>
     </row>
-    <row r="1193" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="6"/>
       <c r="B1193" s="1"/>
     </row>
-    <row r="1194" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="6"/>
       <c r="B1194" s="1"/>
     </row>
-    <row r="1195" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="6"/>
       <c r="B1195" s="1"/>
     </row>
-    <row r="1196" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="6"/>
       <c r="B1196" s="1"/>
     </row>
-    <row r="1197" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="6"/>
       <c r="B1197" s="1"/>
     </row>
-    <row r="1198" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="6"/>
       <c r="B1198" s="1"/>
     </row>
-    <row r="1199" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="6"/>
       <c r="B1199" s="1"/>
     </row>
-    <row r="1200" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="6"/>
       <c r="B1200" s="1"/>
     </row>
-    <row r="1201" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="6"/>
       <c r="B1201" s="1"/>
     </row>
-    <row r="1202" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="6"/>
       <c r="B1202" s="1"/>
     </row>
-    <row r="1203" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="6"/>
       <c r="B1203" s="1"/>
     </row>
-    <row r="1204" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="6"/>
       <c r="B1204" s="1"/>
     </row>
-    <row r="1205" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="6"/>
       <c r="B1205" s="1"/>
     </row>
-    <row r="1206" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="6"/>
       <c r="B1206" s="1"/>
     </row>
-    <row r="1207" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="6"/>
       <c r="B1207" s="1"/>
     </row>
-    <row r="1208" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="6"/>
       <c r="B1208" s="1"/>
     </row>
-    <row r="1209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="6"/>
       <c r="B1209" s="1"/>
     </row>
-    <row r="1210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="6"/>
       <c r="B1210" s="1"/>
     </row>
-    <row r="1211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="6"/>
       <c r="B1211" s="1"/>
     </row>
-    <row r="1212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="6"/>
       <c r="B1212" s="1"/>
     </row>
-    <row r="1213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="6"/>
       <c r="B1213" s="1"/>
     </row>
-    <row r="1214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="6"/>
       <c r="B1214" s="1"/>
     </row>
-    <row r="1215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="6"/>
       <c r="B1215" s="1"/>
     </row>
-    <row r="1216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="6"/>
       <c r="B1216" s="1"/>
     </row>
-    <row r="1217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="6"/>
       <c r="B1217" s="1"/>
     </row>
-    <row r="1218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="6"/>
       <c r="B1218" s="1"/>
     </row>
-    <row r="1219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="6"/>
       <c r="B1219" s="1"/>
     </row>
-    <row r="1220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="6"/>
       <c r="B1220" s="1"/>
     </row>
-    <row r="1221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="6"/>
       <c r="B1221" s="1"/>
     </row>
-    <row r="1222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="6"/>
       <c r="B1222" s="1"/>
     </row>
-    <row r="1223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="6"/>
       <c r="B1223" s="1"/>
     </row>
-    <row r="1224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="6"/>
       <c r="B1224" s="1"/>
     </row>
-    <row r="1225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="6"/>
       <c r="B1225" s="1"/>
     </row>
-    <row r="1226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="6"/>
       <c r="B1226" s="1"/>
     </row>
-    <row r="1227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="6"/>
       <c r="B1227" s="1"/>
     </row>
-    <row r="1228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="6"/>
       <c r="B1228" s="1"/>
     </row>
-    <row r="1229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="6"/>
       <c r="B1229" s="1"/>
     </row>
-    <row r="1230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="6"/>
       <c r="B1230" s="1"/>
     </row>
-    <row r="1231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="6"/>
       <c r="B1231" s="1"/>
     </row>
-    <row r="1232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="6"/>
       <c r="B1232" s="1"/>
     </row>
-    <row r="1233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="6"/>
       <c r="B1233" s="1"/>
     </row>
-    <row r="1234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="6"/>
       <c r="B1234" s="1"/>
     </row>
-    <row r="1235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="6"/>
       <c r="B1235" s="1"/>
     </row>
-    <row r="1236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="6"/>
       <c r="B1236" s="1"/>
     </row>
-    <row r="1237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="6"/>
       <c r="B1237" s="1"/>
     </row>
-    <row r="1238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="6"/>
       <c r="B1238" s="1"/>
     </row>
-    <row r="1239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="6"/>
       <c r="B1239" s="1"/>
     </row>
-    <row r="1240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="6"/>
       <c r="B1240" s="1"/>
     </row>
-    <row r="1241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="6"/>
       <c r="B1241" s="1"/>
     </row>
-    <row r="1242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="6"/>
       <c r="B1242" s="1"/>
     </row>
-    <row r="1243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="6"/>
       <c r="B1243" s="1"/>
     </row>
-    <row r="1244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="6"/>
       <c r="B1244" s="1"/>
     </row>
-    <row r="1245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="6"/>
       <c r="B1245" s="1"/>
     </row>
-    <row r="1246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="6"/>
       <c r="B1246" s="1"/>
     </row>
-    <row r="1247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="6"/>
       <c r="B1247" s="1"/>
     </row>
-    <row r="1248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="6"/>
       <c r="B1248" s="1"/>
     </row>
-    <row r="1249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="6"/>
       <c r="B1249" s="1"/>
     </row>
-    <row r="1250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="6"/>
       <c r="B1250" s="1"/>
     </row>
-    <row r="1251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="6"/>
       <c r="B1251" s="1"/>
     </row>
-    <row r="1252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="6"/>
       <c r="B1252" s="1"/>
     </row>
-    <row r="1253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="6"/>
       <c r="B1253" s="1"/>
     </row>
-    <row r="1254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="6"/>
       <c r="B1254" s="1"/>
     </row>
-    <row r="1255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="6"/>
       <c r="B1255" s="1"/>
     </row>
-    <row r="1256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="6"/>
       <c r="B1256" s="1"/>
     </row>
-    <row r="1257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="6"/>
       <c r="B1257" s="1"/>
     </row>
-    <row r="1258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="6"/>
       <c r="B1258" s="1"/>
     </row>
-    <row r="1259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="6"/>
       <c r="B1259" s="1"/>
     </row>
-    <row r="1260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="6"/>
       <c r="B1260" s="1"/>
     </row>
-    <row r="1261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="6"/>
       <c r="B1261" s="1"/>
     </row>
-    <row r="1262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="6"/>
       <c r="B1262" s="1"/>
     </row>
-    <row r="1263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="6"/>
       <c r="B1263" s="1"/>
     </row>
-    <row r="1264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="6"/>
       <c r="B1264" s="1"/>
     </row>
-    <row r="1265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="6"/>
       <c r="B1265" s="1"/>
     </row>
-    <row r="1266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="6"/>
       <c r="B1266" s="1"/>
     </row>
-    <row r="1267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="6"/>
       <c r="B1267" s="1"/>
     </row>
-    <row r="1268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="6"/>
       <c r="B1268" s="1"/>
     </row>
-    <row r="1269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="6"/>
       <c r="B1269" s="1"/>
     </row>
-    <row r="1270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="6"/>
       <c r="B1270" s="1"/>
     </row>
-    <row r="1271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="6"/>
       <c r="B1271" s="1"/>
     </row>
-    <row r="1272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="6"/>
       <c r="B1272" s="1"/>
     </row>
-    <row r="1273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="6"/>
       <c r="B1273" s="1"/>
     </row>
-    <row r="1274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="6"/>
       <c r="B1274" s="1"/>
     </row>
-    <row r="1275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="6"/>
       <c r="B1275" s="1"/>
     </row>
-    <row r="1276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="6"/>
       <c r="B1276" s="1"/>
     </row>
-    <row r="1277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="6"/>
       <c r="B1277" s="1"/>
     </row>
-    <row r="1278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="6"/>
       <c r="B1278" s="1"/>
     </row>
-    <row r="1279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="6"/>
       <c r="B1279" s="1"/>
     </row>
-    <row r="1280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="6"/>
       <c r="B1280" s="1"/>
     </row>
-    <row r="1281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="6"/>
       <c r="B1281" s="1"/>
     </row>
-    <row r="1282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="6"/>
       <c r="B1282" s="1"/>
     </row>
-    <row r="1283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="6"/>
       <c r="B1283" s="1"/>
     </row>
-    <row r="1284" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="6"/>
       <c r="B1284" s="1"/>
     </row>
-    <row r="1285" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="6"/>
       <c r="B1285" s="1"/>
     </row>
-    <row r="1286" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="6"/>
       <c r="B1286" s="1"/>
     </row>
-    <row r="1287" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="6"/>
       <c r="B1287" s="1"/>
     </row>
-    <row r="1288" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="6"/>
       <c r="B1288" s="1"/>
     </row>
-    <row r="1289" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1289" s="1"/>
     </row>
-    <row r="1290" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1290" s="1"/>
     </row>
-    <row r="1291" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1291" s="1"/>
     </row>
-    <row r="1292" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1292" s="1"/>
     </row>
-    <row r="1293" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
     </row>
-    <row r="1294" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
     </row>
-    <row r="1295" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
     </row>
-    <row r="1296" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1296" s="1"/>
     </row>
     <row r="1297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,567 +8081,436 @@
     <row r="1408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1408" s="1"/>
     </row>
-    <row r="1409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
     </row>
-    <row r="1410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1410" s="1"/>
     </row>
-    <row r="1411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
     </row>
-    <row r="1412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1412" s="1"/>
     </row>
-    <row r="1413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1413" s="6"/>
+    <row r="1413" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
     </row>
-    <row r="1414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1414" s="6"/>
+    <row r="1414" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
     </row>
-    <row r="1415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1415" s="6"/>
+    <row r="1415" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
     </row>
-    <row r="1416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1416" s="6"/>
+    <row r="1416" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1416" s="1"/>
     </row>
-    <row r="1417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1417" s="6"/>
+    <row r="1417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
     </row>
-    <row r="1418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1418" s="6"/>
+    <row r="1418" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1418" s="1"/>
     </row>
-    <row r="1419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1419" s="6"/>
+    <row r="1419" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
     </row>
-    <row r="1420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1420" s="6"/>
+    <row r="1420" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
     </row>
-    <row r="1421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1421" s="6"/>
+    <row r="1421" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
     </row>
-    <row r="1422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1422" s="6"/>
+    <row r="1422" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1422" s="1"/>
     </row>
-    <row r="1423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1423" s="6"/>
+    <row r="1423" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
     </row>
-    <row r="1424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1424" s="6"/>
+    <row r="1424" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
     </row>
-    <row r="1425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1425" s="6"/>
+    <row r="1425" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
     </row>
-    <row r="1426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1426" s="6"/>
+    <row r="1426" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
     </row>
-    <row r="1427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1427" s="6"/>
+    <row r="1427" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
     </row>
-    <row r="1428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1428" s="6"/>
+    <row r="1428" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
     </row>
-    <row r="1429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1429" s="6"/>
+    <row r="1429" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1429" s="1"/>
     </row>
-    <row r="1430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1430" s="6"/>
+    <row r="1430" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
     </row>
-    <row r="1431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1431" s="6"/>
+    <row r="1431" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
     </row>
-    <row r="1432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1432" s="6"/>
+    <row r="1432" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
     </row>
-    <row r="1433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1433" s="6"/>
+    <row r="1433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
     </row>
-    <row r="1434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1434" s="6"/>
+    <row r="1434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1434" s="1"/>
     </row>
-    <row r="1435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1435" s="6"/>
+    <row r="1435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1435" s="1"/>
     </row>
-    <row r="1436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1436" s="6"/>
+    <row r="1436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
     </row>
-    <row r="1437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1437" s="6"/>
+    <row r="1437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1437" s="1"/>
     </row>
-    <row r="1438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1438" s="6"/>
+    <row r="1438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1438" s="1"/>
     </row>
-    <row r="1439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1439" s="6"/>
+    <row r="1439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1439" s="1"/>
     </row>
-    <row r="1440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1440" s="6"/>
+    <row r="1440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1440" s="1"/>
     </row>
-    <row r="1441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1441" s="6"/>
+    <row r="1441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1441" s="1"/>
     </row>
-    <row r="1442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1442" s="6"/>
+    <row r="1442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1442" s="1"/>
     </row>
-    <row r="1443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1443" s="6"/>
+    <row r="1443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1443" s="1"/>
     </row>
-    <row r="1444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1444" s="6"/>
+    <row r="1444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1444" s="1"/>
     </row>
-    <row r="1445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1445" s="6"/>
+    <row r="1445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1445" s="1"/>
     </row>
-    <row r="1446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1446" s="6"/>
+    <row r="1446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1446" s="1"/>
     </row>
-    <row r="1447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1447" s="6"/>
+    <row r="1447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1447" s="1"/>
     </row>
-    <row r="1448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1448" s="6"/>
+    <row r="1448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1448" s="1"/>
     </row>
-    <row r="1449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1449" s="6"/>
+    <row r="1449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1449" s="1"/>
     </row>
-    <row r="1450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1450" s="6"/>
+    <row r="1450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1450" s="1"/>
     </row>
-    <row r="1451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1451" s="6"/>
+    <row r="1451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1451" s="1"/>
     </row>
-    <row r="1452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1452" s="6"/>
+    <row r="1452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1452" s="1"/>
     </row>
-    <row r="1453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1453" s="6"/>
+    <row r="1453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1453" s="1"/>
     </row>
-    <row r="1454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1454" s="6"/>
+    <row r="1454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1454" s="1"/>
     </row>
-    <row r="1455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1455" s="6"/>
+    <row r="1455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1455" s="1"/>
     </row>
-    <row r="1456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1456" s="6"/>
+    <row r="1456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1456" s="1"/>
     </row>
-    <row r="1457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1457" s="6"/>
+    <row r="1457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1457" s="1"/>
     </row>
-    <row r="1458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1458" s="6"/>
+    <row r="1458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1458" s="1"/>
     </row>
-    <row r="1459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1459" s="6"/>
+    <row r="1459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1459" s="1"/>
     </row>
-    <row r="1460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1460" s="6"/>
+    <row r="1460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1460" s="1"/>
     </row>
-    <row r="1461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1461" s="6"/>
+    <row r="1461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1461" s="1"/>
     </row>
-    <row r="1462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1462" s="6"/>
+    <row r="1462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1462" s="1"/>
     </row>
-    <row r="1463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1463" s="6"/>
+    <row r="1463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1463" s="1"/>
     </row>
-    <row r="1464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1464" s="6"/>
+    <row r="1464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1464" s="1"/>
     </row>
-    <row r="1465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1465" s="6"/>
+    <row r="1465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1465" s="1"/>
     </row>
-    <row r="1466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1466" s="6"/>
+    <row r="1466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1466" s="1"/>
     </row>
-    <row r="1467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1467" s="6"/>
+    <row r="1467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1467" s="1"/>
     </row>
-    <row r="1468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1468" s="6"/>
+    <row r="1468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1468" s="1"/>
     </row>
-    <row r="1469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1469" s="6"/>
+    <row r="1469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1469" s="1"/>
     </row>
-    <row r="1470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1470" s="6"/>
+    <row r="1470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1470" s="1"/>
     </row>
-    <row r="1471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1471" s="6"/>
+    <row r="1471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1471" s="1"/>
     </row>
-    <row r="1472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1472" s="6"/>
+    <row r="1472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1472" s="1"/>
     </row>
-    <row r="1473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1473" s="6"/>
+    <row r="1473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1473" s="1"/>
     </row>
-    <row r="1474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1474" s="6"/>
+    <row r="1474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1474" s="1"/>
     </row>
-    <row r="1475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1475" s="6"/>
+    <row r="1475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1475" s="1"/>
     </row>
-    <row r="1476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1476" s="6"/>
+    <row r="1476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1476" s="1"/>
     </row>
-    <row r="1477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1477" s="6"/>
+    <row r="1477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1477" s="1"/>
     </row>
-    <row r="1478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1478" s="6"/>
+    <row r="1478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1478" s="1"/>
     </row>
-    <row r="1479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1479" s="6"/>
+    <row r="1479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1479" s="1"/>
     </row>
-    <row r="1480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1480" s="6"/>
+    <row r="1480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1480" s="1"/>
     </row>
-    <row r="1481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1481" s="6"/>
+    <row r="1481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1481" s="1"/>
     </row>
-    <row r="1482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1482" s="6"/>
+    <row r="1482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1482" s="1"/>
     </row>
-    <row r="1483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1483" s="6"/>
+    <row r="1483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1483" s="1"/>
     </row>
-    <row r="1484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1484" s="6"/>
+    <row r="1484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1484" s="1"/>
     </row>
-    <row r="1485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1485" s="6"/>
+    <row r="1485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1485" s="1"/>
     </row>
-    <row r="1486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1486" s="6"/>
+    <row r="1486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1486" s="1"/>
     </row>
-    <row r="1487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1487" s="6"/>
+    <row r="1487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1487" s="1"/>
     </row>
-    <row r="1488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1488" s="6"/>
+    <row r="1488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1488" s="1"/>
     </row>
-    <row r="1489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1489" s="6"/>
+    <row r="1489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1489" s="1"/>
     </row>
-    <row r="1490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1490" s="6"/>
+    <row r="1490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1490" s="1"/>
     </row>
-    <row r="1491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1491" s="6"/>
+    <row r="1491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1491" s="1"/>
     </row>
-    <row r="1492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1492" s="6"/>
+    <row r="1492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1492" s="1"/>
     </row>
-    <row r="1493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1493" s="6"/>
+    <row r="1493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1493" s="1"/>
     </row>
-    <row r="1494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1494" s="6"/>
+    <row r="1494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1494" s="1"/>
     </row>
-    <row r="1495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1495" s="6"/>
+    <row r="1495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1495" s="1"/>
     </row>
-    <row r="1496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1496" s="6"/>
+    <row r="1496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1496" s="1"/>
     </row>
-    <row r="1497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="6"/>
+    <row r="1497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1497" s="1"/>
     </row>
-    <row r="1498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1498" s="6"/>
+    <row r="1498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1498" s="1"/>
     </row>
-    <row r="1499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1499" s="6"/>
+    <row r="1499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1499" s="1"/>
     </row>
-    <row r="1500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1500" s="6"/>
+    <row r="1500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1500" s="1"/>
     </row>
-    <row r="1501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1501" s="6"/>
+    <row r="1501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1501" s="1"/>
     </row>
-    <row r="1502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1502" s="6"/>
+    <row r="1502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1502" s="1"/>
     </row>
-    <row r="1503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1503" s="6"/>
+    <row r="1503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1503" s="1"/>
     </row>
-    <row r="1504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1504" s="6"/>
+    <row r="1504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1504" s="1"/>
     </row>
-    <row r="1505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1505" s="6"/>
+    <row r="1505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1505" s="1"/>
     </row>
-    <row r="1506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1506" s="6"/>
+    <row r="1506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1506" s="1"/>
     </row>
-    <row r="1507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1507" s="6"/>
+    <row r="1507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1507" s="1"/>
     </row>
-    <row r="1508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1508" s="6"/>
+    <row r="1508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1508" s="1"/>
     </row>
-    <row r="1509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1509" s="6"/>
+    <row r="1509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1509" s="1"/>
     </row>
-    <row r="1510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1510" s="6"/>
+    <row r="1510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1510" s="1"/>
     </row>
-    <row r="1511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1511" s="6"/>
+    <row r="1511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1511" s="1"/>
     </row>
-    <row r="1512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1512" s="6"/>
+    <row r="1512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1512" s="1"/>
     </row>
-    <row r="1513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1513" s="6"/>
+    <row r="1513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1513" s="1"/>
     </row>
-    <row r="1514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1514" s="6"/>
+    <row r="1514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1514" s="1"/>
     </row>
-    <row r="1515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1515" s="6"/>
+    <row r="1515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1515" s="1"/>
     </row>
-    <row r="1516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1516" s="6"/>
+    <row r="1516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1516" s="1"/>
     </row>
-    <row r="1517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1517" s="6"/>
+    <row r="1517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1517" s="1"/>
     </row>
-    <row r="1518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1518" s="6"/>
+    <row r="1518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1518" s="1"/>
     </row>
-    <row r="1519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1519" s="6"/>
+    <row r="1519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1519" s="1"/>
     </row>
-    <row r="1520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1520" s="6"/>
+    <row r="1520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1520" s="1"/>
     </row>
-    <row r="1521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1521" s="6"/>
+    <row r="1521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1521" s="1"/>
     </row>
-    <row r="1522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1522" s="6"/>
+    <row r="1522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1522" s="1"/>
     </row>
-    <row r="1523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1523" s="6"/>
+    <row r="1523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1523" s="1"/>
     </row>
-    <row r="1524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1524" s="6"/>
+    <row r="1524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1524" s="1"/>
     </row>
-    <row r="1525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1525" s="6"/>
+    <row r="1525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1525" s="1"/>
     </row>
-    <row r="1526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1526" s="6"/>
+    <row r="1526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1526" s="1"/>
     </row>
-    <row r="1527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1527" s="6"/>
+    <row r="1527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1527" s="1"/>
     </row>
-    <row r="1528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1528" s="6"/>
+    <row r="1528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1528" s="1"/>
     </row>
-    <row r="1529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1529" s="6"/>
+    <row r="1529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1529" s="1"/>
     </row>
-    <row r="1530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1530" s="6"/>
+    <row r="1530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1530" s="1"/>
     </row>
-    <row r="1531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1531" s="6"/>
+    <row r="1531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1531" s="1"/>
     </row>
-    <row r="1532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1532" s="6"/>
+    <row r="1532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1532" s="1"/>
     </row>
-    <row r="1533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1533" s="6"/>
+    <row r="1533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1533" s="1"/>
     </row>
-    <row r="1534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1534" s="6"/>
+    <row r="1534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1534" s="1"/>
     </row>
-    <row r="1535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1535" s="6"/>
+    <row r="1535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1535" s="1"/>
     </row>
-    <row r="1536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1536" s="6"/>
+    <row r="1536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1536" s="1"/>
     </row>
-    <row r="1537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1537" s="6"/>
+    <row r="1537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1537" s="1"/>
     </row>
-    <row r="1538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1538" s="6"/>
+    <row r="1538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1538" s="1"/>
     </row>
-    <row r="1539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1539" s="6"/>
+    <row r="1539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1539" s="1"/>
     </row>
-    <row r="1540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1540" s="6"/>
+    <row r="1540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1540" s="1"/>
     </row>
-    <row r="1541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1541" s="6"/>
+    <row r="1541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1541" s="1"/>
     </row>
-    <row r="1542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1542" s="6"/>
+    <row r="1542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1542" s="1"/>
     </row>
-    <row r="1543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1543" s="6"/>
+    <row r="1543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1543" s="1"/>
     </row>
-    <row r="1544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1544" s="1"/>
     </row>
-    <row r="1545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1545" s="1"/>
     </row>
-    <row r="1546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1546" s="1"/>
     </row>
-    <row r="1547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1547" s="1"/>
     </row>
-    <row r="1548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1548" s="1"/>
     </row>
-    <row r="1549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1549" s="1"/>
     </row>
-    <row r="1550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1550" s="1"/>
     </row>
-    <row r="1551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1551" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1551" s="1"/>
     </row>
-    <row r="1552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1552" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1552" s="1"/>
     </row>
     <row r="1553" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7638,436 +8657,567 @@
     <row r="1600" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1600" s="1"/>
     </row>
-    <row r="1601" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1601" s="1"/>
     </row>
-    <row r="1602" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1602" s="1"/>
     </row>
-    <row r="1603" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1603" s="1"/>
     </row>
-    <row r="1604" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1604" s="1"/>
     </row>
-    <row r="1605" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1605" s="1"/>
     </row>
-    <row r="1606" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1606" s="1"/>
     </row>
-    <row r="1607" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1607" s="1"/>
     </row>
-    <row r="1608" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1608" s="6"/>
       <c r="B1608" s="1"/>
     </row>
-    <row r="1609" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1609" s="6"/>
       <c r="B1609" s="1"/>
     </row>
-    <row r="1610" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1610" s="6"/>
       <c r="B1610" s="1"/>
     </row>
-    <row r="1611" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1611" s="6"/>
       <c r="B1611" s="1"/>
     </row>
-    <row r="1612" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1612" s="6"/>
       <c r="B1612" s="1"/>
     </row>
-    <row r="1613" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1613" s="6"/>
       <c r="B1613" s="1"/>
     </row>
-    <row r="1614" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1614" s="6"/>
       <c r="B1614" s="1"/>
     </row>
-    <row r="1615" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1615" s="6"/>
       <c r="B1615" s="1"/>
     </row>
-    <row r="1616" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1616" s="6"/>
       <c r="B1616" s="1"/>
     </row>
-    <row r="1617" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1617" s="6"/>
       <c r="B1617" s="1"/>
     </row>
-    <row r="1618" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1618" s="6"/>
       <c r="B1618" s="1"/>
     </row>
-    <row r="1619" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1619" s="6"/>
       <c r="B1619" s="1"/>
     </row>
-    <row r="1620" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1620" s="6"/>
       <c r="B1620" s="1"/>
     </row>
-    <row r="1621" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1621" s="6"/>
       <c r="B1621" s="1"/>
     </row>
-    <row r="1622" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1622" s="6"/>
       <c r="B1622" s="1"/>
     </row>
-    <row r="1623" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1623" s="6"/>
       <c r="B1623" s="1"/>
     </row>
-    <row r="1624" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1624" s="6"/>
       <c r="B1624" s="1"/>
     </row>
-    <row r="1625" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1625" s="6"/>
       <c r="B1625" s="1"/>
     </row>
-    <row r="1626" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1626" s="6"/>
       <c r="B1626" s="1"/>
     </row>
-    <row r="1627" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1627" s="6"/>
       <c r="B1627" s="1"/>
     </row>
-    <row r="1628" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1628" s="6"/>
       <c r="B1628" s="1"/>
     </row>
-    <row r="1629" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1629" s="6"/>
       <c r="B1629" s="1"/>
     </row>
-    <row r="1630" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1630" s="6"/>
       <c r="B1630" s="1"/>
     </row>
-    <row r="1631" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1631" s="6"/>
       <c r="B1631" s="1"/>
     </row>
-    <row r="1632" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1632" s="6"/>
       <c r="B1632" s="1"/>
     </row>
-    <row r="1633" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1633" s="6"/>
       <c r="B1633" s="1"/>
     </row>
-    <row r="1634" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1634" s="6"/>
       <c r="B1634" s="1"/>
     </row>
-    <row r="1635" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1635" s="6"/>
       <c r="B1635" s="1"/>
     </row>
-    <row r="1636" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1636" s="6"/>
       <c r="B1636" s="1"/>
     </row>
-    <row r="1637" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1637" s="6"/>
       <c r="B1637" s="1"/>
     </row>
-    <row r="1638" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1638" s="6"/>
       <c r="B1638" s="1"/>
     </row>
-    <row r="1639" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1639" s="6"/>
       <c r="B1639" s="1"/>
     </row>
-    <row r="1640" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1640" s="6"/>
       <c r="B1640" s="1"/>
     </row>
-    <row r="1641" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1641" s="6"/>
       <c r="B1641" s="1"/>
     </row>
-    <row r="1642" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1642" s="6"/>
       <c r="B1642" s="1"/>
     </row>
-    <row r="1643" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1643" s="6"/>
       <c r="B1643" s="1"/>
     </row>
-    <row r="1644" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1644" s="6"/>
       <c r="B1644" s="1"/>
     </row>
-    <row r="1645" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1645" s="6"/>
       <c r="B1645" s="1"/>
     </row>
-    <row r="1646" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1646" s="6"/>
       <c r="B1646" s="1"/>
     </row>
-    <row r="1647" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1647" s="6"/>
       <c r="B1647" s="1"/>
     </row>
-    <row r="1648" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1648" s="6"/>
       <c r="B1648" s="1"/>
     </row>
-    <row r="1649" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1649" s="6"/>
       <c r="B1649" s="1"/>
     </row>
-    <row r="1650" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1650" s="6"/>
       <c r="B1650" s="1"/>
     </row>
-    <row r="1651" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1651" s="6"/>
       <c r="B1651" s="1"/>
     </row>
-    <row r="1652" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1652" s="6"/>
       <c r="B1652" s="1"/>
     </row>
-    <row r="1653" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1653" s="6"/>
       <c r="B1653" s="1"/>
     </row>
-    <row r="1654" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1654" s="6"/>
       <c r="B1654" s="1"/>
     </row>
-    <row r="1655" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1655" s="6"/>
       <c r="B1655" s="1"/>
     </row>
-    <row r="1656" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1656" s="6"/>
       <c r="B1656" s="1"/>
     </row>
-    <row r="1657" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1657" s="6"/>
       <c r="B1657" s="1"/>
     </row>
-    <row r="1658" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1658" s="6"/>
       <c r="B1658" s="1"/>
     </row>
-    <row r="1659" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1659" s="6"/>
       <c r="B1659" s="1"/>
     </row>
-    <row r="1660" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1660" s="6"/>
       <c r="B1660" s="1"/>
     </row>
-    <row r="1661" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1661" s="6"/>
       <c r="B1661" s="1"/>
     </row>
-    <row r="1662" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1662" s="6"/>
       <c r="B1662" s="1"/>
     </row>
-    <row r="1663" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1663" s="6"/>
       <c r="B1663" s="1"/>
     </row>
-    <row r="1664" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1664" s="6"/>
       <c r="B1664" s="1"/>
     </row>
-    <row r="1665" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1665" s="6"/>
       <c r="B1665" s="1"/>
     </row>
-    <row r="1666" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1666" s="6"/>
       <c r="B1666" s="1"/>
     </row>
-    <row r="1667" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1667" s="6"/>
       <c r="B1667" s="1"/>
     </row>
-    <row r="1668" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1668" s="6"/>
       <c r="B1668" s="1"/>
     </row>
-    <row r="1669" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1669" s="6"/>
       <c r="B1669" s="1"/>
     </row>
-    <row r="1670" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1670" s="6"/>
       <c r="B1670" s="1"/>
     </row>
-    <row r="1671" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1671" s="6"/>
       <c r="B1671" s="1"/>
     </row>
-    <row r="1672" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1672" s="6"/>
       <c r="B1672" s="1"/>
     </row>
-    <row r="1673" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1673" s="6"/>
       <c r="B1673" s="1"/>
     </row>
-    <row r="1674" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1674" s="6"/>
       <c r="B1674" s="1"/>
     </row>
-    <row r="1675" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1675" s="6"/>
       <c r="B1675" s="1"/>
     </row>
-    <row r="1676" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1676" s="6"/>
       <c r="B1676" s="1"/>
     </row>
-    <row r="1677" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1677" s="6"/>
       <c r="B1677" s="1"/>
     </row>
-    <row r="1678" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1678" s="6"/>
       <c r="B1678" s="1"/>
     </row>
-    <row r="1679" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1679" s="6"/>
       <c r="B1679" s="1"/>
     </row>
-    <row r="1680" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1680" s="6"/>
       <c r="B1680" s="1"/>
     </row>
-    <row r="1681" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1681" s="6"/>
       <c r="B1681" s="1"/>
     </row>
-    <row r="1682" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1682" s="6"/>
       <c r="B1682" s="1"/>
     </row>
-    <row r="1683" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1683" s="6"/>
       <c r="B1683" s="1"/>
     </row>
-    <row r="1684" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1684" s="6"/>
       <c r="B1684" s="1"/>
     </row>
-    <row r="1685" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1685" s="6"/>
       <c r="B1685" s="1"/>
     </row>
-    <row r="1686" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1686" s="6"/>
       <c r="B1686" s="1"/>
     </row>
-    <row r="1687" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1687" s="6"/>
       <c r="B1687" s="1"/>
     </row>
-    <row r="1688" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1688" s="6"/>
       <c r="B1688" s="1"/>
     </row>
-    <row r="1689" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1689" s="6"/>
       <c r="B1689" s="1"/>
     </row>
-    <row r="1690" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1690" s="6"/>
       <c r="B1690" s="1"/>
     </row>
-    <row r="1691" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1691" s="6"/>
       <c r="B1691" s="1"/>
     </row>
-    <row r="1692" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1692" s="6"/>
       <c r="B1692" s="1"/>
     </row>
-    <row r="1693" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1693" s="6"/>
       <c r="B1693" s="1"/>
     </row>
-    <row r="1694" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1694" s="6"/>
       <c r="B1694" s="1"/>
     </row>
-    <row r="1695" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1695" s="6"/>
       <c r="B1695" s="1"/>
     </row>
-    <row r="1696" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1696" s="6"/>
       <c r="B1696" s="1"/>
     </row>
-    <row r="1697" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1697" s="6"/>
       <c r="B1697" s="1"/>
     </row>
-    <row r="1698" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1698" s="6"/>
       <c r="B1698" s="1"/>
     </row>
-    <row r="1699" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1699" s="6"/>
       <c r="B1699" s="1"/>
     </row>
-    <row r="1700" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1700" s="6"/>
       <c r="B1700" s="1"/>
     </row>
-    <row r="1701" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1701" s="6"/>
       <c r="B1701" s="1"/>
     </row>
-    <row r="1702" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1702" s="6"/>
       <c r="B1702" s="1"/>
     </row>
-    <row r="1703" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1703" s="6"/>
       <c r="B1703" s="1"/>
     </row>
-    <row r="1704" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1704" s="6"/>
       <c r="B1704" s="1"/>
     </row>
-    <row r="1705" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1705" s="6"/>
       <c r="B1705" s="1"/>
     </row>
-    <row r="1706" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1706" s="6"/>
       <c r="B1706" s="1"/>
     </row>
-    <row r="1707" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1707" s="6"/>
       <c r="B1707" s="1"/>
     </row>
-    <row r="1708" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1708" s="6"/>
       <c r="B1708" s="1"/>
     </row>
-    <row r="1709" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1709" s="6"/>
       <c r="B1709" s="1"/>
     </row>
-    <row r="1710" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1710" s="6"/>
       <c r="B1710" s="1"/>
     </row>
-    <row r="1711" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1711" s="6"/>
       <c r="B1711" s="1"/>
     </row>
-    <row r="1712" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1712" s="6"/>
       <c r="B1712" s="1"/>
     </row>
-    <row r="1713" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1713" s="6"/>
       <c r="B1713" s="1"/>
     </row>
-    <row r="1714" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1714" s="6"/>
       <c r="B1714" s="1"/>
     </row>
-    <row r="1715" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1715" s="6"/>
       <c r="B1715" s="1"/>
     </row>
-    <row r="1716" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1716" s="6"/>
       <c r="B1716" s="1"/>
     </row>
-    <row r="1717" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1717" s="6"/>
       <c r="B1717" s="1"/>
     </row>
-    <row r="1718" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1718" s="6"/>
       <c r="B1718" s="1"/>
     </row>
-    <row r="1719" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1719" s="6"/>
       <c r="B1719" s="1"/>
     </row>
-    <row r="1720" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1720" s="6"/>
       <c r="B1720" s="1"/>
     </row>
-    <row r="1721" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1721" s="6"/>
       <c r="B1721" s="1"/>
     </row>
-    <row r="1722" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1722" s="6"/>
       <c r="B1722" s="1"/>
     </row>
-    <row r="1723" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1723" s="6"/>
       <c r="B1723" s="1"/>
     </row>
-    <row r="1724" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1724" s="6"/>
       <c r="B1724" s="1"/>
     </row>
-    <row r="1725" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1725" s="6"/>
       <c r="B1725" s="1"/>
     </row>
-    <row r="1726" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1726" s="6"/>
       <c r="B1726" s="1"/>
     </row>
-    <row r="1727" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1727" s="6"/>
       <c r="B1727" s="1"/>
     </row>
-    <row r="1728" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1728" s="6"/>
       <c r="B1728" s="1"/>
     </row>
-    <row r="1729" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1729" s="6"/>
       <c r="B1729" s="1"/>
     </row>
-    <row r="1730" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1730" s="6"/>
       <c r="B1730" s="1"/>
     </row>
-    <row r="1731" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1731" s="6"/>
       <c r="B1731" s="1"/>
     </row>
-    <row r="1732" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1732" s="6"/>
       <c r="B1732" s="1"/>
     </row>
-    <row r="1733" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1733" s="6"/>
       <c r="B1733" s="1"/>
     </row>
-    <row r="1734" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1734" s="6"/>
       <c r="B1734" s="1"/>
     </row>
-    <row r="1735" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1735" s="6"/>
       <c r="B1735" s="1"/>
     </row>
-    <row r="1736" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1736" s="6"/>
       <c r="B1736" s="1"/>
     </row>
-    <row r="1737" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1737" s="6"/>
       <c r="B1737" s="1"/>
     </row>
-    <row r="1738" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1738" s="6"/>
       <c r="B1738" s="1"/>
     </row>
-    <row r="1739" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1739" s="1"/>
     </row>
-    <row r="1740" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1740" s="1"/>
     </row>
-    <row r="1741" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1741" s="1"/>
     </row>
-    <row r="1742" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1742" s="1"/>
     </row>
-    <row r="1743" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1743" s="1"/>
     </row>
-    <row r="1744" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1744" s="1"/>
     </row>
     <row r="1745" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8516,6 +9666,591 @@
     </row>
     <row r="1893" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1893" s="1"/>
+    </row>
+    <row r="1894" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1894" s="1"/>
+    </row>
+    <row r="1895" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1895" s="1"/>
+    </row>
+    <row r="1896" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1896" s="1"/>
+    </row>
+    <row r="1897" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1897" s="1"/>
+    </row>
+    <row r="1898" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1898" s="1"/>
+    </row>
+    <row r="1899" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1899" s="1"/>
+    </row>
+    <row r="1900" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1900" s="1"/>
+    </row>
+    <row r="1901" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1901" s="1"/>
+    </row>
+    <row r="1902" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1902" s="1"/>
+    </row>
+    <row r="1903" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1903" s="1"/>
+    </row>
+    <row r="1904" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1904" s="1"/>
+    </row>
+    <row r="1905" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1905" s="1"/>
+    </row>
+    <row r="1906" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1906" s="1"/>
+    </row>
+    <row r="1907" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1907" s="1"/>
+    </row>
+    <row r="1908" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1908" s="1"/>
+    </row>
+    <row r="1909" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1909" s="1"/>
+    </row>
+    <row r="1910" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1910" s="1"/>
+    </row>
+    <row r="1911" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1911" s="1"/>
+    </row>
+    <row r="1912" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1912" s="1"/>
+    </row>
+    <row r="1913" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1913" s="1"/>
+    </row>
+    <row r="1914" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1914" s="1"/>
+    </row>
+    <row r="1915" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1915" s="1"/>
+    </row>
+    <row r="1916" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1916" s="1"/>
+    </row>
+    <row r="1917" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1917" s="1"/>
+    </row>
+    <row r="1918" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1918" s="1"/>
+    </row>
+    <row r="1919" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1919" s="1"/>
+    </row>
+    <row r="1920" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1920" s="1"/>
+    </row>
+    <row r="1921" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1921" s="1"/>
+    </row>
+    <row r="1922" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1922" s="1"/>
+    </row>
+    <row r="1923" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1923" s="1"/>
+    </row>
+    <row r="1924" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1924" s="1"/>
+    </row>
+    <row r="1925" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1925" s="1"/>
+    </row>
+    <row r="1926" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1926" s="1"/>
+    </row>
+    <row r="1927" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1927" s="1"/>
+    </row>
+    <row r="1928" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1928" s="1"/>
+    </row>
+    <row r="1929" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1929" s="1"/>
+    </row>
+    <row r="1930" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1930" s="1"/>
+    </row>
+    <row r="1931" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1931" s="1"/>
+    </row>
+    <row r="1932" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1932" s="1"/>
+    </row>
+    <row r="1933" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1933" s="1"/>
+    </row>
+    <row r="1934" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1934" s="1"/>
+    </row>
+    <row r="1935" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1935" s="1"/>
+    </row>
+    <row r="1936" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1936" s="1"/>
+    </row>
+    <row r="1937" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1937" s="1"/>
+    </row>
+    <row r="1938" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1938" s="1"/>
+    </row>
+    <row r="1939" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1939" s="1"/>
+    </row>
+    <row r="1940" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1940" s="1"/>
+    </row>
+    <row r="1941" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1941" s="1"/>
+    </row>
+    <row r="1942" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1942" s="1"/>
+    </row>
+    <row r="1943" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1943" s="1"/>
+    </row>
+    <row r="1944" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1944" s="1"/>
+    </row>
+    <row r="1945" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="1"/>
+    </row>
+    <row r="1946" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1946" s="1"/>
+    </row>
+    <row r="1947" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1947" s="1"/>
+    </row>
+    <row r="1948" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1948" s="1"/>
+    </row>
+    <row r="1949" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1949" s="1"/>
+    </row>
+    <row r="1950" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1950" s="1"/>
+    </row>
+    <row r="1951" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1951" s="1"/>
+    </row>
+    <row r="1952" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1952" s="1"/>
+    </row>
+    <row r="1953" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1953" s="1"/>
+    </row>
+    <row r="1954" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1954" s="1"/>
+    </row>
+    <row r="1955" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1955" s="1"/>
+    </row>
+    <row r="1956" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1956" s="1"/>
+    </row>
+    <row r="1957" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1957" s="1"/>
+    </row>
+    <row r="1958" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1958" s="1"/>
+    </row>
+    <row r="1959" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1959" s="1"/>
+    </row>
+    <row r="1960" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1960" s="1"/>
+    </row>
+    <row r="1961" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1961" s="1"/>
+    </row>
+    <row r="1962" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1962" s="1"/>
+    </row>
+    <row r="1963" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1963" s="1"/>
+    </row>
+    <row r="1964" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1964" s="1"/>
+    </row>
+    <row r="1965" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1965" s="1"/>
+    </row>
+    <row r="1966" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1966" s="1"/>
+    </row>
+    <row r="1967" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1967" s="1"/>
+    </row>
+    <row r="1968" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1968" s="1"/>
+    </row>
+    <row r="1969" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1969" s="1"/>
+    </row>
+    <row r="1970" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1970" s="1"/>
+    </row>
+    <row r="1971" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1971" s="1"/>
+    </row>
+    <row r="1972" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1972" s="1"/>
+    </row>
+    <row r="1973" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1973" s="1"/>
+    </row>
+    <row r="1974" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1974" s="1"/>
+    </row>
+    <row r="1975" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1975" s="1"/>
+    </row>
+    <row r="1976" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1976" s="1"/>
+    </row>
+    <row r="1977" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1977" s="1"/>
+    </row>
+    <row r="1978" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1978" s="1"/>
+    </row>
+    <row r="1979" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1979" s="1"/>
+    </row>
+    <row r="1980" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1980" s="1"/>
+    </row>
+    <row r="1981" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1981" s="1"/>
+    </row>
+    <row r="1982" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1982" s="1"/>
+    </row>
+    <row r="1983" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1983" s="1"/>
+    </row>
+    <row r="1984" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1984" s="1"/>
+    </row>
+    <row r="1985" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1985" s="1"/>
+    </row>
+    <row r="1986" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1986" s="1"/>
+    </row>
+    <row r="1987" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1987" s="1"/>
+    </row>
+    <row r="1988" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1988" s="1"/>
+    </row>
+    <row r="1989" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1989" s="1"/>
+    </row>
+    <row r="1990" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1990" s="1"/>
+    </row>
+    <row r="1991" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1991" s="1"/>
+    </row>
+    <row r="1992" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1992" s="1"/>
+    </row>
+    <row r="1993" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1993" s="1"/>
+    </row>
+    <row r="1994" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1994" s="1"/>
+    </row>
+    <row r="1995" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1995" s="1"/>
+    </row>
+    <row r="1996" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1996" s="1"/>
+    </row>
+    <row r="1997" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1997" s="1"/>
+    </row>
+    <row r="1998" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1998" s="1"/>
+    </row>
+    <row r="1999" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1999" s="1"/>
+    </row>
+    <row r="2000" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2000" s="1"/>
+    </row>
+    <row r="2001" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2001" s="1"/>
+    </row>
+    <row r="2002" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2002" s="1"/>
+    </row>
+    <row r="2003" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2003" s="1"/>
+    </row>
+    <row r="2004" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2004" s="1"/>
+    </row>
+    <row r="2005" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2005" s="1"/>
+    </row>
+    <row r="2006" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2006" s="1"/>
+    </row>
+    <row r="2007" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2007" s="1"/>
+    </row>
+    <row r="2008" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2008" s="1"/>
+    </row>
+    <row r="2009" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2009" s="1"/>
+    </row>
+    <row r="2010" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2010" s="1"/>
+    </row>
+    <row r="2011" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2011" s="1"/>
+    </row>
+    <row r="2012" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2012" s="1"/>
+    </row>
+    <row r="2013" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2013" s="1"/>
+    </row>
+    <row r="2014" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2014" s="1"/>
+    </row>
+    <row r="2015" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2015" s="1"/>
+    </row>
+    <row r="2016" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2016" s="1"/>
+    </row>
+    <row r="2017" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2017" s="1"/>
+    </row>
+    <row r="2018" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2018" s="1"/>
+    </row>
+    <row r="2019" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2019" s="1"/>
+    </row>
+    <row r="2020" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2020" s="1"/>
+    </row>
+    <row r="2021" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2021" s="1"/>
+    </row>
+    <row r="2022" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2022" s="1"/>
+    </row>
+    <row r="2023" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2023" s="1"/>
+    </row>
+    <row r="2024" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2024" s="1"/>
+    </row>
+    <row r="2025" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2025" s="1"/>
+    </row>
+    <row r="2026" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2026" s="1"/>
+    </row>
+    <row r="2027" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2027" s="1"/>
+    </row>
+    <row r="2028" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2028" s="1"/>
+    </row>
+    <row r="2029" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2029" s="1"/>
+    </row>
+    <row r="2030" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2030" s="1"/>
+    </row>
+    <row r="2031" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="1"/>
+    </row>
+    <row r="2032" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2032" s="1"/>
+    </row>
+    <row r="2033" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2033" s="1"/>
+    </row>
+    <row r="2034" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2034" s="1"/>
+    </row>
+    <row r="2035" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2035" s="1"/>
+    </row>
+    <row r="2036" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2036" s="1"/>
+    </row>
+    <row r="2037" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2037" s="1"/>
+    </row>
+    <row r="2038" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2038" s="1"/>
+    </row>
+    <row r="2039" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2039" s="1"/>
+    </row>
+    <row r="2040" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2040" s="1"/>
+    </row>
+    <row r="2041" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2041" s="1"/>
+    </row>
+    <row r="2042" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2042" s="1"/>
+    </row>
+    <row r="2043" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2043" s="1"/>
+    </row>
+    <row r="2044" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2044" s="1"/>
+    </row>
+    <row r="2045" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2045" s="1"/>
+    </row>
+    <row r="2046" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2046" s="1"/>
+    </row>
+    <row r="2047" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2047" s="1"/>
+    </row>
+    <row r="2048" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2048" s="1"/>
+    </row>
+    <row r="2049" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2049" s="1"/>
+    </row>
+    <row r="2050" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2050" s="1"/>
+    </row>
+    <row r="2051" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2051" s="1"/>
+    </row>
+    <row r="2052" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2052" s="1"/>
+    </row>
+    <row r="2053" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2053" s="1"/>
+    </row>
+    <row r="2054" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2054" s="1"/>
+    </row>
+    <row r="2055" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2055" s="1"/>
+    </row>
+    <row r="2056" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2056" s="1"/>
+    </row>
+    <row r="2057" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2057" s="1"/>
+    </row>
+    <row r="2058" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2058" s="1"/>
+    </row>
+    <row r="2059" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2059" s="1"/>
+    </row>
+    <row r="2060" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2060" s="1"/>
+    </row>
+    <row r="2061" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2061" s="1"/>
+    </row>
+    <row r="2062" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2062" s="1"/>
+    </row>
+    <row r="2063" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2063" s="1"/>
+    </row>
+    <row r="2064" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2064" s="1"/>
+    </row>
+    <row r="2065" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2065" s="1"/>
+    </row>
+    <row r="2066" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2066" s="1"/>
+    </row>
+    <row r="2067" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2067" s="1"/>
+    </row>
+    <row r="2068" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2068" s="1"/>
+    </row>
+    <row r="2069" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2069" s="1"/>
+    </row>
+    <row r="2070" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2070" s="1"/>
+    </row>
+    <row r="2071" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2071" s="1"/>
+    </row>
+    <row r="2072" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2072" s="1"/>
+    </row>
+    <row r="2073" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2073" s="1"/>
+    </row>
+    <row r="2074" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2074" s="1"/>
+    </row>
+    <row r="2075" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2075" s="1"/>
+    </row>
+    <row r="2076" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2076" s="1"/>
+    </row>
+    <row r="2077" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2077" s="1"/>
+    </row>
+    <row r="2078" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2078" s="1"/>
+    </row>
+    <row r="2079" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2079" s="1"/>
+    </row>
+    <row r="2080" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2080" s="1"/>
+    </row>
+    <row r="2081" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2081" s="1"/>
+    </row>
+    <row r="2082" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2082" s="1"/>
+    </row>
+    <row r="2083" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2083" s="1"/>
+    </row>
+    <row r="2084" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2084" s="1"/>
+    </row>
+    <row r="2085" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2085" s="1"/>
+    </row>
+    <row r="2086" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2086" s="1"/>
+    </row>
+    <row r="2087" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2087" s="1"/>
+    </row>
+    <row r="2088" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2088" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/13.10.2021/12.10.2021_cat_subcat.xlsx
+++ b/src/13.10.2021/12.10.2021_cat_subcat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838126B6-3B8C-431E-88F0-41119F767183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125507E8-8053-4C1B-BE2B-0631F0CB1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="195" windowWidth="11325" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16035" yWindow="465" windowWidth="12435" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
   <si>
     <t>1. Бумага писчая</t>
   </si>
@@ -1256,6 +1256,303 @@
   </si>
   <si>
     <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские</t>
+  </si>
+  <si>
+    <t>1. Проволока, нити для прошивки</t>
+  </si>
+  <si>
+    <t>2. Вакуумные и сейф- пакеты</t>
+  </si>
+  <si>
+    <t>3. Резинка банковская</t>
+  </si>
+  <si>
+    <t>4. Опечатывающие устройства</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.1. Этикет-ленты</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.2. Этикет-пистолеты</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.3. Игловые пистолеты и расходные материалы</t>
+  </si>
+  <si>
+    <t>6. Складская техника, тележки и комплектующие</t>
+  </si>
+  <si>
+    <t>7. Средства пожарной безопасности</t>
+  </si>
+  <si>
+    <t>8. Аптечки</t>
+  </si>
+  <si>
+    <t>9. Шкафы, пеналы для ключей</t>
+  </si>
+  <si>
+    <t>10. Сейфы и кэшбоксы</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.1. Почтовые замки</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.2. Навесные замки</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.1. Сургуч, пластилин для опечатывания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Товары для опломбирования =&gt; 12.2. Пломбы наклейки </t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.3. Пломбы свинцовые</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.4. Пломбы пластиковые</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.5. Проволока для опломбирования</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.6. Пломбы тросовые</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.1. Ленты бандерольные</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.2. Кольца бандерольные</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.3. Накладки</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.1. Журналы по охране труда и пожарной безопасности</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.2. Законы, правила, кодексы</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.3. Журналы и бланки для организаци пищевого производства, предприятий общественного питания</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.4. Журналы и бланки по делопроизводству, кадровой работе и бухгалтерскому учёту</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.5. Журналы и бланки для предприятий оптовой и розничной торговли</t>
+  </si>
+  <si>
+    <t>15. Кассовые ленты =&gt; 15.1. Кассовая лента термо</t>
+  </si>
+  <si>
+    <t>16. Инкассаторское оборудование</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.1. Детекторы валют и ценных бумаг</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.2. Счётчики банкнот</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.3. Лампы для детекторов</t>
+  </si>
+  <si>
+    <t>18. Торговые принадлежности</t>
+  </si>
+  <si>
+    <t>19. Термолента для электронных весов и термопринтеров =&gt; 19.1. Термоэтикетка</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.1. Меловые таблички</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.2. Дели-системы и тейбл тенты</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.3. Ценникодержатели</t>
+  </si>
+  <si>
+    <t>21. Инкасаторские сумки и мешки</t>
+  </si>
+  <si>
+    <t>1. Ерши для унитазов</t>
+  </si>
+  <si>
+    <t>2. Мыло для диспенсеров</t>
+  </si>
+  <si>
+    <t>3. Освежители воздуха автоматические</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.1. Диспенсеры для мыла</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.2. Диспенсеры для  гиг.покрытий, протир.бумаги</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.3. Диспенсеры для полотенец</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.4. Диспенсеры для туалетной бумаги</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.5. Диспенсеры для салфеток</t>
+  </si>
+  <si>
+    <t>5. Крючки, бытовые держатели, мыльницы</t>
+  </si>
+  <si>
+    <t>6. Запасные баллончики</t>
+  </si>
+  <si>
+    <t>7. Контейнеры, корзины</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.1. Вафли, пряники</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.2. Конфеты</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.3. Печенье</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.4. Рулеты</t>
+  </si>
+  <si>
+    <t>2. Бакалея</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.1. Чай чёрный в пакетиках</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.2. Чай зелёный в пакетиках</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.3. Чай травяной, фруктовый</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.1. Кофе в зёрнах</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.2. Кофе растворимый</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.1. Вода</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.2. Напитки</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.3. Соки, нектары, морсы</t>
+  </si>
+  <si>
+    <t>6. Снэки</t>
+  </si>
+  <si>
+    <t>1. Средства для ухода за техникой</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.1. Флеш-память usb</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.2. Внешние жёсткие диски</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.1. Телефоны DECT ***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.2. Факсимильные аппараты</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.3. Телефоны проводные</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.1. МФУ лазерные ***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.2. Принтеры струйные</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.3. МФУ струйные ***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.4. Принтеры лазерные</t>
+  </si>
+  <si>
+    <t>5. Картриджи для печатающей техники =&gt; 5.1. Картриджи для принтеров оригинальные</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.1. Обложки для переплёта</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.2. Брошюровщики</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.3. Ламинаторы</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.4. Резаки</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.5. Расходные материалы для офисной техники</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.6. Пружины для переплёта</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.1. Клавиатуры</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.2. Мыши компьютерные</t>
+  </si>
+  <si>
+    <t>8. Уничтожители документов</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.1. Конвекторы</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.2. Обогреватели</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.3. Метеооборудование, термометры, гигрометры</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.4. Вентиляторы</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.1. Батарейки</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.2. Аккумуляторы</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.3. Зарядные устройства</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.1. Микроволновые печи</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.2. Кофе-машины</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.3. Чайники электрические</t>
+  </si>
+  <si>
+    <t>4. Крупная бытовая техника =&gt; 4.1. Холодильники</t>
+  </si>
+  <si>
+    <t>5. Электротовары =&gt; 5.1. Светильники</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.1. Утюги</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.2. Пылесосы</t>
+  </si>
+  <si>
+    <t>1. Экологичные товары</t>
   </si>
 </sst>
 </file>
@@ -1733,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2088"/>
+  <dimension ref="A1:B2181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A441" sqref="A441"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4382,503 +4679,701 @@
       <c r="A456" s="7"/>
       <c r="B456" s="1"/>
     </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="7"/>
       <c r="B457" s="1"/>
     </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="16" t="s">
+    <row r="458" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B458" s="1"/>
     </row>
     <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="16"/>
+      <c r="A459" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="B459" s="1"/>
     </row>
     <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="16"/>
+      <c r="A460" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="B460" s="1"/>
     </row>
     <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="7"/>
+      <c r="A461" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="B461" s="1"/>
     </row>
     <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="7"/>
+      <c r="A462" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="B462" s="1"/>
     </row>
     <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="16" t="s">
+      <c r="A463" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B463" s="1"/>
+    </row>
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B464" s="1"/>
+    </row>
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B465" s="1"/>
+    </row>
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B467" s="1"/>
+    </row>
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B469" s="1"/>
+    </row>
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B470" s="1"/>
+    </row>
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B471" s="1"/>
+    </row>
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B483" s="1"/>
+    </row>
+    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B484" s="1"/>
+    </row>
+    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B485" s="1"/>
+    </row>
+    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B486" s="1"/>
+    </row>
+    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B487" s="1"/>
+    </row>
+    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B488" s="1"/>
+    </row>
+    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="16"/>
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="7"/>
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="7"/>
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B463" s="1"/>
-    </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="16"/>
-      <c r="B464" s="1"/>
-    </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="16"/>
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="7"/>
-      <c r="B466" s="1"/>
-    </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7"/>
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="16" t="s">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="16"/>
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="7"/>
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="7"/>
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B468" s="1"/>
-    </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="16"/>
-      <c r="B469" s="1"/>
-    </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="16"/>
-      <c r="B470" s="1"/>
-    </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7"/>
-      <c r="B471" s="1"/>
-    </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="7"/>
-      <c r="B472" s="1"/>
-    </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="16" t="s">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="16"/>
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="7"/>
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="7"/>
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B473" s="1"/>
-    </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="16"/>
-      <c r="B474" s="1"/>
-    </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="16"/>
-      <c r="B475" s="1"/>
-    </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="7"/>
-      <c r="B476" s="1"/>
-    </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7"/>
-      <c r="B477" s="1"/>
-    </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="16" t="s">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="16"/>
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="7"/>
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="7"/>
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B478" s="1"/>
-    </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="16"/>
-      <c r="B479" s="1"/>
-    </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="16"/>
-      <c r="B480" s="1"/>
-    </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="7"/>
-      <c r="B481" s="1"/>
-    </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="7"/>
-      <c r="B482" s="1"/>
-    </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="16" t="s">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="16"/>
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="7"/>
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="7"/>
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B483" s="1"/>
-    </row>
-    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="6"/>
-      <c r="B484" s="1"/>
-    </row>
-    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="1"/>
-    </row>
-    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="6"/>
-      <c r="B486" s="1"/>
-    </row>
-    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="6"/>
-      <c r="B487" s="1"/>
-    </row>
-    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="6"/>
-      <c r="B488" s="1"/>
-    </row>
-    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="6"/>
-      <c r="B489" s="1"/>
-    </row>
-    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="6"/>
-      <c r="B490" s="1"/>
-    </row>
-    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="6"/>
-      <c r="B491" s="1"/>
-    </row>
-    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="6"/>
-      <c r="B492" s="1"/>
-    </row>
-    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="6"/>
-      <c r="B493" s="1"/>
-    </row>
-    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="6"/>
-      <c r="B494" s="1"/>
-    </row>
-    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="6"/>
-      <c r="B495" s="1"/>
-    </row>
-    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="6"/>
-      <c r="B496" s="1"/>
-    </row>
-    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="6"/>
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="6"/>
-      <c r="B498" s="1"/>
-    </row>
-    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="6"/>
-      <c r="B499" s="1"/>
-    </row>
-    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="6"/>
-      <c r="B500" s="1"/>
-    </row>
-    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="6"/>
-      <c r="B501" s="1"/>
-    </row>
-    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="6"/>
-      <c r="B502" s="1"/>
-    </row>
-    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="6"/>
-      <c r="B503" s="1"/>
-    </row>
-    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="6"/>
-      <c r="B504" s="1"/>
-    </row>
-    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="6"/>
-      <c r="B505" s="1"/>
-    </row>
-    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="6"/>
-      <c r="B506" s="1"/>
-    </row>
-    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="6"/>
-      <c r="B507" s="1"/>
-    </row>
-    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="6"/>
-      <c r="B508" s="1"/>
-    </row>
-    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="6"/>
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="6"/>
-      <c r="B510" s="1"/>
-    </row>
-    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="6"/>
-      <c r="B511" s="1"/>
-    </row>
-    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="6"/>
-      <c r="B512" s="1"/>
-    </row>
-    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="6"/>
-      <c r="B513" s="1"/>
-    </row>
-    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="6"/>
-      <c r="B514" s="1"/>
-    </row>
-    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="6"/>
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="6"/>
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="6"/>
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="6"/>
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="6"/>
-      <c r="B519" s="1"/>
-    </row>
-    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="6"/>
-      <c r="B520" s="1"/>
-    </row>
-    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="6"/>
-      <c r="B521" s="1"/>
-    </row>
-    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="6"/>
-      <c r="B522" s="1"/>
-    </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="6"/>
-      <c r="B523" s="1"/>
-    </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="6"/>
-      <c r="B524" s="1"/>
-    </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="6"/>
-      <c r="B525" s="1"/>
-    </row>
-    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="6"/>
-      <c r="B526" s="1"/>
-    </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="6"/>
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="6"/>
-      <c r="B528" s="1"/>
-    </row>
-    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="6"/>
-      <c r="B529" s="1"/>
-    </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="6"/>
-      <c r="B530" s="1"/>
-    </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="6"/>
-      <c r="B531" s="1"/>
-    </row>
-    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="6"/>
-      <c r="B532" s="1"/>
-    </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="6"/>
-      <c r="B533" s="1"/>
-    </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="6"/>
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="6"/>
-      <c r="B535" s="1"/>
-    </row>
-    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="6"/>
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="6"/>
-      <c r="B537" s="1"/>
-    </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="6"/>
-      <c r="B538" s="1"/>
-    </row>
-    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="6"/>
-      <c r="B539" s="1"/>
-    </row>
-    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="6"/>
-      <c r="B540" s="1"/>
-    </row>
-    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="6"/>
-      <c r="B541" s="1"/>
-    </row>
-    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="6"/>
-      <c r="B542" s="1"/>
-    </row>
-    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="6"/>
-      <c r="B543" s="1"/>
-    </row>
-    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="6"/>
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="6"/>
-      <c r="B545" s="1"/>
-    </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="6"/>
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="6"/>
-      <c r="B547" s="1"/>
-    </row>
-    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="6"/>
-      <c r="B548" s="1"/>
-    </row>
-    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="6"/>
-      <c r="B549" s="1"/>
-    </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="6"/>
-      <c r="B550" s="1"/>
-    </row>
-    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="6"/>
-      <c r="B551" s="1"/>
-    </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="6"/>
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="6"/>
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="6"/>
-      <c r="B554" s="1"/>
-    </row>
-    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="6"/>
-      <c r="B555" s="1"/>
-    </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="6"/>
-      <c r="B556" s="1"/>
-    </row>
-    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="6"/>
-      <c r="B557" s="1"/>
-    </row>
-    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="6"/>
-      <c r="B558" s="1"/>
-    </row>
-    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="6"/>
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="6"/>
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="6"/>
-      <c r="B561" s="1"/>
-    </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="6"/>
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="6"/>
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="6"/>
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="6"/>
-      <c r="B565" s="1"/>
-    </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="6"/>
-      <c r="B566" s="1"/>
-    </row>
-    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="6"/>
-      <c r="B567" s="1"/>
-    </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="6"/>
-      <c r="B568" s="1"/>
-    </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="6"/>
-      <c r="B569" s="1"/>
-    </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="6"/>
-      <c r="B570" s="1"/>
-    </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="6"/>
-      <c r="B571" s="1"/>
-    </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="6"/>
-      <c r="B572" s="1"/>
-    </row>
-    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="6"/>
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="6"/>
-      <c r="B574" s="1"/>
-    </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="6"/>
-      <c r="B575" s="1"/>
-    </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="6"/>
       <c r="B576" s="1"/>
     </row>
     <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="6"/>
+      <c r="A577" s="8" t="s">
+        <v>510</v>
+      </c>
       <c r="B577" s="1"/>
     </row>
     <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="6"/>
       <c r="B578" s="1"/>
     </row>
     <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7722,315 +8217,408 @@
       <c r="B1288" s="1"/>
     </row>
     <row r="1289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="6"/>
       <c r="B1289" s="1"/>
     </row>
     <row r="1290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="6"/>
       <c r="B1290" s="1"/>
     </row>
     <row r="1291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="6"/>
       <c r="B1291" s="1"/>
     </row>
     <row r="1292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="6"/>
       <c r="B1292" s="1"/>
     </row>
     <row r="1293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="6"/>
       <c r="B1293" s="1"/>
     </row>
     <row r="1294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="6"/>
       <c r="B1294" s="1"/>
     </row>
     <row r="1295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="6"/>
       <c r="B1295" s="1"/>
     </row>
     <row r="1296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="6"/>
       <c r="B1296" s="1"/>
     </row>
-    <row r="1297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="6"/>
       <c r="B1297" s="1"/>
     </row>
-    <row r="1298" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="6"/>
       <c r="B1298" s="1"/>
     </row>
-    <row r="1299" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="6"/>
       <c r="B1299" s="1"/>
     </row>
-    <row r="1300" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="6"/>
       <c r="B1300" s="1"/>
     </row>
-    <row r="1301" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="6"/>
       <c r="B1301" s="1"/>
     </row>
-    <row r="1302" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="6"/>
       <c r="B1302" s="1"/>
     </row>
-    <row r="1303" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="6"/>
       <c r="B1303" s="1"/>
     </row>
-    <row r="1304" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="6"/>
       <c r="B1304" s="1"/>
     </row>
-    <row r="1305" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1305" s="6"/>
       <c r="B1305" s="1"/>
     </row>
-    <row r="1306" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="6"/>
       <c r="B1306" s="1"/>
     </row>
-    <row r="1307" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1307" s="6"/>
       <c r="B1307" s="1"/>
     </row>
-    <row r="1308" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="6"/>
       <c r="B1308" s="1"/>
     </row>
-    <row r="1309" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="6"/>
       <c r="B1309" s="1"/>
     </row>
-    <row r="1310" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="6"/>
       <c r="B1310" s="1"/>
     </row>
-    <row r="1311" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="6"/>
       <c r="B1311" s="1"/>
     </row>
-    <row r="1312" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="6"/>
       <c r="B1312" s="1"/>
     </row>
-    <row r="1313" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1313" s="6"/>
       <c r="B1313" s="1"/>
     </row>
-    <row r="1314" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="6"/>
       <c r="B1314" s="1"/>
     </row>
-    <row r="1315" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1315" s="6"/>
       <c r="B1315" s="1"/>
     </row>
-    <row r="1316" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="6"/>
       <c r="B1316" s="1"/>
     </row>
-    <row r="1317" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="6"/>
       <c r="B1317" s="1"/>
     </row>
-    <row r="1318" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="6"/>
       <c r="B1318" s="1"/>
     </row>
-    <row r="1319" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1319" s="6"/>
       <c r="B1319" s="1"/>
     </row>
-    <row r="1320" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="6"/>
       <c r="B1320" s="1"/>
     </row>
-    <row r="1321" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="6"/>
       <c r="B1321" s="1"/>
     </row>
-    <row r="1322" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="6"/>
       <c r="B1322" s="1"/>
     </row>
-    <row r="1323" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="6"/>
       <c r="B1323" s="1"/>
     </row>
-    <row r="1324" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="6"/>
       <c r="B1324" s="1"/>
     </row>
-    <row r="1325" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1325" s="6"/>
       <c r="B1325" s="1"/>
     </row>
-    <row r="1326" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="6"/>
       <c r="B1326" s="1"/>
     </row>
-    <row r="1327" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1327" s="6"/>
       <c r="B1327" s="1"/>
     </row>
-    <row r="1328" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="6"/>
       <c r="B1328" s="1"/>
     </row>
-    <row r="1329" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1329" s="6"/>
       <c r="B1329" s="1"/>
     </row>
-    <row r="1330" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="6"/>
       <c r="B1330" s="1"/>
     </row>
-    <row r="1331" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="6"/>
       <c r="B1331" s="1"/>
     </row>
-    <row r="1332" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="6"/>
       <c r="B1332" s="1"/>
     </row>
-    <row r="1333" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="6"/>
       <c r="B1333" s="1"/>
     </row>
-    <row r="1334" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="6"/>
       <c r="B1334" s="1"/>
     </row>
-    <row r="1335" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="6"/>
       <c r="B1335" s="1"/>
     </row>
-    <row r="1336" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="6"/>
       <c r="B1336" s="1"/>
     </row>
-    <row r="1337" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="6"/>
       <c r="B1337" s="1"/>
     </row>
-    <row r="1338" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="6"/>
       <c r="B1338" s="1"/>
     </row>
-    <row r="1339" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="6"/>
       <c r="B1339" s="1"/>
     </row>
-    <row r="1340" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="6"/>
       <c r="B1340" s="1"/>
     </row>
-    <row r="1341" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="6"/>
       <c r="B1341" s="1"/>
     </row>
-    <row r="1342" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="6"/>
       <c r="B1342" s="1"/>
     </row>
-    <row r="1343" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="6"/>
       <c r="B1343" s="1"/>
     </row>
-    <row r="1344" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="6"/>
       <c r="B1344" s="1"/>
     </row>
-    <row r="1345" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1345" s="6"/>
       <c r="B1345" s="1"/>
     </row>
-    <row r="1346" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="6"/>
       <c r="B1346" s="1"/>
     </row>
-    <row r="1347" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="6"/>
       <c r="B1347" s="1"/>
     </row>
-    <row r="1348" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="6"/>
       <c r="B1348" s="1"/>
     </row>
-    <row r="1349" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="6"/>
       <c r="B1349" s="1"/>
     </row>
-    <row r="1350" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="6"/>
       <c r="B1350" s="1"/>
     </row>
-    <row r="1351" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="6"/>
       <c r="B1351" s="1"/>
     </row>
-    <row r="1352" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="6"/>
       <c r="B1352" s="1"/>
     </row>
-    <row r="1353" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="6"/>
       <c r="B1353" s="1"/>
     </row>
-    <row r="1354" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1354" s="6"/>
       <c r="B1354" s="1"/>
     </row>
-    <row r="1355" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1355" s="6"/>
       <c r="B1355" s="1"/>
     </row>
-    <row r="1356" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1356" s="6"/>
       <c r="B1356" s="1"/>
     </row>
-    <row r="1357" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1357" s="6"/>
       <c r="B1357" s="1"/>
     </row>
-    <row r="1358" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1358" s="6"/>
       <c r="B1358" s="1"/>
     </row>
-    <row r="1359" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="6"/>
       <c r="B1359" s="1"/>
     </row>
-    <row r="1360" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1360" s="6"/>
       <c r="B1360" s="1"/>
     </row>
-    <row r="1361" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="6"/>
       <c r="B1361" s="1"/>
     </row>
-    <row r="1362" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="6"/>
       <c r="B1362" s="1"/>
     </row>
-    <row r="1363" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1363" s="6"/>
       <c r="B1363" s="1"/>
     </row>
-    <row r="1364" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1364" s="6"/>
       <c r="B1364" s="1"/>
     </row>
-    <row r="1365" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1365" s="6"/>
       <c r="B1365" s="1"/>
     </row>
-    <row r="1366" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1366" s="6"/>
       <c r="B1366" s="1"/>
     </row>
-    <row r="1367" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1367" s="6"/>
       <c r="B1367" s="1"/>
     </row>
-    <row r="1368" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1368" s="6"/>
       <c r="B1368" s="1"/>
     </row>
-    <row r="1369" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1369" s="6"/>
       <c r="B1369" s="1"/>
     </row>
-    <row r="1370" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1370" s="6"/>
       <c r="B1370" s="1"/>
     </row>
-    <row r="1371" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1371" s="6"/>
       <c r="B1371" s="1"/>
     </row>
-    <row r="1372" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1372" s="6"/>
       <c r="B1372" s="1"/>
     </row>
-    <row r="1373" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1373" s="6"/>
       <c r="B1373" s="1"/>
     </row>
-    <row r="1374" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1374" s="6"/>
       <c r="B1374" s="1"/>
     </row>
-    <row r="1375" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1375" s="6"/>
       <c r="B1375" s="1"/>
     </row>
-    <row r="1376" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1376" s="6"/>
       <c r="B1376" s="1"/>
     </row>
-    <row r="1377" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1377" s="6"/>
       <c r="B1377" s="1"/>
     </row>
-    <row r="1378" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1378" s="6"/>
       <c r="B1378" s="1"/>
     </row>
-    <row r="1379" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1379" s="6"/>
       <c r="B1379" s="1"/>
     </row>
-    <row r="1380" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1380" s="6"/>
       <c r="B1380" s="1"/>
     </row>
-    <row r="1381" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1381" s="6"/>
       <c r="B1381" s="1"/>
     </row>
-    <row r="1382" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
     </row>
-    <row r="1383" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
     </row>
-    <row r="1384" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
     </row>
-    <row r="1385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
     </row>
-    <row r="1386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
     </row>
-    <row r="1387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
     </row>
-    <row r="1388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
     </row>
-    <row r="1389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
     </row>
-    <row r="1390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
     </row>
-    <row r="1391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
     </row>
-    <row r="1392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
     </row>
     <row r="1393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8657,397 +9245,304 @@
     <row r="1600" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1600" s="1"/>
     </row>
-    <row r="1601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1601" s="1"/>
     </row>
-    <row r="1602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1602" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1602" s="1"/>
     </row>
-    <row r="1603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1603" s="1"/>
     </row>
-    <row r="1604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1604" s="1"/>
     </row>
-    <row r="1605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1605" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1605" s="1"/>
     </row>
-    <row r="1606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1606" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1606" s="1"/>
     </row>
-    <row r="1607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1607" s="1"/>
     </row>
-    <row r="1608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1608" s="6"/>
+    <row r="1608" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1608" s="1"/>
     </row>
-    <row r="1609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1609" s="6"/>
+    <row r="1609" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1609" s="1"/>
     </row>
-    <row r="1610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1610" s="6"/>
+    <row r="1610" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1610" s="1"/>
     </row>
-    <row r="1611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1611" s="6"/>
+    <row r="1611" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1611" s="1"/>
     </row>
-    <row r="1612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1612" s="6"/>
+    <row r="1612" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1612" s="1"/>
     </row>
-    <row r="1613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1613" s="6"/>
+    <row r="1613" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1613" s="1"/>
     </row>
-    <row r="1614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1614" s="6"/>
+    <row r="1614" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1614" s="1"/>
     </row>
-    <row r="1615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1615" s="6"/>
+    <row r="1615" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1615" s="1"/>
     </row>
-    <row r="1616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1616" s="6"/>
+    <row r="1616" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1616" s="1"/>
     </row>
-    <row r="1617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1617" s="6"/>
+    <row r="1617" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1617" s="1"/>
     </row>
-    <row r="1618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1618" s="6"/>
+    <row r="1618" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1618" s="1"/>
     </row>
-    <row r="1619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1619" s="6"/>
+    <row r="1619" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1619" s="1"/>
     </row>
-    <row r="1620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1620" s="6"/>
+    <row r="1620" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1620" s="1"/>
     </row>
-    <row r="1621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1621" s="6"/>
+    <row r="1621" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1621" s="1"/>
     </row>
-    <row r="1622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1622" s="6"/>
+    <row r="1622" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1622" s="1"/>
     </row>
-    <row r="1623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1623" s="6"/>
+    <row r="1623" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1623" s="1"/>
     </row>
-    <row r="1624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1624" s="6"/>
+    <row r="1624" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1624" s="1"/>
     </row>
-    <row r="1625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1625" s="6"/>
+    <row r="1625" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1625" s="1"/>
     </row>
-    <row r="1626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1626" s="6"/>
+    <row r="1626" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1626" s="1"/>
     </row>
-    <row r="1627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1627" s="6"/>
+    <row r="1627" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1627" s="1"/>
     </row>
-    <row r="1628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1628" s="6"/>
+    <row r="1628" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1628" s="1"/>
     </row>
-    <row r="1629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1629" s="6"/>
+    <row r="1629" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1629" s="1"/>
     </row>
-    <row r="1630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1630" s="6"/>
+    <row r="1630" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1630" s="1"/>
     </row>
-    <row r="1631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1631" s="6"/>
+    <row r="1631" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1631" s="1"/>
     </row>
-    <row r="1632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1632" s="6"/>
+    <row r="1632" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1632" s="1"/>
     </row>
-    <row r="1633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1633" s="6"/>
+    <row r="1633" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1633" s="1"/>
     </row>
-    <row r="1634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1634" s="6"/>
+    <row r="1634" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1634" s="1"/>
     </row>
-    <row r="1635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1635" s="6"/>
+    <row r="1635" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1635" s="1"/>
     </row>
-    <row r="1636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1636" s="6"/>
+    <row r="1636" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1636" s="1"/>
     </row>
-    <row r="1637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1637" s="6"/>
+    <row r="1637" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1637" s="1"/>
     </row>
-    <row r="1638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1638" s="6"/>
+    <row r="1638" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1638" s="1"/>
     </row>
-    <row r="1639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1639" s="6"/>
+    <row r="1639" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1639" s="1"/>
     </row>
-    <row r="1640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1640" s="6"/>
+    <row r="1640" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1640" s="1"/>
     </row>
-    <row r="1641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1641" s="6"/>
+    <row r="1641" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1641" s="1"/>
     </row>
-    <row r="1642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1642" s="6"/>
+    <row r="1642" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1642" s="1"/>
     </row>
-    <row r="1643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1643" s="6"/>
+    <row r="1643" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1643" s="1"/>
     </row>
-    <row r="1644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1644" s="6"/>
+    <row r="1644" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1644" s="1"/>
     </row>
-    <row r="1645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1645" s="6"/>
+    <row r="1645" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1645" s="1"/>
     </row>
-    <row r="1646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1646" s="6"/>
+    <row r="1646" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1646" s="1"/>
     </row>
-    <row r="1647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1647" s="6"/>
+    <row r="1647" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1647" s="1"/>
     </row>
-    <row r="1648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1648" s="6"/>
+    <row r="1648" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1648" s="1"/>
     </row>
-    <row r="1649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1649" s="6"/>
+    <row r="1649" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1649" s="1"/>
     </row>
-    <row r="1650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1650" s="6"/>
+    <row r="1650" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1650" s="1"/>
     </row>
-    <row r="1651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1651" s="6"/>
+    <row r="1651" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1651" s="1"/>
     </row>
-    <row r="1652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1652" s="6"/>
+    <row r="1652" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1652" s="1"/>
     </row>
-    <row r="1653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1653" s="6"/>
+    <row r="1653" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1653" s="1"/>
     </row>
-    <row r="1654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1654" s="6"/>
+    <row r="1654" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1654" s="1"/>
     </row>
-    <row r="1655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1655" s="6"/>
+    <row r="1655" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1655" s="1"/>
     </row>
-    <row r="1656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1656" s="6"/>
+    <row r="1656" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1656" s="1"/>
     </row>
-    <row r="1657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1657" s="6"/>
+    <row r="1657" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1657" s="1"/>
     </row>
-    <row r="1658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1658" s="6"/>
+    <row r="1658" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1658" s="1"/>
     </row>
-    <row r="1659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1659" s="6"/>
+    <row r="1659" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1659" s="1"/>
     </row>
-    <row r="1660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1660" s="6"/>
+    <row r="1660" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1660" s="1"/>
     </row>
-    <row r="1661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1661" s="6"/>
+    <row r="1661" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1661" s="1"/>
     </row>
-    <row r="1662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1662" s="6"/>
+    <row r="1662" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1662" s="1"/>
     </row>
-    <row r="1663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1663" s="6"/>
+    <row r="1663" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1663" s="1"/>
     </row>
-    <row r="1664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1664" s="6"/>
+    <row r="1664" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1664" s="1"/>
     </row>
-    <row r="1665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1665" s="6"/>
+    <row r="1665" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1665" s="1"/>
     </row>
-    <row r="1666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1666" s="6"/>
+    <row r="1666" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1666" s="1"/>
     </row>
-    <row r="1667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1667" s="6"/>
+    <row r="1667" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1667" s="1"/>
     </row>
-    <row r="1668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1668" s="6"/>
+    <row r="1668" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1668" s="1"/>
     </row>
-    <row r="1669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1669" s="6"/>
+    <row r="1669" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1669" s="1"/>
     </row>
-    <row r="1670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1670" s="6"/>
+    <row r="1670" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1670" s="1"/>
     </row>
-    <row r="1671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1671" s="6"/>
+    <row r="1671" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1671" s="1"/>
     </row>
-    <row r="1672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1672" s="6"/>
+    <row r="1672" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1672" s="1"/>
     </row>
-    <row r="1673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1673" s="6"/>
+    <row r="1673" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1673" s="1"/>
     </row>
-    <row r="1674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1674" s="6"/>
+    <row r="1674" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1674" s="1"/>
     </row>
-    <row r="1675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1675" s="6"/>
+    <row r="1675" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1675" s="1"/>
     </row>
-    <row r="1676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1676" s="6"/>
+    <row r="1676" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1676" s="1"/>
     </row>
-    <row r="1677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1677" s="6"/>
+    <row r="1677" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1677" s="1"/>
     </row>
-    <row r="1678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1678" s="6"/>
+    <row r="1678" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1678" s="1"/>
     </row>
-    <row r="1679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1679" s="6"/>
+    <row r="1679" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1679" s="1"/>
     </row>
-    <row r="1680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1680" s="6"/>
+    <row r="1680" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1680" s="1"/>
     </row>
-    <row r="1681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1681" s="6"/>
+    <row r="1681" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1681" s="1"/>
     </row>
-    <row r="1682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1682" s="6"/>
+    <row r="1682" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1682" s="1"/>
     </row>
-    <row r="1683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1683" s="6"/>
+    <row r="1683" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1683" s="1"/>
     </row>
-    <row r="1684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1684" s="6"/>
+    <row r="1684" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1684" s="1"/>
     </row>
-    <row r="1685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1685" s="6"/>
+    <row r="1685" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1685" s="1"/>
     </row>
-    <row r="1686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1686" s="6"/>
+    <row r="1686" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1686" s="1"/>
     </row>
-    <row r="1687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1687" s="6"/>
+    <row r="1687" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1687" s="1"/>
     </row>
-    <row r="1688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1688" s="6"/>
+    <row r="1688" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1688" s="1"/>
     </row>
-    <row r="1689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1689" s="6"/>
+    <row r="1689" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1689" s="1"/>
     </row>
-    <row r="1690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1690" s="6"/>
+    <row r="1690" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1690" s="1"/>
     </row>
-    <row r="1691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1691" s="6"/>
+    <row r="1691" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1691" s="1"/>
     </row>
-    <row r="1692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1692" s="6"/>
+    <row r="1692" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1692" s="1"/>
     </row>
-    <row r="1693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1693" s="6"/>
+    <row r="1693" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1693" s="1"/>
     </row>
-    <row r="1694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1694" s="6"/>
+    <row r="1694" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1694" s="1"/>
     </row>
-    <row r="1695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1695" s="6"/>
+    <row r="1695" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1695" s="1"/>
     </row>
-    <row r="1696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1696" s="6"/>
+    <row r="1696" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1696" s="1"/>
     </row>
     <row r="1697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1697" s="6"/>
       <c r="B1697" s="1"/>
     </row>
     <row r="1698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1698" s="6"/>
       <c r="B1698" s="1"/>
     </row>
     <row r="1699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1699" s="6"/>
       <c r="B1699" s="1"/>
     </row>
     <row r="1700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1700" s="6"/>
       <c r="B1700" s="1"/>
     </row>
     <row r="1701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9203,309 +9698,402 @@
       <c r="B1738" s="1"/>
     </row>
     <row r="1739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1739" s="6"/>
       <c r="B1739" s="1"/>
     </row>
     <row r="1740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1740" s="6"/>
       <c r="B1740" s="1"/>
     </row>
     <row r="1741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1741" s="6"/>
       <c r="B1741" s="1"/>
     </row>
     <row r="1742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1742" s="6"/>
       <c r="B1742" s="1"/>
     </row>
     <row r="1743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1743" s="6"/>
       <c r="B1743" s="1"/>
     </row>
     <row r="1744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1744" s="6"/>
       <c r="B1744" s="1"/>
     </row>
-    <row r="1745" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1745" s="6"/>
       <c r="B1745" s="1"/>
     </row>
-    <row r="1746" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1746" s="6"/>
       <c r="B1746" s="1"/>
     </row>
-    <row r="1747" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1747" s="6"/>
       <c r="B1747" s="1"/>
     </row>
-    <row r="1748" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1748" s="6"/>
       <c r="B1748" s="1"/>
     </row>
-    <row r="1749" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1749" s="6"/>
       <c r="B1749" s="1"/>
     </row>
-    <row r="1750" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1750" s="6"/>
       <c r="B1750" s="1"/>
     </row>
-    <row r="1751" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1751" s="6"/>
       <c r="B1751" s="1"/>
     </row>
-    <row r="1752" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1752" s="6"/>
       <c r="B1752" s="1"/>
     </row>
-    <row r="1753" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1753" s="6"/>
       <c r="B1753" s="1"/>
     </row>
-    <row r="1754" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1754" s="6"/>
       <c r="B1754" s="1"/>
     </row>
-    <row r="1755" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1755" s="6"/>
       <c r="B1755" s="1"/>
     </row>
-    <row r="1756" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1756" s="6"/>
       <c r="B1756" s="1"/>
     </row>
-    <row r="1757" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1757" s="6"/>
       <c r="B1757" s="1"/>
     </row>
-    <row r="1758" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1758" s="6"/>
       <c r="B1758" s="1"/>
     </row>
-    <row r="1759" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1759" s="6"/>
       <c r="B1759" s="1"/>
     </row>
-    <row r="1760" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1760" s="6"/>
       <c r="B1760" s="1"/>
     </row>
-    <row r="1761" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1761" s="6"/>
       <c r="B1761" s="1"/>
     </row>
-    <row r="1762" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1762" s="6"/>
       <c r="B1762" s="1"/>
     </row>
-    <row r="1763" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1763" s="6"/>
       <c r="B1763" s="1"/>
     </row>
-    <row r="1764" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1764" s="6"/>
       <c r="B1764" s="1"/>
     </row>
-    <row r="1765" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1765" s="6"/>
       <c r="B1765" s="1"/>
     </row>
-    <row r="1766" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1766" s="6"/>
       <c r="B1766" s="1"/>
     </row>
-    <row r="1767" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1767" s="6"/>
       <c r="B1767" s="1"/>
     </row>
-    <row r="1768" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1768" s="6"/>
       <c r="B1768" s="1"/>
     </row>
-    <row r="1769" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1769" s="6"/>
       <c r="B1769" s="1"/>
     </row>
-    <row r="1770" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1770" s="6"/>
       <c r="B1770" s="1"/>
     </row>
-    <row r="1771" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1771" s="6"/>
       <c r="B1771" s="1"/>
     </row>
-    <row r="1772" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1772" s="6"/>
       <c r="B1772" s="1"/>
     </row>
-    <row r="1773" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1773" s="6"/>
       <c r="B1773" s="1"/>
     </row>
-    <row r="1774" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1774" s="6"/>
       <c r="B1774" s="1"/>
     </row>
-    <row r="1775" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1775" s="6"/>
       <c r="B1775" s="1"/>
     </row>
-    <row r="1776" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1776" s="6"/>
       <c r="B1776" s="1"/>
     </row>
-    <row r="1777" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1777" s="6"/>
       <c r="B1777" s="1"/>
     </row>
-    <row r="1778" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1778" s="6"/>
       <c r="B1778" s="1"/>
     </row>
-    <row r="1779" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1779" s="6"/>
       <c r="B1779" s="1"/>
     </row>
-    <row r="1780" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1780" s="6"/>
       <c r="B1780" s="1"/>
     </row>
-    <row r="1781" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1781" s="6"/>
       <c r="B1781" s="1"/>
     </row>
-    <row r="1782" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1782" s="6"/>
       <c r="B1782" s="1"/>
     </row>
-    <row r="1783" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1783" s="6"/>
       <c r="B1783" s="1"/>
     </row>
-    <row r="1784" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1784" s="6"/>
       <c r="B1784" s="1"/>
     </row>
-    <row r="1785" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1785" s="6"/>
       <c r="B1785" s="1"/>
     </row>
-    <row r="1786" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1786" s="6"/>
       <c r="B1786" s="1"/>
     </row>
-    <row r="1787" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1787" s="6"/>
       <c r="B1787" s="1"/>
     </row>
-    <row r="1788" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1788" s="6"/>
       <c r="B1788" s="1"/>
     </row>
-    <row r="1789" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1789" s="6"/>
       <c r="B1789" s="1"/>
     </row>
-    <row r="1790" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1790" s="6"/>
       <c r="B1790" s="1"/>
     </row>
-    <row r="1791" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1791" s="6"/>
       <c r="B1791" s="1"/>
     </row>
-    <row r="1792" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1792" s="6"/>
       <c r="B1792" s="1"/>
     </row>
-    <row r="1793" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1793" s="6"/>
       <c r="B1793" s="1"/>
     </row>
-    <row r="1794" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1794" s="6"/>
       <c r="B1794" s="1"/>
     </row>
-    <row r="1795" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1795" s="6"/>
       <c r="B1795" s="1"/>
     </row>
-    <row r="1796" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1796" s="6"/>
       <c r="B1796" s="1"/>
     </row>
-    <row r="1797" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1797" s="6"/>
       <c r="B1797" s="1"/>
     </row>
-    <row r="1798" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1798" s="6"/>
       <c r="B1798" s="1"/>
     </row>
-    <row r="1799" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1799" s="6"/>
       <c r="B1799" s="1"/>
     </row>
-    <row r="1800" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1800" s="6"/>
       <c r="B1800" s="1"/>
     </row>
-    <row r="1801" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1801" s="6"/>
       <c r="B1801" s="1"/>
     </row>
-    <row r="1802" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1802" s="6"/>
       <c r="B1802" s="1"/>
     </row>
-    <row r="1803" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1803" s="6"/>
       <c r="B1803" s="1"/>
     </row>
-    <row r="1804" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1804" s="6"/>
       <c r="B1804" s="1"/>
     </row>
-    <row r="1805" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1805" s="6"/>
       <c r="B1805" s="1"/>
     </row>
-    <row r="1806" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1806" s="6"/>
       <c r="B1806" s="1"/>
     </row>
-    <row r="1807" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1807" s="6"/>
       <c r="B1807" s="1"/>
     </row>
-    <row r="1808" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1808" s="6"/>
       <c r="B1808" s="1"/>
     </row>
-    <row r="1809" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1809" s="6"/>
       <c r="B1809" s="1"/>
     </row>
-    <row r="1810" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1810" s="6"/>
       <c r="B1810" s="1"/>
     </row>
-    <row r="1811" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1811" s="6"/>
       <c r="B1811" s="1"/>
     </row>
-    <row r="1812" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1812" s="6"/>
       <c r="B1812" s="1"/>
     </row>
-    <row r="1813" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1813" s="6"/>
       <c r="B1813" s="1"/>
     </row>
-    <row r="1814" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1814" s="6"/>
       <c r="B1814" s="1"/>
     </row>
-    <row r="1815" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1815" s="6"/>
       <c r="B1815" s="1"/>
     </row>
-    <row r="1816" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1816" s="6"/>
       <c r="B1816" s="1"/>
     </row>
-    <row r="1817" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1817" s="6"/>
       <c r="B1817" s="1"/>
     </row>
-    <row r="1818" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1818" s="6"/>
       <c r="B1818" s="1"/>
     </row>
-    <row r="1819" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1819" s="6"/>
       <c r="B1819" s="1"/>
     </row>
-    <row r="1820" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1820" s="6"/>
       <c r="B1820" s="1"/>
     </row>
-    <row r="1821" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1821" s="6"/>
       <c r="B1821" s="1"/>
     </row>
-    <row r="1822" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1822" s="6"/>
       <c r="B1822" s="1"/>
     </row>
-    <row r="1823" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1823" s="6"/>
       <c r="B1823" s="1"/>
     </row>
-    <row r="1824" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1824" s="6"/>
       <c r="B1824" s="1"/>
     </row>
-    <row r="1825" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1825" s="6"/>
       <c r="B1825" s="1"/>
     </row>
-    <row r="1826" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1826" s="6"/>
       <c r="B1826" s="1"/>
     </row>
-    <row r="1827" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1827" s="6"/>
       <c r="B1827" s="1"/>
     </row>
-    <row r="1828" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1828" s="6"/>
       <c r="B1828" s="1"/>
     </row>
-    <row r="1829" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1829" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1829" s="6"/>
       <c r="B1829" s="1"/>
     </row>
-    <row r="1830" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1830" s="6"/>
       <c r="B1830" s="1"/>
     </row>
-    <row r="1831" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1831" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1831" s="6"/>
       <c r="B1831" s="1"/>
     </row>
-    <row r="1832" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1832" s="1"/>
     </row>
-    <row r="1833" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1833" s="1"/>
     </row>
-    <row r="1834" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1834" s="1"/>
     </row>
-    <row r="1835" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1835" s="1"/>
     </row>
-    <row r="1836" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1836" s="1"/>
     </row>
-    <row r="1837" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1837" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1837" s="1"/>
     </row>
-    <row r="1838" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1838" s="1"/>
     </row>
-    <row r="1839" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1839" s="1"/>
     </row>
-    <row r="1840" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1840" s="1"/>
     </row>
     <row r="1841" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10251,6 +10839,285 @@
     </row>
     <row r="2088" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2088" s="1"/>
+    </row>
+    <row r="2089" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2089" s="1"/>
+    </row>
+    <row r="2090" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2090" s="1"/>
+    </row>
+    <row r="2091" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2091" s="1"/>
+    </row>
+    <row r="2092" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2092" s="1"/>
+    </row>
+    <row r="2093" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2093" s="1"/>
+    </row>
+    <row r="2094" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2094" s="1"/>
+    </row>
+    <row r="2095" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2095" s="1"/>
+    </row>
+    <row r="2096" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2096" s="1"/>
+    </row>
+    <row r="2097" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2097" s="1"/>
+    </row>
+    <row r="2098" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2098" s="1"/>
+    </row>
+    <row r="2099" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2099" s="1"/>
+    </row>
+    <row r="2100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2100" s="1"/>
+    </row>
+    <row r="2101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2101" s="1"/>
+    </row>
+    <row r="2102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2102" s="1"/>
+    </row>
+    <row r="2103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2103" s="1"/>
+    </row>
+    <row r="2104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2104" s="1"/>
+    </row>
+    <row r="2105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2105" s="1"/>
+    </row>
+    <row r="2106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2106" s="1"/>
+    </row>
+    <row r="2107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2107" s="1"/>
+    </row>
+    <row r="2108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2108" s="1"/>
+    </row>
+    <row r="2109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2109" s="1"/>
+    </row>
+    <row r="2110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2110" s="1"/>
+    </row>
+    <row r="2111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2111" s="1"/>
+    </row>
+    <row r="2112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2112" s="1"/>
+    </row>
+    <row r="2113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2113" s="1"/>
+    </row>
+    <row r="2114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2114" s="1"/>
+    </row>
+    <row r="2115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2115" s="1"/>
+    </row>
+    <row r="2116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2116" s="1"/>
+    </row>
+    <row r="2117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2117" s="1"/>
+    </row>
+    <row r="2118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2118" s="1"/>
+    </row>
+    <row r="2119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2119" s="1"/>
+    </row>
+    <row r="2120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2120" s="1"/>
+    </row>
+    <row r="2121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2121" s="1"/>
+    </row>
+    <row r="2122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2122" s="1"/>
+    </row>
+    <row r="2123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2123" s="1"/>
+    </row>
+    <row r="2124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2124" s="1"/>
+    </row>
+    <row r="2125" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2125" s="1"/>
+    </row>
+    <row r="2126" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2126" s="1"/>
+    </row>
+    <row r="2127" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2127" s="1"/>
+    </row>
+    <row r="2128" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2128" s="1"/>
+    </row>
+    <row r="2129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2129" s="1"/>
+    </row>
+    <row r="2130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2130" s="1"/>
+    </row>
+    <row r="2131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2131" s="1"/>
+    </row>
+    <row r="2132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2132" s="1"/>
+    </row>
+    <row r="2133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2133" s="1"/>
+    </row>
+    <row r="2134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2134" s="1"/>
+    </row>
+    <row r="2135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2135" s="1"/>
+    </row>
+    <row r="2136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2136" s="1"/>
+    </row>
+    <row r="2137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2137" s="1"/>
+    </row>
+    <row r="2138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2138" s="1"/>
+    </row>
+    <row r="2139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2139" s="1"/>
+    </row>
+    <row r="2140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2140" s="1"/>
+    </row>
+    <row r="2141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2141" s="1"/>
+    </row>
+    <row r="2142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2142" s="1"/>
+    </row>
+    <row r="2143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2143" s="1"/>
+    </row>
+    <row r="2144" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2144" s="1"/>
+    </row>
+    <row r="2145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2145" s="1"/>
+    </row>
+    <row r="2146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2146" s="1"/>
+    </row>
+    <row r="2147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2147" s="1"/>
+    </row>
+    <row r="2148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2148" s="1"/>
+    </row>
+    <row r="2149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2149" s="1"/>
+    </row>
+    <row r="2150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2150" s="1"/>
+    </row>
+    <row r="2151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2151" s="1"/>
+    </row>
+    <row r="2152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2152" s="1"/>
+    </row>
+    <row r="2153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="1"/>
+    </row>
+    <row r="2154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2154" s="1"/>
+    </row>
+    <row r="2155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2155" s="1"/>
+    </row>
+    <row r="2156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2156" s="1"/>
+    </row>
+    <row r="2157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2157" s="1"/>
+    </row>
+    <row r="2158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2158" s="1"/>
+    </row>
+    <row r="2159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2159" s="1"/>
+    </row>
+    <row r="2160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2160" s="1"/>
+    </row>
+    <row r="2161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2161" s="1"/>
+    </row>
+    <row r="2162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2162" s="1"/>
+    </row>
+    <row r="2163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2163" s="1"/>
+    </row>
+    <row r="2164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2164" s="1"/>
+    </row>
+    <row r="2165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2165" s="1"/>
+    </row>
+    <row r="2166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2166" s="1"/>
+    </row>
+    <row r="2167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2167" s="1"/>
+    </row>
+    <row r="2168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2168" s="1"/>
+    </row>
+    <row r="2169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2169" s="1"/>
+    </row>
+    <row r="2170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2170" s="1"/>
+    </row>
+    <row r="2171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2171" s="1"/>
+    </row>
+    <row r="2172" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2172" s="1"/>
+    </row>
+    <row r="2173" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2173" s="1"/>
+    </row>
+    <row r="2174" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2174" s="1"/>
+    </row>
+    <row r="2175" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2175" s="1"/>
+    </row>
+    <row r="2176" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2176" s="1"/>
+    </row>
+    <row r="2177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2177" s="1"/>
+    </row>
+    <row r="2178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2178" s="1"/>
+    </row>
+    <row r="2179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2179" s="1"/>
+    </row>
+    <row r="2180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2180" s="1"/>
+    </row>
+    <row r="2181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2181" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/13.10.2021/12.10.2021_cat_subcat.xlsx
+++ b/src/13.10.2021/12.10.2021_cat_subcat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125507E8-8053-4C1B-BE2B-0631F0CB1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57D7D3-8532-48D3-AD1C-F3A595BC0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="465" windowWidth="12435" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1060,24 +1060,9 @@
     <t>1. Плёнка упаковочная цветочная</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая =&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп =&gt; </t>
-  </si>
-  <si>
     <t>3. Плёнка стрейч</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку =&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая) =&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ =&gt; </t>
-  </si>
-  <si>
     <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль</t>
   </si>
   <si>
@@ -1553,6 +1538,21 @@
   </si>
   <si>
     <t>1. Экологичные товары</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая)</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ</t>
   </si>
 </sst>
 </file>
@@ -2033,8 +2033,8 @@
   <dimension ref="A1:B2181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4205,37 +4205,37 @@
     </row>
     <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
-        <v>346</v>
+        <v>506</v>
       </c>
       <c r="B373" s="1"/>
     </row>
     <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
-        <v>347</v>
+        <v>507</v>
       </c>
       <c r="B374" s="1"/>
     </row>
     <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B375" s="1"/>
     </row>
     <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
-        <v>349</v>
+        <v>508</v>
       </c>
       <c r="B376" s="1"/>
     </row>
     <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
-        <v>350</v>
+        <v>509</v>
       </c>
       <c r="B377" s="1"/>
     </row>
     <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
-        <v>351</v>
+        <v>510</v>
       </c>
       <c r="B378" s="1"/>
     </row>
@@ -4259,79 +4259,79 @@
     </row>
     <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B383" s="1"/>
     </row>
     <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B384" s="1"/>
     </row>
     <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B385" s="1"/>
     </row>
     <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B386" s="1"/>
     </row>
     <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B387" s="1"/>
     </row>
     <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B388" s="1"/>
     </row>
     <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B389" s="1"/>
     </row>
     <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B390" s="1"/>
     </row>
     <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B391" s="1"/>
     </row>
     <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B392" s="1"/>
     </row>
     <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B393" s="1"/>
     </row>
     <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B394" s="1"/>
     </row>
     <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B395" s="1"/>
     </row>
@@ -4355,97 +4355,97 @@
     </row>
     <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B400" s="1"/>
     </row>
     <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B401" s="1"/>
     </row>
     <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B402" s="1"/>
     </row>
     <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B403" s="1"/>
     </row>
     <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B404" s="1"/>
     </row>
     <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B405" s="1"/>
     </row>
     <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B406" s="1"/>
     </row>
     <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B407" s="1"/>
     </row>
     <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B408" s="1"/>
     </row>
     <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B409" s="1"/>
     </row>
     <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B410" s="1"/>
     </row>
     <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B411" s="1"/>
     </row>
     <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B412" s="1"/>
     </row>
     <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B413" s="1"/>
     </row>
     <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B414" s="1"/>
     </row>
     <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B415" s="1"/>
     </row>
@@ -4469,25 +4469,25 @@
     </row>
     <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B420" s="1"/>
     </row>
     <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B421" s="1"/>
     </row>
     <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B422" s="1"/>
     </row>
     <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B423" s="1"/>
     </row>
@@ -4511,163 +4511,163 @@
     </row>
     <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B428" s="1"/>
     </row>
     <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B429" s="1"/>
     </row>
     <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B430" s="1"/>
     </row>
     <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B431" s="1"/>
     </row>
     <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B432" s="1"/>
     </row>
     <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B433" s="1"/>
     </row>
     <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B434" s="1"/>
     </row>
     <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B435" s="1"/>
     </row>
     <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B436" s="1"/>
     </row>
     <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B437" s="1"/>
     </row>
     <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B438" s="1"/>
     </row>
     <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B439" s="1"/>
     </row>
     <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B440" s="1"/>
     </row>
     <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B441" s="1"/>
     </row>
     <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B442" s="1"/>
     </row>
     <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B443" s="1"/>
     </row>
     <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B444" s="1"/>
     </row>
     <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B445" s="1"/>
     </row>
     <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B446" s="1"/>
     </row>
     <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B447" s="1"/>
     </row>
     <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B448" s="1"/>
     </row>
     <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B449" s="1"/>
     </row>
     <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B450" s="1"/>
     </row>
     <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B451" s="1"/>
     </row>
     <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B452" s="1"/>
     </row>
     <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B453" s="1"/>
     </row>
     <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B454" s="1"/>
     </row>
@@ -4691,235 +4691,235 @@
     </row>
     <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B459" s="1"/>
     </row>
     <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B460" s="1"/>
     </row>
     <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B461" s="1"/>
     </row>
     <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B462" s="1"/>
     </row>
     <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B463" s="1"/>
     </row>
     <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B464" s="1"/>
     </row>
     <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B465" s="1"/>
     </row>
     <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B466" s="1"/>
     </row>
     <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B467" s="1"/>
     </row>
     <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B468" s="1"/>
     </row>
     <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B469" s="1"/>
     </row>
     <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B470" s="1"/>
     </row>
     <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B471" s="1"/>
     </row>
     <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B472" s="1"/>
     </row>
     <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B473" s="1"/>
     </row>
     <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B474" s="1"/>
     </row>
     <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B475" s="1"/>
     </row>
     <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B476" s="1"/>
     </row>
     <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B477" s="1"/>
     </row>
     <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B478" s="1"/>
     </row>
     <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B479" s="1"/>
     </row>
     <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B480" s="1"/>
     </row>
     <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B481" s="1"/>
     </row>
     <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B482" s="1"/>
     </row>
     <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B483" s="1"/>
     </row>
     <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B484" s="1"/>
     </row>
     <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B485" s="1"/>
     </row>
     <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B486" s="1"/>
     </row>
     <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B487" s="1"/>
     </row>
     <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B488" s="1"/>
     </row>
     <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B489" s="1"/>
     </row>
     <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B490" s="1"/>
     </row>
     <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B491" s="1"/>
     </row>
     <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B492" s="1"/>
     </row>
     <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B493" s="1"/>
     </row>
     <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B494" s="1"/>
     </row>
     <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B495" s="1"/>
     </row>
     <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B496" s="1"/>
     </row>
     <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B497" s="1"/>
     </row>
@@ -4943,67 +4943,67 @@
     </row>
     <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B502" s="1"/>
     </row>
     <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B503" s="1"/>
     </row>
     <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B504" s="1"/>
     </row>
     <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B505" s="1"/>
     </row>
     <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B506" s="1"/>
     </row>
     <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B507" s="1"/>
     </row>
     <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B508" s="1"/>
     </row>
     <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B509" s="1"/>
     </row>
     <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B510" s="1"/>
     </row>
     <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B511" s="1"/>
     </row>
     <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B512" s="1"/>
     </row>
@@ -5027,85 +5027,85 @@
     </row>
     <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B517" s="1"/>
     </row>
     <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B518" s="1"/>
     </row>
     <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B519" s="1"/>
     </row>
     <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B520" s="1"/>
     </row>
     <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B521" s="1"/>
     </row>
     <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B522" s="1"/>
     </row>
     <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B523" s="1"/>
     </row>
     <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B524" s="1"/>
     </row>
     <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B525" s="1"/>
     </row>
     <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B526" s="1"/>
     </row>
     <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B527" s="1"/>
     </row>
     <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B528" s="1"/>
     </row>
     <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B529" s="1"/>
     </row>
     <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B530" s="1"/>
     </row>
@@ -5129,121 +5129,121 @@
     </row>
     <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B535" s="1"/>
     </row>
     <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B536" s="1"/>
     </row>
     <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B537" s="1"/>
     </row>
     <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B538" s="1"/>
     </row>
     <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B539" s="1"/>
     </row>
     <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B540" s="1"/>
     </row>
     <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B541" s="1"/>
     </row>
     <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B542" s="1"/>
     </row>
     <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B543" s="1"/>
     </row>
     <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B544" s="1"/>
     </row>
     <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B545" s="1"/>
     </row>
     <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B546" s="1"/>
     </row>
     <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B547" s="1"/>
     </row>
     <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B548" s="1"/>
     </row>
     <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B549" s="1"/>
     </row>
     <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B550" s="1"/>
     </row>
     <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B551" s="1"/>
     </row>
     <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B552" s="1"/>
     </row>
     <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B553" s="1"/>
     </row>
     <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B554" s="1"/>
     </row>
@@ -5267,85 +5267,85 @@
     </row>
     <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B559" s="1"/>
     </row>
     <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B560" s="1"/>
     </row>
     <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B561" s="1"/>
     </row>
     <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B562" s="1"/>
     </row>
     <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B563" s="1"/>
     </row>
     <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B564" s="1"/>
     </row>
     <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B565" s="1"/>
     </row>
     <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B566" s="1"/>
     </row>
     <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B567" s="1"/>
     </row>
     <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B568" s="1"/>
     </row>
     <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B569" s="1"/>
     </row>
     <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B570" s="1"/>
     </row>
     <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B571" s="1"/>
     </row>
     <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B572" s="1"/>
     </row>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B577" s="1"/>
     </row>

--- a/src/13.10.2021/12.10.2021_cat_subcat.xlsx
+++ b/src/13.10.2021/12.10.2021_cat_subcat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57D7D3-8532-48D3-AD1C-F3A595BC0545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A66E38-D4A6-4E56-8E64-69B06AA997BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t>7. Бумага для сертификатов, дипломов, грамот</t>
   </si>
   <si>
-    <t>5. Бумага форматная белая =&gt; 5.1. Бумага форматная белая А4</t>
-  </si>
-  <si>
-    <t>5. Бумага форматная белая =&gt; 5.2. Бумага форматная белая А3</t>
-  </si>
-  <si>
     <t>3. Контейнеры для бутербродов, сэндвичей</t>
   </si>
   <si>
@@ -64,87 +58,12 @@
     <t>11. Вёдра пищевые</t>
   </si>
   <si>
-    <t>1. Контейнеры для холодного =&gt; 1.1. Контейнеры для холодного прямоугольные, крышка отдельно</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.2. Контейнеры для яиц</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.3. Контейнеры для холодного прямоугольные с неразъёмной крышкой</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.4. Контейнеры для холодного круглые</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.1. Контейнеры для горячего прямоугольные</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.2. Контейнеры для горячего круглые</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.3. Банки под пресервы</t>
-  </si>
-  <si>
-    <t>4. Контейнеры для тортов =&gt; 4.1. Контейнеры для тортов круглые, многоугольные</t>
-  </si>
-  <si>
-    <t>5. Бутылки, банки пэт =&gt; 5.1. Бутылки с широким горлом 38мм (для молока, соков, масла)</t>
-  </si>
-  <si>
-    <t>5. Бутылки, банки пэт =&gt; 5.2. Бутылки с узким горлом 28мм (для газированных напитков, пива, кваса)</t>
-  </si>
-  <si>
-    <t>8. Ланч-боксы =&gt; 8.1. Ланч-боксы био из сахарного тростника</t>
-  </si>
-  <si>
-    <t>8. Ланч-боксы =&gt; 8.2. Ланч-боксы впс</t>
-  </si>
-  <si>
     <t>1. Гигиенические принадлежности для туалетных комнат</t>
   </si>
   <si>
     <t>2. Ватная продукция</t>
   </si>
   <si>
-    <t>3. Бумага туалетная =&gt; 3.1. Бумага туалетная бытовая</t>
-  </si>
-  <si>
-    <t>3. Бумага туалетная =&gt; 3.2. Бумага туалетная профессиональная</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.1. Полотенца бумажные листовые</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.2. Полотенца бумажные в рулонах профессиональные</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.3. Полотенца бумажные в рулонах бытовые</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.1. Салфетки бумажные с рисунком</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.2. Салфетки бумажные 24-25</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.3. Салфетки для диспенсеров</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.4. Салфетки бумажные 33-40</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.1. Салфетки влажные антибактериальные</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.2. Платки носовые бумажные</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.3. Салфетки влажные</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.4. Салфетки косметические</t>
-  </si>
-  <si>
     <t>1. Бумага офисная</t>
   </si>
   <si>
@@ -217,129 +136,9 @@
     <t>2. Формы фуршетные</t>
   </si>
   <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.1. Миски, супницы пластиковые</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.2. Тарелки пластиковые</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.3. Тарелки из кукурузного крахмала</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.4. Креманки и крышки к ним</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.5. Тарелки из картона</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.6. Тарелки и миски из целлюлозы</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.7. Миски впс, крышки</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.8. Миски из сахарного тростника</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.9. Тарелки из сахарного тростника</t>
-  </si>
-  <si>
-    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.1. Комплекты одноразовой посуды</t>
-  </si>
-  <si>
-    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.2. Наборы одноразовой посуды</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.1. Стаканы картонные</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.2. Держатели и манжеты для стаканов</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.3. Крышки для бумажных стаканов</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.4. Стаканы pet</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.5. Бокалы, фужеры, рюмки</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.6. Стаканы пластиковые</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.7. Чашки</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.1. Коробка под картофель фри</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.2. Упаковка из картона</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.3. Универсальные бумажные контейнеры</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.4. Коробка и обертка для гамбургера</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.5. Контейнеры для лапши</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.6. Упаковка для кондитерских изделий</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.7. Лотки и подносы</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.8. Коробка под ролл</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.9. Упаковка под сэндвич</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.10. Контейнеры круглые бумажные для холодного и горячего</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.11. Коробка на вынос</t>
-  </si>
-  <si>
-    <t>6. Посуда из дерева =&gt; 6.1. Биоразлагаемая упаковка из дерева</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.1. Круглая фольгированная посуда</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.2. Крышки к фольгированной посуде</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.3. Прямоугольная фольгированная посуда</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.1. Столовые приборы из кукурузного крахмала</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.2. Столовые приборы стандарт, компакт</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.3. Мини-приборы</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.4. Столовые приборы класса премиум</t>
-  </si>
-  <si>
     <t>2. Дезинфекция для рук</t>
   </si>
   <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.1. Другое</t>
-  </si>
-  <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.2. Аксессуары для химии tana</t>
-  </si>
-  <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.3. Дозаторы для мыла и антисептиков</t>
-  </si>
-  <si>
     <t>1. Средства для кухонь</t>
   </si>
   <si>
@@ -373,318 +172,6 @@
     <t>13. Дезинфицирующие средства</t>
   </si>
   <si>
-    <t>1. Бумажная продукция =&gt; 1.1. Бизнес-блокноты</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.2. Бизнес-тетради на кольцах</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.3. Бизнес-тетради на сшивке</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.4. Закладки клейкие</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.5. Блоки бумажные</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.6. Тетради</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.7. Блоки самоклеящиеся</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.8. Блокноты</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.9. Подставки для бумажных блоков</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.10. Бизнес-тетради на скрепке</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.11. Бизнес-тетради на спирали</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.1. Пакеты E4 (300x400 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.2. Пакеты полиэтиленовые</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.3. Конверты нестандартных размеров</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.4. Конверты E65 (110x220 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.5. Конверты C4 (229x324 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.6. Конверты C5 (162x229 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.7. Конверты C6 (114x162 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.8. Конверты C65 (114x229 мм)</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.9. Пакеты C4 (229x324 мм)</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.18. Кнопки</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.10. Пакеты B4 (250x353 мм)</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.1. Увлажнители</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.2. Лотки для бумаг вертикальные</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.3. Ножницы</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.4. Скобы для степлеров</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.5. Клейкая лента канцелярская</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.6. Калькуляторы</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.7. Этикетки самоклеящиеся</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.8. Скрепки</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.9. Корзины для бумаг</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.10. Клей канцелярский</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.11. Степлеры, антистеплеры</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.12. Дыроколы</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.13. Линейки</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.14. Ножи канцелярские, лезвия</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.15. Наборы офисные</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.16. Зажим канцелярский</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.17. Лотки для бумаг горизонтальные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.11. Флипчарты</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.1. Ластики</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.2. Ручки</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.3. Маркеры, текстовыделители</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.4. Точилки</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.5. Корректирующие средства</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.6. Карандаши, грифели</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.1. Папки с файлами</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.2. Папки-конверты на кнопке</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.3. Папки-скоросшиватели пластиковые</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.4. Папки-скоросшиватели картонные</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.5. Папки с прижимным механизмом</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.6. Папки с клипом</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.7. Короба архивные на резинках</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.8. Короба для переездов</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.9. Папки-регистраторы</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.10. Папки подвесные</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.11. Папки с пружинным механизмом</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.12. Папки на резинке</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.13. Короба архивные на завязках</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.14. Папки адресные, портфели</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.15. Папки на кольцах</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.16. Файлы с перфорацией</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.17. Папки на завязках</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.18. Папки-уголки</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.19. Разделители</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.20. Планшеты</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.21. Папки-конверты на молнии</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.1. Принадлежности и аксессуары</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.2. Записные книжки</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.3. Визитницы</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.4. Ежедневники</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.5. Карты и рамки</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.6. Бейджы, ленты</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.1. Краски штемпельные</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.2. Штампы самонаборные</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.3. Подушки настольные</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.4. Оснастки для печатей, штампов</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.5. Штампы</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.6. Нумераторы</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.7. Печати круглые самонаборные</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.8. Подушки сменные</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.9. Датеры</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.1. Подставки и накопители демонстрационные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.2. Информационные рамки</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.3. Демо-панели</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.4. Демосистемы напольные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.5. Аксессуары для досок</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.6. Информационные таблички</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.7. Демосистемы настенные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.8. Демосистемы настольные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.9. Доски магнитно-маркерные</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.10. Доски пробковые</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.1. Акварель</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.2. Пластилин</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.3. Карандаши цветные</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.4. Картон цветной/белый</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.5. Мел</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.6. Альбомы для рисования</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.7. Бумага для акварели</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.8. Циркули, готовальни</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.9. Фломастеры</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.10. Товары для школы</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.11. Раскраски</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.12. Товары для детского творчества</t>
-  </si>
-  <si>
     <t>1. Подложка впс белая</t>
   </si>
   <si>
@@ -715,534 +202,57 @@
     <t>12. Техническая химия</t>
   </si>
   <si>
-    <t>3. Мыло =&gt; 3.1. Мыло туалетное</t>
-  </si>
-  <si>
-    <t>3. Мыло =&gt; 3.2. Мыло хозяйственное</t>
-  </si>
-  <si>
-    <t>3. Мыло =&gt; 3.3. Мыло жидкое</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 1. Стиральные порошки</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 2. Антистатики и крахмалы</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 3. Кондиционеры и ополаскиватели для белья</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 4. Отбеливатели и пятновыводители</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.1. Средства для удаления жира, накипи</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.2. Средства для мытья посуды</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.3. Средства для пмм</t>
-  </si>
-  <si>
-    <t>10. Уход за телом =&gt; 10.1. Средства для рук</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.1. Средства для унитазов и писуаров</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.2. Средства для ухода за сантехникой</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.3. Средства для прочистки труб</t>
-  </si>
-  <si>
-    <t>2. Уборочная техника =&gt; 2.1. Профессиональные пылесосы</t>
-  </si>
-  <si>
     <t>3. Ящики, контейнеры универсальные</t>
   </si>
   <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.1. Специнвентарь</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.2. Мётлы</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.3. Лопаты и черенки</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.4. Движки д/снега</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.5. Грабли</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.6. Тачки строительные, садовые</t>
-  </si>
-  <si>
     <t>4. Инвентарь для уборки пыли</t>
   </si>
   <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.1. Вёдра на колесах, вёдра с отжимом</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.2. Комплекты (совок + щетка)</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.3. Совки для мусора</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.4. Швабры</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.5. Щётки</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.6. Информационные таблички напольные</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.7. Сгоны для пола</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.8. Веники</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.9. Держатели мопов (флаундеры)</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.10. Комплекты для уборки</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.11. Мопы</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.12. Тележки уборочные</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.13. Вёдра</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.14. Пады и размывочные круги, держатели</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.15. Рукоятки</t>
-  </si>
-  <si>
     <t>10. Стремянки</t>
   </si>
   <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.1. Баки для мусора</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.2. Урны</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.3. Контейнеры для мусора</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.4. Контейнеры и урны для раздельного сбора отходов</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.1. Вёдра для мытья окон</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.2. Комплекты для мытья окон</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.3. Шубки и держатели для мытья окон</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.4. Сгоны, склизы для стёкол</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.5. Скребки, лезвия</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.6. Распылители</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.7. Телескопические рукоятки</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.1. Салфетки из микрофибры</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.2. Салфетки для стеклянных поверхностей</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.3. Салфетки прорезиненные</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.4. Салфетки вискозные</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.1. Входные грязезащитные влаговпитывающие коврики</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.2. Дезинфекционные коврики</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.3. Резиновые и диэлектрические коврики</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.4. Противоскользящие ленты, коврики для ванной комнаты и туалета</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.1. Ткани</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.2. Тряпки</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.3. Протирочный материал</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.4. Полотенца</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.1. Зеркала</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.2. Тазы</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.3. Ерши для туалета</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.4. Вантузы</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.1. Ерши для бутылок</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.2. Губки для мытья посуды</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.3. Щётки для посуды, скребки</t>
-  </si>
-  <si>
     <t>1. Конверты для столовых приборов</t>
   </si>
   <si>
-    <t>2. Свечи и подсвечники =&gt; 2.1. Свечи конические</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.2. Свечи столовые и хозяйственные</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.3. Свечи для торта</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.4. Свечи столбик</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.5. Свечи плавающие</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.6. Свечи в стеклянном подсвечнике и прочее</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.1. Палочки для мороженого</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.2. Размешиватели деревянные</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.3. Размешиватели пластиковые</t>
-  </si>
-  <si>
     <t>4. Декоративные украшения</t>
   </si>
   <si>
     <t>5. Шампуры барные</t>
   </si>
   <si>
-    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.1. Скатерти нетканые</t>
-  </si>
-  <si>
-    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.2. Скатерти бумажные</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.1. Трубочки без изгиба</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.2. Трубочки гофрированные</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.3. Бумажные трубочки</t>
-  </si>
-  <si>
     <t>8. Пики =&gt; 8.1. Пики пластиковые</t>
   </si>
   <si>
     <t>8. Пики =&gt; 8.2. Пики деревянные</t>
   </si>
   <si>
-    <t>9. Салфетки для сервировки и папильотки =&gt; 9.1. Салфетки под чашку</t>
-  </si>
-  <si>
-    <t>9. Салфетки для сервировки и папильотки =&gt; 9.2. Салфетки для торта</t>
-  </si>
-  <si>
     <t>10. Палочки для еды</t>
   </si>
   <si>
     <t>11. Зубочистки</t>
   </si>
   <si>
-    <t>1. Фольга =&gt; 1.1. Профессиональная (без инд. упаковки)</t>
-  </si>
-  <si>
-    <t>1. Фольга =&gt; 1.2. Бытовая</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.1. Ёмкости для хранения продуктов</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.2. Пакеты для заморозки</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.3. Бумага для выпечки</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.4. Ёмкости для соуса</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.5. Рукав для запекания</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.6. Пергамент силиконизированный</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.1. Тарталетки бумажные</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.2. Формы для выпечки бумажные</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.3. Лента бордюрная для торта</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.4. Мешки кондитерские</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.5. Баллончики для сифона</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.1. Стаканы мерные</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.2. Ножи кухонные поварские, молотки</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.3. Разделочные доски</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.1. Жидкость для розжига</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.2. Зажигалки, газ</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.3. Дрова</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.4. Уголь</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.5. Гели для подогрева</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.6. Сухое горючее</t>
-  </si>
-  <si>
     <t>1. Плёнка упаковочная цветочная</t>
   </si>
   <si>
     <t>3. Плёнка стрейч</t>
   </si>
   <si>
-    <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.2. Пакеты бумажные с ручками</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.3. Пакеты бумажные под выпечку, уголки с плоским дном</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.4. Пакеты бумажные на вынос с прямоугольным дном</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.1. Пакеты типа майка</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.2. Пакеты типа "zip lock"</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.3. Пакеты вакуумные</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.4. Пакеты мусорные</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.5. Фасовочные пакеты</t>
-  </si>
-  <si>
     <t>3. Термопакеты</t>
   </si>
   <si>
-    <t>4. Пакеты полипропиленовые =&gt; 4.1. Пакеты пп</t>
-  </si>
-  <si>
-    <t>4. Пакеты полипропиленовые =&gt; 4.2. Пакеты пп с прямоугольным дном</t>
-  </si>
-  <si>
-    <t>5. Пакеты с вырубными и петлевыми ручками =&gt; 5.1. Пакеты цветные</t>
-  </si>
-  <si>
-    <t>2. Упаковка из фбв =&gt; 2.1. Лотки и подложки фбв</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.4. Коробки для пиццы</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.3. Гофрокороба</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.2. Подложка под пиццу, пирог</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.1. Коробки для торта</t>
-  </si>
-  <si>
     <t>3. Бумага обёрточная, упаковочная</t>
   </si>
   <si>
     <t>4. Скобы, стяжки, хомуты</t>
   </si>
   <si>
-    <t>5. Сетки =&gt; 5.1. Сетка-рукав</t>
-  </si>
-  <si>
-    <t>5. Сетки =&gt; 5.2. Сетка на бутылку</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.1. Диспенсеры для скотча</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.2. Клейкие ленты типа "скотч"</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.3. Малярная лента optiroll</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.4. Специальные ленты</t>
-  </si>
-  <si>
-    <t>7. Шпагаты и нити =&gt; 7.1. Шпагаты натуральные</t>
-  </si>
-  <si>
-    <t>7. Шпагаты и нити =&gt; 7.2. Шпагаты пп</t>
-  </si>
-  <si>
     <t>8. Ленты декоративные</t>
   </si>
   <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.1. Чехлы и щётки для одежды</t>
-  </si>
-  <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.2. Средства по уходу за обувью</t>
-  </si>
-  <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.3. Галантерея</t>
-  </si>
-  <si>
-    <t>2. Гостиничная парфюмерия и косметика =&gt; 2.1. Серия "hotel"</t>
-  </si>
-  <si>
     <t>1. Головные уборы</t>
   </si>
   <si>
-    <t>2. Спецобувь =&gt; 2.1. Сабо</t>
-  </si>
-  <si>
-    <t>3. Средства индивидуальной защиты =&gt; 3.1. Очки</t>
-  </si>
-  <si>
-    <t>3. Средства индивидуальной защиты =&gt; 3.2. Респираторы и маски</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.4. Комбинезоны/полукомбенизоны/жилеты/куртки</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.5. Плащи</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.3. Фартуки</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.2. Костюмы рабочие</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.1. Халаты</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.1. Перчатки латексные</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.2. Перчатки тпэ</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.3. Рукавицы</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.4. Перчатки виниловые</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.5. Перчатки резиновые</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.6. Перчатки х/б</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.7. Перчатки нитриловые</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.8. Перчатки специального назначения</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.9. Перчатки полиэтиленовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.1. Халаты одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.2. Нарукавники одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.3. Комбинезоны, костюмы одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.4. Носки одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.5. Фартуки одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.6. Набородники</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.7. Бахилы</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.8. Головные уборы одноразовые</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские</t>
-  </si>
-  <si>
     <t>1. Проволока, нити для прошивки</t>
   </si>
   <si>
@@ -1255,15 +265,6 @@
     <t>4. Опечатывающие устройства</t>
   </si>
   <si>
-    <t>5. Маркировочная продукция =&gt; 5.1. Этикет-ленты</t>
-  </si>
-  <si>
-    <t>5. Маркировочная продукция =&gt; 5.2. Этикет-пистолеты</t>
-  </si>
-  <si>
-    <t>5. Маркировочная продукция =&gt; 5.3. Игловые пистолеты и расходные материалы</t>
-  </si>
-  <si>
     <t>6. Складская техника, тележки и комплектующие</t>
   </si>
   <si>
@@ -1279,84 +280,12 @@
     <t>10. Сейфы и кэшбоксы</t>
   </si>
   <si>
-    <t>11. Замки =&gt; 11.1. Почтовые замки</t>
-  </si>
-  <si>
-    <t>11. Замки =&gt; 11.2. Навесные замки</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.1. Сургуч, пластилин для опечатывания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. Товары для опломбирования =&gt; 12.2. Пломбы наклейки </t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.3. Пломбы свинцовые</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.4. Пломбы пластиковые</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.5. Проволока для опломбирования</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.6. Пломбы тросовые</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.1. Ленты бандерольные</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.2. Кольца бандерольные</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.3. Накладки</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.1. Журналы по охране труда и пожарной безопасности</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.2. Законы, правила, кодексы</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.3. Журналы и бланки для организаци пищевого производства, предприятий общественного питания</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.4. Журналы и бланки по делопроизводству, кадровой работе и бухгалтерскому учёту</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.5. Журналы и бланки для предприятий оптовой и розничной торговли</t>
-  </si>
-  <si>
-    <t>15. Кассовые ленты =&gt; 15.1. Кассовая лента термо</t>
-  </si>
-  <si>
     <t>16. Инкассаторское оборудование</t>
   </si>
   <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.1. Детекторы валют и ценных бумаг</t>
-  </si>
-  <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.2. Счётчики банкнот</t>
-  </si>
-  <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.3. Лампы для детекторов</t>
-  </si>
-  <si>
     <t>18. Торговые принадлежности</t>
   </si>
   <si>
-    <t>19. Термолента для электронных весов и термопринтеров =&gt; 19.1. Термоэтикетка</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.1. Меловые таблички</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.2. Дели-системы и тейбл тенты</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.3. Ценникодержатели</t>
-  </si>
-  <si>
     <t>21. Инкасаторские сумки и мешки</t>
   </si>
   <si>
@@ -1369,21 +298,6 @@
     <t>3. Освежители воздуха автоматические</t>
   </si>
   <si>
-    <t>4. Диспенсеры =&gt; 4.1. Диспенсеры для мыла</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.2. Диспенсеры для  гиг.покрытий, протир.бумаги</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.3. Диспенсеры для полотенец</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.4. Диспенсеры для туалетной бумаги</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.5. Диспенсеры для салфеток</t>
-  </si>
-  <si>
     <t>5. Крючки, бытовые держатели, мыльницы</t>
   </si>
   <si>
@@ -1393,178 +307,1272 @@
     <t>7. Контейнеры, корзины</t>
   </si>
   <si>
-    <t>1. Кондитерские изделия =&gt; 1.1. Вафли, пряники</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.2. Конфеты</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.3. Печенье</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.4. Рулеты</t>
-  </si>
-  <si>
     <t>2. Бакалея</t>
   </si>
   <si>
-    <t>3. Чай =&gt; 3.1. Чай чёрный в пакетиках</t>
-  </si>
-  <si>
-    <t>3. Чай =&gt; 3.2. Чай зелёный в пакетиках</t>
-  </si>
-  <si>
-    <t>3. Чай =&gt; 3.3. Чай травяной, фруктовый</t>
-  </si>
-  <si>
-    <t>4. Кофе =&gt; 4.1. Кофе в зёрнах</t>
-  </si>
-  <si>
-    <t>4. Кофе =&gt; 4.2. Кофе растворимый</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.1. Вода</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.2. Напитки</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.3. Соки, нектары, морсы</t>
-  </si>
-  <si>
     <t>6. Снэки</t>
   </si>
   <si>
     <t>1. Средства для ухода за техникой</t>
   </si>
   <si>
-    <t>2. Носители информации =&gt; 2.1. Флеш-память usb</t>
-  </si>
-  <si>
-    <t>2. Носители информации =&gt; 2.2. Внешние жёсткие диски</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.1. Телефоны DECT ***</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.2. Факсимильные аппараты</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.3. Телефоны проводные</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.1. МФУ лазерные ***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.2. Принтеры струйные</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.3. МФУ струйные ***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.4. Принтеры лазерные</t>
-  </si>
-  <si>
-    <t>5. Картриджи для печатающей техники =&gt; 5.1. Картриджи для принтеров оригинальные</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.1. Обложки для переплёта</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.2. Брошюровщики</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.3. Ламинаторы</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.4. Резаки</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.5. Расходные материалы для офисной техники</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.6. Пружины для переплёта</t>
-  </si>
-  <si>
-    <t>7. Компьютерная периферия =&gt; 7.1. Клавиатуры</t>
-  </si>
-  <si>
-    <t>7. Компьютерная периферия =&gt; 7.2. Мыши компьютерные</t>
-  </si>
-  <si>
     <t>8. Уничтожители документов</t>
   </si>
   <si>
-    <t>1. Климатическая техника =&gt; 1.1. Конвекторы</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.2. Обогреватели</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.3. Метеооборудование, термометры, гигрометры</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.4. Вентиляторы</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.1. Батарейки</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.2. Аккумуляторы</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.3. Зарядные устройства</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.1. Микроволновые печи</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.2. Кофе-машины</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.3. Чайники электрические</t>
-  </si>
-  <si>
-    <t>4. Крупная бытовая техника =&gt; 4.1. Холодильники</t>
-  </si>
-  <si>
-    <t>5. Электротовары =&gt; 5.1. Светильники</t>
-  </si>
-  <si>
-    <t>6. Мелкая бытовая техника =&gt; 6.1. Утюги</t>
-  </si>
-  <si>
-    <t>6. Мелкая бытовая техника =&gt; 6.2. Пылесосы</t>
-  </si>
-  <si>
     <t>1. Экологичные товары</t>
   </si>
   <si>
-    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая</t>
-  </si>
-  <si>
-    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая)</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ</t>
+    <t>5. Бумага форматная белая =&gt; 5.1. Бумага форматная белая А4 ***[[ bumaga-formatnaja-belaja-a4 ]] ***</t>
+  </si>
+  <si>
+    <t>5. Бумага форматная белая =&gt; 5.2. Бумага форматная белая А3 ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.1. Контейнеры для холодного прямоугольные, крышка отдельно ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.2. Контейнеры для яиц ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.3. Контейнеры для холодного прямоугольные с неразъёмной крышкой ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.4. Контейнеры для холодного круглые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.1. Контейнеры для горячего прямоугольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.2. Контейнеры для горячего круглые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.3. Банки под пресервы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Контейнеры для тортов =&gt; 4.1. Контейнеры для тортов круглые, многоугольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Бутылки, банки пэт =&gt; 5.1. Бутылки с широким горлом 38мм (для молока, соков, масла) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Бутылки, банки пэт =&gt; 5.2. Бутылки с узким горлом 28мм (для газированных напитков, пива, кваса) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Ланч-боксы =&gt; 8.1. Ланч-боксы био из сахарного тростника ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Ланч-боксы =&gt; 8.2. Ланч-боксы впс ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Бумага туалетная =&gt; 3.1. Бумага туалетная бытовая ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Бумага туалетная =&gt; 3.2. Бумага туалетная профессиональная ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.1. Полотенца бумажные листовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.2. Полотенца бумажные в рулонах профессиональные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.3. Полотенца бумажные в рулонах бытовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.1. Салфетки бумажные с рисунком ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.2. Салфетки бумажные 24-25 ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.3. Салфетки для диспенсеров ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.4. Салфетки бумажные 33-40 ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.1. Салфетки влажные антибактериальные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.2. Платки носовые бумажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.3. Салфетки влажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.4. Салфетки косметические ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.1. Миски, супницы пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.2. Тарелки пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.3. Тарелки из кукурузного крахмала ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.4. Креманки и крышки к ним ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.5. Тарелки из картона ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.6. Тарелки и миски из целлюлозы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.7. Миски впс, крышки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.8. Миски из сахарного тростника ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.9. Тарелки из сахарного тростника ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.1. Комплекты одноразовой посуды ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.2. Наборы одноразовой посуды ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.1. Стаканы картонные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.2. Держатели и манжеты для стаканов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.3. Крышки для бумажных стаканов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.4. Стаканы pet ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.5. Бокалы, фужеры, рюмки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.6. Стаканы пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.7. Чашки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.1. Коробка под картофель фри ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.2. Упаковка из картона ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.3. Универсальные бумажные контейнеры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.4. Коробка и обертка для гамбургера ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.5. Контейнеры для лапши ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.6. Упаковка для кондитерских изделий ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.7. Лотки и подносы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.8. Коробка под ролл ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.9. Упаковка под сэндвич ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.10. Контейнеры круглые бумажные для холодного и горячего ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.11. Коробка на вынос ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Посуда из дерева =&gt; 6.1. Биоразлагаемая упаковка из дерева ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.1. Круглая фольгированная посуда ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.2. Крышки к фольгированной посуде ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.3. Прямоугольная фольгированная посуда ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.1. Столовые приборы из кукурузного крахмала ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.2. Столовые приборы стандарт, компакт ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.3. Мини-приборы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.4. Столовые приборы класса премиум ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.1. Другое ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.2. Аксессуары для химии tana ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.3. Дозаторы для мыла и антисептиков ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.1. Бизнес-блокноты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.2. Бизнес-тетради на кольцах ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.3. Бизнес-тетради на сшивке ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.4. Закладки клейкие ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.5. Блоки бумажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.6. Тетради ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.7. Блоки самоклеящиеся ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.8. Блокноты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.9. Подставки для бумажных блоков ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.10. Бизнес-тетради на скрепке ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.11. Бизнес-тетради на спирали ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.1. Пакеты E4 (300x400 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.2. Пакеты полиэтиленовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.3. Конверты нестандартных размеров ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.4. Конверты E65 (110x220 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.5. Конверты C4 (229x324 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.6. Конверты C5 (162x229 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.7. Конверты C6 (114x162 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.8. Конверты C65 (114x229 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.9. Пакеты C4 (229x324 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.10. Пакеты B4 (250x353 мм) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.1. Увлажнители ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.2. Лотки для бумаг вертикальные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.3. Ножницы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.4. Скобы для степлеров ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.5. Клейкая лента канцелярская ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.6. Калькуляторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.7. Этикетки самоклеящиеся ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.8. Скрепки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.9. Корзины для бумаг ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.10. Клей канцелярский ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.11. Степлеры, антистеплеры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.12. Дыроколы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.13. Линейки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.14. Ножи канцелярские, лезвия ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.15. Наборы офисные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.16. Зажим канцелярский ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.17. Лотки для бумаг горизонтальные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.18. Кнопки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.1. Ластики ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.2. Ручки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.3. Маркеры, текстовыделители ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.4. Точилки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.5. Корректирующие средства ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.6. Карандаши, грифели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.1. Папки с файлами ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.2. Папки-конверты на кнопке ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.3. Папки-скоросшиватели пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.4. Папки-скоросшиватели картонные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.5. Папки с прижимным механизмом ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.6. Папки с клипом ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.7. Короба архивные на резинках ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.8. Короба для переездов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.9. Папки-регистраторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.10. Папки подвесные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.11. Папки с пружинным механизмом ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.12. Папки на резинке ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.13. Короба архивные на завязках ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.14. Папки адресные, портфели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.15. Папки на кольцах ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.16. Файлы с перфорацией ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.17. Папки на завязках ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.18. Папки-уголки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.19. Разделители ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.20. Планшеты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.21. Папки-конверты на молнии ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.1. Принадлежности и аксессуары ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.2. Записные книжки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.3. Визитницы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.4. Ежедневники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.5. Карты и рамки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.6. Бейджы, ленты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.1. Краски штемпельные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.2. Штампы самонаборные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.3. Подушки настольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.4. Оснастки для печатей, штампов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.5. Штампы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.6. Нумераторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.7. Печати круглые самонаборные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.8. Подушки сменные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.9. Датеры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.1. Подставки и накопители демонстрационные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.2. Информационные рамки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.3. Демо-панели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.4. Демосистемы напольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.5. Аксессуары для досок ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.6. Информационные таблички ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.7. Демосистемы настенные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.8. Демосистемы настольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.9. Доски магнитно-маркерные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.10. Доски пробковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.11. Флипчарты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.1. Акварель ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.2. Пластилин ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.3. Карандаши цветные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.4. Картон цветной/белый ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.5. Мел ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.6. Альбомы для рисования ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.7. Бумага для акварели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.8. Циркули, готовальни ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.9. Фломастеры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.10. Товары для школы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.11. Раскраски ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.12. Товары для детского творчества ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.1. Мыло туалетное ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.2. Мыло хозяйственное ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.3. Мыло жидкое ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 1. Стиральные порошки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 2. Антистатики и крахмалы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 3. Кондиционеры и ополаскиватели для белья ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 4. Отбеливатели и пятновыводители ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.1. Средства для удаления жира, накипи ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.2. Средства для мытья посуды ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.3. Средства для пмм ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>10. Уход за телом =&gt; 10.1. Средства для рук ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.1. Средства для унитазов и писуаров ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.2. Средства для ухода за сантехникой ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.3. Средства для прочистки труб ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.1. Специнвентарь ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.2. Мётлы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.3. Лопаты и черенки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.4. Движки д/снега ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.5. Грабли ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.6. Тачки строительные, садовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Уборочная техника =&gt; 2.1. Профессиональные пылесосы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.1. Вёдра на колесах, вёдра с отжимом ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.2. Комплекты (совок + щётка) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.3. Совки для мусора ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.4. Швабры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.5. Щётки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.6. Информационные таблички напольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.7. Сгоны для пола ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.8. Веники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.9. Держатели мопов (флаундеры) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.10. Комплекты для уборки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.11. Мопы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.12. Тележки уборочные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.13. Вёдра ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.14. Пады и размывочные круги, держатели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.15. Рукоятки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.1. Баки для мусора ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.2. Урны ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.3. Контейнеры для мусора ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.4. Контейнеры и урны для раздельного сбора отходов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.1. Вёдра для мытья окон ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.2. Комплекты для мытья окон ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.3. Шубки и держатели для мытья окон ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.4. Сгоны, склизы для стёкол ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.5. Скребки, лезвия ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.6. Распылители ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.7. Телескопические рукоятки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.1. Салфетки из микрофибры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.2. Салфетки для стеклянных поверхностей ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.3. Салфетки прорезиненные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.4. Салфетки вискозные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.1. Входные грязезащитные влаговпитывающие коврики ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.2. Дезинфекционные коврики ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.3. Резиновые и диэлектрические коврики ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.4. Противоскользящие ленты, коврики для ванной комнаты и туалета ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.1. Ткани ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.2. Тряпки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.3. Протирочный материал ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.4. Полотенца ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.1. Зеркала ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.2. Тазы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.3. Ерши для туалета ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.4. Вантузы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.1. Ерши для бутылок ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.2. Губки для мытья посуды ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.3. Щётки для посуды, скребки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.1. Свечи конические ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.2. Свечи столовые и хозяйственные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.3. Свечи для торта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.4. Свечи столбик ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.5. Свечи плавающие ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.6. Свечи в стеклянном подсвечнике и прочее ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.1. Палочки для мороженого ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.2. Размешиватели деревянные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.3. Размешиватели пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.1. Скатерти нетканые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.2. Скатерти бумажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.1. Трубочки без изгиба ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.2. Трубочки гофрированные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.3. Бумажные трубочки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.1. Салфетки под чашку ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.2. Салфетки для торта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.1. Профессиональная (без инд. упаковки) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.2. Бытовая ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.1. Ёмкости для хранения продуктов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.2. Пакеты для заморозки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.3. Бумага для выпечки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.4. Ёмкости для соуса ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.5. Рукав для запекания ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.6. Пергамент силиконизированный ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.1. Тарталетки бумажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.2. Формы для выпечки бумажные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.3. Лента бордюрная для торта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.4. Мешки кондитерские ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.5. Баллончики для сифона ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.1. Стаканы мерные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.2. Ножи кухонные поварские, молотки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.3. Разделочные доски ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.1. Жидкость для розжига ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.2. Зажигалки, газ ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.3. Дрова ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.4. Уголь ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.5. Гели для подогрева ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.6. Сухое горючее ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая) ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.2. Пакеты бумажные с ручками ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.3. Пакеты бумажные под выпечку, уголки с плоским дном ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.4. Пакеты бумажные на вынос с прямоугольным дном ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.1. Пакеты типа майка ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.2. Пакеты типа "zip lock" ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.3. Пакеты вакуумные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.4. Пакеты мусорные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.5. Фасовочные пакеты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.1. Пакеты пп ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.2. Пакеты пп с прямоугольным дном ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Пакеты с вырубными и петлевыми ручками =&gt; 5.1. Пакеты цветные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.1. Коробки для торта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.2. Подложка под пиццу, пирог ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.3. Гофрокороба ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.4. Коробки для пиццы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Упаковка из фбв =&gt; 2.1. Лотки и подложки фбв ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.1. Сетка-рукав ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.2. Сетка на бутылку ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.1. Диспенсеры для скотча ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.2. Клейкие ленты типа "скотч" ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.3. Малярная лента optiroll ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.4. Специальные ленты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.1. Шпагаты натуральные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.2. Шпагаты пп ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.1. Чехлы и щётки для одежды ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.2. Средства по уходу за обувью ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.3. Галантерея ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Гостиничная парфюмерия и косметика =&gt; 2.1. Серия "hotel" ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Спецобувь =&gt; 2.1. Сабо ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.1. Очки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.2. Респираторы и маски ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.1. Халаты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.2. Костюмы рабочие ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.3. Фартуки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.4. Комбинезоны/полукомбенизоны/жилеты/куртки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.5. Плащи ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.1. Перчатки латексные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.2. Перчатки тпэ ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.3. Рукавицы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.4. Перчатки виниловые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.5. Перчатки резиновые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.6. Перчатки х/б ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.7. Перчатки нитриловые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.8. Перчатки специального назначения ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.9. Перчатки полиэтиленовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.1. Халаты одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.2. Нарукавники одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.3. Комбинезоны, костюмы одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.4. Носки одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.5. Фартуки одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.6. Набородники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.7. Бахилы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.8. Головные уборы одноразовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.1. Этикет-ленты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.2. Этикет-пистолеты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.3. Игловые пистолеты и расходные материалы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.1. Почтовые замки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.2. Навесные замки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.1. Сургуч, пластилин для опечатывания ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.2. Пломбы наклейки  ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.3. Пломбы свинцовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.4. Пломбы пластиковые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.5. Проволока для опломбирования ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.6. Пломбы тросовые ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.1. Ленты бандерольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.2. Кольца бандерольные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.3. Накладки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.1. Журналы по охране труда и пожарной безопасности ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.2. Законы, правила, кодексы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.3. Журналы и бланки для организаци пищевого производства, предприятий общественного питания ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.4. Журналы и бланки по делопроизводству, кадровой работе и бухгалтерскому учёту ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>15. Кассовые ленты =&gt; 15.1. Кассовая лента термо ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.5. Журналы и бланки для предприятий оптовой и розничной торговли ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.1. Детекторы валют и ценных бумаг ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.2. Счётчики банкнот ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.3. Лампы для детекторов ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>19. Термолента для электронных весов и термопринтеров =&gt; 19.1. Термоэтикетка ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.1. Меловые таблички ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.2. Дели-системы и тейбл тенты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.3. Ценникодержатели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.1. Диспенсеры для мыла ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.2. Диспенсеры для  гиг.покрытий, протир.бумаги ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.3. Диспенсеры для полотенец ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.4. Диспенсеры для туалетной бумаги ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.5. Диспенсеры для салфеток ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.1. Вафли, пряники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.2. Конфеты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.3. Печенье ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.4. Рулеты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.1. Чай чёрный в пакетиках ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.2. Чай зелёный в пакетиках ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.3. Чай травяной, фруктовый ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.1. Кофе в зёрнах ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.2. Кофе растворимый ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.1. Вода ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.2. Напитки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.3. Соки, нектары, морсы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.1. Флеш-память usb ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.2. Внешние жёсткие диски ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.1. Телефоны DECT ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.2. Факсимильные аппараты ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.3. Телефоны проводные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.1. МФУ лазерные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.2. Принтеры струйные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.3. МФУ струйные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.4. Принтеры лазерные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Картриджи для печатающей техники =&gt; 5.1. Картриджи для принтеров оригинальные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.1. Обложки для переплёта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.2. Брошюровщики ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.3. Ламинаторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.4. Резаки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.5. Расходные материалы для офисной техники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.6. Пружины для переплёта ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.1. Клавиатуры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.2. Мыши компьютерные ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.1. Конвекторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.2. Обогреватели ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.3. Метеооборудование, термометры, гигрометры ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.4. Вентиляторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.1. Батарейки ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.2. Аккумуляторы ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.3. Зарядные устройства ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.1. Микроволновые печи ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.2. Кофе-машины ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.3. Чайники электрические ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>4. Крупная бытовая техника =&gt; 4.1. Холодильники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>5. Электротовары =&gt; 5.1. Светильники ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.1. Утюги ***[[  ]]***</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.2. Пылесосы ***[[  ]]***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,12 +1686,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1692,22 +1700,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1716,10 +1724,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2033,19 +2044,19 @@
   <dimension ref="A1:B2181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B378" sqref="B378"/>
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="111" style="10" customWidth="1"/>
+    <col min="1" max="1" width="131.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -2063,7 +2074,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3"/>
     </row>
@@ -2093,13 +2104,13 @@
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3"/>
     </row>
@@ -2129,115 +2140,115 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>14</v>
+      <c r="A18" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>15</v>
+      <c r="A19" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
+      <c r="A20" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>17</v>
+      <c r="A21" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>18</v>
+      <c r="A22" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>19</v>
+      <c r="A23" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>20</v>
+      <c r="A24" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="B35" s="1"/>
     </row>
@@ -2255,97 +2266,97 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2"/>
     </row>
@@ -2363,235 +2374,235 @@
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B96" s="1"/>
     </row>
@@ -2609,97 +2620,97 @@
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="B115" s="1"/>
     </row>
@@ -2717,631 +2728,631 @@
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B180" s="1"/>
     </row>
     <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="B181" s="1"/>
     </row>
     <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B183" s="1"/>
     </row>
     <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="B201" s="1"/>
     </row>
     <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="B202" s="1"/>
     </row>
     <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="B203" s="1"/>
     </row>
     <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="B204" s="1"/>
     </row>
     <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="B205" s="1"/>
     </row>
     <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="B207" s="1"/>
     </row>
     <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B213" s="1"/>
     </row>
     <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B214" s="1"/>
     </row>
     <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B215" s="1"/>
     </row>
     <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B216" s="1"/>
     </row>
     <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B217" s="1"/>
     </row>
     <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B218" s="1"/>
     </row>
     <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B219" s="1"/>
     </row>
     <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="B220" s="1"/>
     </row>
     <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B221" s="1"/>
     </row>
     <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B222" s="1"/>
     </row>
     <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="B223" s="1"/>
     </row>
@@ -3359,25 +3370,25 @@
     </row>
     <row r="227" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="B228" s="1"/>
     </row>
     <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="B230" s="1"/>
     </row>
@@ -3395,133 +3406,133 @@
     </row>
     <row r="234" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="B240" s="1"/>
     </row>
     <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B242" s="1"/>
     </row>
     <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B243" s="1"/>
     </row>
     <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B244" s="1"/>
     </row>
     <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="B245" s="1"/>
     </row>
     <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B246" s="1"/>
     </row>
     <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B248" s="1"/>
     </row>
     <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="B249" s="1"/>
     </row>
     <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="B250" s="1"/>
     </row>
     <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B251" s="1"/>
     </row>
     <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B252" s="1"/>
     </row>
     <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B253" s="1"/>
     </row>
     <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="B254" s="1"/>
     </row>
     <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="B255" s="1"/>
     </row>
@@ -3539,337 +3550,337 @@
     </row>
     <row r="259" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B259" s="1"/>
     </row>
     <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="B260" s="1"/>
     </row>
     <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="B261" s="1"/>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B262" s="1"/>
     </row>
     <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="B263" s="1"/>
     </row>
     <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B264" s="1"/>
     </row>
     <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="B265" s="1"/>
     </row>
     <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="B266" s="1"/>
     </row>
     <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="B267" s="1"/>
     </row>
     <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="B268" s="1"/>
     </row>
     <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="B269" s="1"/>
     </row>
     <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="B270" s="1"/>
     </row>
     <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B271" s="1"/>
     </row>
     <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="B272" s="1"/>
     </row>
     <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="B273" s="1"/>
     </row>
     <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B274" s="1"/>
     </row>
     <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="B275" s="1"/>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B276" s="1"/>
     </row>
     <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="B277" s="1"/>
     </row>
     <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="B278" s="1"/>
     </row>
     <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="B279" s="1"/>
     </row>
     <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="B280" s="1"/>
     </row>
     <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="B281" s="1"/>
     </row>
     <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="B282" s="1"/>
     </row>
     <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="B283" s="1"/>
     </row>
     <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B284" s="1"/>
     </row>
     <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B285" s="1"/>
     </row>
     <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B286" s="1"/>
     </row>
     <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B287" s="1"/>
     </row>
     <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="B288" s="1"/>
     </row>
     <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B289" s="1"/>
     </row>
     <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B290" s="1"/>
     </row>
     <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="B291" s="1"/>
     </row>
     <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="B292" s="1"/>
     </row>
     <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B293" s="1"/>
     </row>
     <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="B294" s="1"/>
     </row>
     <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="B295" s="1"/>
     </row>
     <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B296" s="1"/>
     </row>
     <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="B297" s="1"/>
     </row>
     <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="B298" s="1"/>
     </row>
     <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="B299" s="1"/>
     </row>
     <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="B300" s="1"/>
     </row>
     <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="B301" s="1"/>
     </row>
     <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="B302" s="1"/>
     </row>
     <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="B303" s="1"/>
     </row>
     <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B304" s="1"/>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B305" s="1"/>
     </row>
     <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B306" s="1"/>
     </row>
     <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B307" s="1"/>
     </row>
     <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B308" s="1"/>
     </row>
     <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B309" s="1"/>
     </row>
     <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="B310" s="1"/>
     </row>
     <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B311" s="1"/>
     </row>
     <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B312" s="1"/>
     </row>
     <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="B313" s="1"/>
     </row>
     <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B314" s="1"/>
     </row>
@@ -3887,145 +3898,145 @@
     </row>
     <row r="318" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B318" s="1"/>
     </row>
     <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="B319" s="1"/>
     </row>
     <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B320" s="1"/>
     </row>
     <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="B321" s="1"/>
     </row>
     <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="B322" s="1"/>
     </row>
     <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="B323" s="1"/>
     </row>
     <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="B324" s="1"/>
     </row>
     <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B325" s="1"/>
     </row>
     <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="B326" s="1"/>
     </row>
     <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="B327" s="1"/>
     </row>
     <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="B328" s="1"/>
     </row>
     <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
       <c r="B329" s="1"/>
     </row>
     <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="B330" s="1"/>
     </row>
     <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B331" s="1"/>
     </row>
     <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B332" s="1"/>
     </row>
     <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="B333" s="1"/>
     </row>
     <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="B334" s="1"/>
     </row>
     <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="B335" s="1"/>
     </row>
     <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="B336" s="1"/>
     </row>
     <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="B337" s="1"/>
     </row>
     <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B338" s="1"/>
     </row>
     <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B339" s="1"/>
     </row>
     <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="B340" s="1"/>
     </row>
     <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="B341" s="1"/>
     </row>
@@ -4043,139 +4054,139 @@
     </row>
     <row r="345" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B345" s="1"/>
     </row>
     <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B346" s="1"/>
     </row>
     <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="B347" s="1"/>
     </row>
     <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B348" s="1"/>
     </row>
     <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B349" s="1"/>
     </row>
     <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B350" s="1"/>
     </row>
     <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B351" s="1"/>
     </row>
     <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B352" s="1"/>
     </row>
     <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B353" s="1"/>
     </row>
     <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B354" s="1"/>
     </row>
     <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B355" s="1"/>
     </row>
     <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="B356" s="1"/>
     </row>
     <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B357" s="1"/>
     </row>
     <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B358" s="1"/>
     </row>
     <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="B359" s="1"/>
     </row>
     <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B360" s="1"/>
     </row>
     <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B361" s="1"/>
     </row>
     <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B362" s="1"/>
     </row>
     <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B363" s="1"/>
     </row>
     <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B364" s="1"/>
     </row>
     <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="B365" s="1"/>
     </row>
     <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="B366" s="1"/>
     </row>
     <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="B367" s="1"/>
     </row>
@@ -4193,49 +4204,49 @@
     </row>
     <row r="371" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B371" s="1"/>
     </row>
     <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="B372" s="1"/>
     </row>
     <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
-        <v>506</v>
+        <v>375</v>
       </c>
       <c r="B373" s="1"/>
     </row>
     <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="B374" s="1"/>
     </row>
     <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="B375" s="1"/>
     </row>
     <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
-        <v>508</v>
+        <v>377</v>
       </c>
       <c r="B376" s="1"/>
     </row>
     <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
-        <v>509</v>
+        <v>378</v>
       </c>
       <c r="B377" s="1"/>
     </row>
     <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="B378" s="1"/>
     </row>
@@ -4253,85 +4264,85 @@
     </row>
     <row r="382" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B382" s="1"/>
     </row>
     <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="B383" s="1"/>
     </row>
     <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="B384" s="1"/>
     </row>
     <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="B385" s="1"/>
     </row>
     <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="B386" s="1"/>
     </row>
     <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="B387" s="1"/>
     </row>
     <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="B388" s="1"/>
     </row>
     <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="B389" s="1"/>
     </row>
     <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B390" s="1"/>
     </row>
     <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="B391" s="1"/>
     </row>
     <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="B392" s="1"/>
     </row>
     <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="B393" s="1"/>
     </row>
     <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="B394" s="1"/>
     </row>
     <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="B395" s="1"/>
     </row>
@@ -4349,103 +4360,103 @@
     </row>
     <row r="399" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B399" s="1"/>
     </row>
     <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B400" s="1"/>
     </row>
     <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B401" s="1"/>
     </row>
     <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B402" s="1"/>
     </row>
     <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="B403" s="1"/>
     </row>
     <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="B404" s="1"/>
     </row>
     <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="B405" s="1"/>
     </row>
     <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="B406" s="1"/>
     </row>
     <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="B407" s="1"/>
     </row>
     <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B408" s="1"/>
     </row>
     <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="8" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="B409" s="1"/>
     </row>
     <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="B410" s="1"/>
     </row>
     <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="8" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B411" s="1"/>
     </row>
     <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="B412" s="1"/>
     </row>
     <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B413" s="1"/>
     </row>
     <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="B414" s="1"/>
     </row>
     <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="B415" s="1"/>
     </row>
@@ -4463,31 +4474,31 @@
     </row>
     <row r="419" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B419" s="1"/>
     </row>
     <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B420" s="1"/>
     </row>
     <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="8" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="B421" s="1"/>
     </row>
     <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B422" s="1"/>
     </row>
     <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="8" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="B423" s="1"/>
     </row>
@@ -4505,169 +4516,169 @@
     </row>
     <row r="427" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B427" s="1"/>
     </row>
     <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="B428" s="1"/>
     </row>
     <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="8" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B429" s="1"/>
     </row>
     <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B430" s="1"/>
     </row>
     <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="8" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="B431" s="1"/>
     </row>
     <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B432" s="1"/>
     </row>
     <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="8" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B433" s="1"/>
     </row>
     <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B434" s="1"/>
     </row>
     <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="8" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="B435" s="1"/>
     </row>
     <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B436" s="1"/>
     </row>
     <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="8" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B437" s="1"/>
     </row>
     <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B438" s="1"/>
     </row>
     <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="8" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B439" s="1"/>
     </row>
     <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B440" s="1"/>
     </row>
     <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B441" s="1"/>
     </row>
     <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B442" s="1"/>
     </row>
     <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="B443" s="1"/>
     </row>
     <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B444" s="1"/>
     </row>
     <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="8" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="B445" s="1"/>
     </row>
     <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B446" s="1"/>
     </row>
     <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="8" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="B447" s="1"/>
     </row>
     <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="B448" s="1"/>
     </row>
     <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="8" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B449" s="1"/>
     </row>
     <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="B450" s="1"/>
     </row>
     <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="8" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="B451" s="1"/>
     </row>
     <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B452" s="1"/>
     </row>
     <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="8" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B453" s="1"/>
     </row>
     <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="B454" s="1"/>
     </row>
@@ -4685,241 +4696,241 @@
     </row>
     <row r="458" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B458" s="1"/>
     </row>
     <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="8" t="s">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="B459" s="1"/>
     </row>
     <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="B460" s="1"/>
     </row>
     <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="8" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="B461" s="1"/>
     </row>
     <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="B462" s="1"/>
     </row>
     <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="8" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B463" s="1"/>
     </row>
     <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B464" s="1"/>
     </row>
     <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="8" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B465" s="1"/>
     </row>
     <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="B466" s="1"/>
     </row>
     <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="B467" s="1"/>
     </row>
     <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="s">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="B468" s="1"/>
     </row>
     <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="B469" s="1"/>
     </row>
     <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="B470" s="1"/>
     </row>
     <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B471" s="1"/>
     </row>
     <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B472" s="1"/>
     </row>
     <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="8" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B473" s="1"/>
     </row>
     <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B474" s="1"/>
     </row>
     <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B475" s="1"/>
     </row>
     <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B476" s="1"/>
     </row>
     <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B477" s="1"/>
     </row>
     <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B478" s="1"/>
     </row>
     <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="8" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B479" s="1"/>
     </row>
     <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B480" s="1"/>
     </row>
     <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="8" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B481" s="1"/>
     </row>
     <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B482" s="1"/>
     </row>
     <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B483" s="1"/>
     </row>
     <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B484" s="1"/>
     </row>
     <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B485" s="1"/>
     </row>
     <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B486" s="1"/>
     </row>
     <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="B487" s="1"/>
     </row>
     <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="s">
-        <v>436</v>
+        <v>86</v>
       </c>
       <c r="B488" s="1"/>
     </row>
     <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="8" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="B489" s="1"/>
     </row>
     <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B490" s="1"/>
     </row>
     <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B491" s="1"/>
     </row>
     <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
-        <v>440</v>
+        <v>87</v>
       </c>
       <c r="B492" s="1"/>
     </row>
     <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B493" s="1"/>
     </row>
     <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B494" s="1"/>
     </row>
     <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B495" s="1"/>
     </row>
     <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B496" s="1"/>
     </row>
     <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
-        <v>445</v>
+        <v>88</v>
       </c>
       <c r="B497" s="1"/>
     </row>
@@ -4937,73 +4948,73 @@
     </row>
     <row r="501" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="11" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B501" s="1"/>
     </row>
     <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="s">
-        <v>446</v>
+        <v>89</v>
       </c>
       <c r="B502" s="1"/>
     </row>
     <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
-        <v>447</v>
+        <v>90</v>
       </c>
       <c r="B503" s="1"/>
     </row>
     <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="s">
-        <v>448</v>
+        <v>91</v>
       </c>
       <c r="B504" s="1"/>
     </row>
     <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B505" s="1"/>
     </row>
     <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B506" s="1"/>
     </row>
     <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B507" s="1"/>
     </row>
     <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B508" s="1"/>
     </row>
     <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B509" s="1"/>
     </row>
     <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>454</v>
+        <v>92</v>
       </c>
       <c r="B510" s="1"/>
     </row>
     <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="8" t="s">
-        <v>455</v>
+        <v>93</v>
       </c>
       <c r="B511" s="1"/>
     </row>
     <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
-        <v>456</v>
+        <v>94</v>
       </c>
       <c r="B512" s="1"/>
     </row>
@@ -5021,91 +5032,91 @@
     </row>
     <row r="516" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B516" s="1"/>
     </row>
     <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B517" s="1"/>
     </row>
     <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B518" s="1"/>
     </row>
     <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B519" s="1"/>
     </row>
     <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B520" s="1"/>
     </row>
     <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="8" t="s">
-        <v>461</v>
+        <v>95</v>
       </c>
       <c r="B521" s="1"/>
     </row>
     <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B522" s="1"/>
     </row>
     <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="8" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B523" s="1"/>
     </row>
     <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B524" s="1"/>
     </row>
     <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B525" s="1"/>
     </row>
     <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B526" s="1"/>
     </row>
     <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B527" s="1"/>
     </row>
     <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B528" s="1"/>
     </row>
     <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="8" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B529" s="1"/>
     </row>
     <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="s">
-        <v>470</v>
+        <v>96</v>
       </c>
       <c r="B530" s="1"/>
     </row>
@@ -5123,127 +5134,127 @@
     </row>
     <row r="534" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B534" s="1"/>
     </row>
     <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
-        <v>471</v>
+        <v>97</v>
       </c>
       <c r="B535" s="1"/>
     </row>
     <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B536" s="1"/>
     </row>
     <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B537" s="1"/>
     </row>
     <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="8" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B538" s="1"/>
     </row>
     <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="8" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B539" s="1"/>
     </row>
     <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="8" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B540" s="1"/>
     </row>
     <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B541" s="1"/>
     </row>
     <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B542" s="1"/>
     </row>
     <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B543" s="1"/>
     </row>
     <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B544" s="1"/>
     </row>
     <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B545" s="1"/>
     </row>
     <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B546" s="1"/>
     </row>
     <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B547" s="1"/>
     </row>
     <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B548" s="1"/>
     </row>
     <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B549" s="1"/>
     </row>
     <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B550" s="1"/>
     </row>
     <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B551" s="1"/>
     </row>
     <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B552" s="1"/>
     </row>
     <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B553" s="1"/>
     </row>
     <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="B554" s="1"/>
     </row>
@@ -5261,91 +5272,91 @@
     </row>
     <row r="558" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B558" s="1"/>
     </row>
     <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B559" s="1"/>
     </row>
     <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B560" s="1"/>
     </row>
     <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B561" s="1"/>
     </row>
     <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B562" s="1"/>
     </row>
     <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B563" s="1"/>
     </row>
     <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B564" s="1"/>
     </row>
     <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B565" s="1"/>
     </row>
     <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B566" s="1"/>
     </row>
     <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B567" s="1"/>
     </row>
     <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B568" s="1"/>
     </row>
     <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B569" s="1"/>
     </row>
     <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B570" s="1"/>
     </row>
     <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B571" s="1"/>
     </row>
     <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B572" s="1"/>
     </row>
@@ -5363,13 +5374,13 @@
     </row>
     <row r="576" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B576" s="1"/>
     </row>
     <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>505</v>
+        <v>99</v>
       </c>
       <c r="B577" s="1"/>
     </row>
@@ -11120,7 +11131,7 @@
       <c r="B2181" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/13.10.2021/12.10.2021_cat_subcat.xlsx
+++ b/src/13.10.2021/12.10.2021_cat_subcat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\13.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A66E38-D4A6-4E56-8E64-69B06AA997BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F7241-1505-4988-A4C1-2AB4A5EAB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="150" windowWidth="13140" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -325,1234 +325,1234 @@
     <t>5. Бумага форматная белая =&gt; 5.1. Бумага форматная белая А4 ***[[ bumaga-formatnaja-belaja-a4 ]] ***</t>
   </si>
   <si>
-    <t>5. Бумага форматная белая =&gt; 5.2. Бумага форматная белая А3 ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.1. Контейнеры для холодного прямоугольные, крышка отдельно ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.2. Контейнеры для яиц ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.3. Контейнеры для холодного прямоугольные с неразъёмной крышкой ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Контейнеры для холодного =&gt; 1.4. Контейнеры для холодного круглые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.1. Контейнеры для горячего прямоугольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.2. Контейнеры для горячего круглые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Контейнеры для горячего =&gt; 2.3. Банки под пресервы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Контейнеры для тортов =&gt; 4.1. Контейнеры для тортов круглые, многоугольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Бутылки, банки пэт =&gt; 5.1. Бутылки с широким горлом 38мм (для молока, соков, масла) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Бутылки, банки пэт =&gt; 5.2. Бутылки с узким горлом 28мм (для газированных напитков, пива, кваса) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Ланч-боксы =&gt; 8.1. Ланч-боксы био из сахарного тростника ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Ланч-боксы =&gt; 8.2. Ланч-боксы впс ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Бумага туалетная =&gt; 3.1. Бумага туалетная бытовая ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Бумага туалетная =&gt; 3.2. Бумага туалетная профессиональная ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.1. Полотенца бумажные листовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.2. Полотенца бумажные в рулонах профессиональные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Полотенца бумажные =&gt; 4.3. Полотенца бумажные в рулонах бытовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.1. Салфетки бумажные с рисунком ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.2. Салфетки бумажные 24-25 ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.3. Салфетки для диспенсеров ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Салфетки бумажные =&gt; 5.4. Салфетки бумажные 33-40 ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.1. Салфетки влажные антибактериальные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.2. Платки носовые бумажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.3. Салфетки влажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.4. Салфетки косметические ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.1. Миски, супницы пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.2. Тарелки пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.3. Тарелки из кукурузного крахмала ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.4. Креманки и крышки к ним ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.5. Тарелки из картона ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.6. Тарелки и миски из целлюлозы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.7. Миски впс, крышки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.8. Миски из сахарного тростника ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Тарелки, миски, креманки =&gt; 1.9. Тарелки из сахарного тростника ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.1. Комплекты одноразовой посуды ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.2. Наборы одноразовой посуды ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.1. Стаканы картонные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.2. Держатели и манжеты для стаканов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.3. Крышки для бумажных стаканов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.4. Стаканы pet ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.5. Бокалы, фужеры, рюмки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.6. Стаканы пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Стаканы и чашки =&gt; 4.7. Чашки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.1. Коробка под картофель фри ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.2. Упаковка из картона ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.3. Универсальные бумажные контейнеры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.4. Коробка и обертка для гамбургера ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.5. Контейнеры для лапши ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.6. Упаковка для кондитерских изделий ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.7. Лотки и подносы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.8. Коробка под ролл ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.9. Упаковка под сэндвич ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.10. Контейнеры круглые бумажные для холодного и горячего ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Одноразовая бумажная упаковка =&gt; 5.11. Коробка на вынос ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Посуда из дерева =&gt; 6.1. Биоразлагаемая упаковка из дерева ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.1. Круглая фольгированная посуда ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.2. Крышки к фольгированной посуде ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Фольгированная посуда =&gt; 7.3. Прямоугольная фольгированная посуда ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.1. Столовые приборы из кукурузного крахмала ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.2. Столовые приборы стандарт, компакт ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.3. Мини-приборы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Столовые приборы =&gt; 8.4. Столовые приборы класса премиум ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.1. Другое ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.2. Аксессуары для химии tana ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Оборудование для профессиональной химии =&gt; 4.3. Дозаторы для мыла и антисептиков ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.1. Бизнес-блокноты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.2. Бизнес-тетради на кольцах ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.3. Бизнес-тетради на сшивке ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.4. Закладки клейкие ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.5. Блоки бумажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.6. Тетради ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.7. Блоки самоклеящиеся ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.8. Блокноты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.9. Подставки для бумажных блоков ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.10. Бизнес-тетради на скрепке ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Бумажная продукция =&gt; 1.11. Бизнес-тетради на спирали ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.1. Пакеты E4 (300x400 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.2. Пакеты полиэтиленовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.3. Конверты нестандартных размеров ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.4. Конверты E65 (110x220 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.5. Конверты C4 (229x324 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.6. Конверты C5 (162x229 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.7. Конверты C6 (114x162 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.8. Конверты C65 (114x229 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.9. Пакеты C4 (229x324 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Конверты и пакеты для писем =&gt; 2.10. Пакеты B4 (250x353 мм) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.1. Увлажнители ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.2. Лотки для бумаг вертикальные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.3. Ножницы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.4. Скобы для степлеров ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.5. Клейкая лента канцелярская ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.6. Калькуляторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.7. Этикетки самоклеящиеся ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.8. Скрепки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.9. Корзины для бумаг ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.10. Клей канцелярский ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.11. Степлеры, антистеплеры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.12. Дыроколы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.13. Линейки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.14. Ножи канцелярские, лезвия ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.15. Наборы офисные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.16. Зажим канцелярский ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.17. Лотки для бумаг горизонтальные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Офисные принадлежности =&gt; 3.18. Кнопки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.1. Ластики ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.2. Ручки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.3. Маркеры, текстовыделители ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.4. Точилки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.5. Корректирующие средства ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пишущие принадлежности =&gt; 4.6. Карандаши, грифели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.1. Папки с файлами ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.2. Папки-конверты на кнопке ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.3. Папки-скоросшиватели пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.4. Папки-скоросшиватели картонные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.5. Папки с прижимным механизмом ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.6. Папки с клипом ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.7. Короба архивные на резинках ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.8. Короба для переездов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.9. Папки-регистраторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.10. Папки подвесные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.11. Папки с пружинным механизмом ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.12. Папки на резинке ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.13. Короба архивные на завязках ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.14. Папки адресные, портфели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.15. Папки на кольцах ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.16. Файлы с перфорацией ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.17. Папки на завязках ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.18. Папки-уголки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.19. Разделители ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.20. Планшеты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Папки из картона и пластика =&gt; 5.21. Папки-конверты на молнии ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.1. Принадлежности и аксессуары ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.2. Записные книжки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.3. Визитницы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.4. Ежедневники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.5. Карты и рамки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Деловые аксессуары =&gt; 6.6. Бейджы, ленты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.1. Краски штемпельные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.2. Штампы самонаборные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.3. Подушки настольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.4. Оснастки для печатей, штампов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.5. Штампы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.6. Нумераторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.7. Печати круглые самонаборные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.8. Подушки сменные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Штемпельная продукция =&gt; 7.9. Датеры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.1. Подставки и накопители демонстрационные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.2. Информационные рамки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.3. Демо-панели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.4. Демосистемы напольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.5. Аксессуары для досок ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.6. Информационные таблички ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.7. Демосистемы настенные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.8. Демосистемы настольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.9. Доски магнитно-маркерные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.10. Доски пробковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Демонстрационное оборудование =&gt; 8.11. Флипчарты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.1. Акварель ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.2. Пластилин ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.3. Карандаши цветные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.4. Картон цветной/белый ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.5. Мел ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.6. Альбомы для рисования ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.7. Бумага для акварели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.8. Циркули, готовальни ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.9. Фломастеры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.10. Товары для школы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.11. Раскраски ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Товары для детей =&gt; 9.12. Товары для детского творчества ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Мыло =&gt; 3.1. Мыло туалетное ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Мыло =&gt; 3.2. Мыло хозяйственное ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Мыло =&gt; 3.3. Мыло жидкое ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 1. Стиральные порошки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 2. Антистатики и крахмалы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 3. Кондиционеры и ополаскиватели для белья ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Средства для стирки и ухода =&gt; 5. 4. Отбеливатели и пятновыводители ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.1. Средства для удаления жира, накипи ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.2. Средства для мытья посуды ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Чистящие и моющие средства для кухни =&gt; 7.3. Средства для пмм ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>10. Уход за телом =&gt; 10.1. Средства для рук ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.1. Средства для унитазов и писуаров ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.2. Средства для ухода за сантехникой ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Средства для санузлов и ванных комнат =&gt; 11.3. Средства для прочистки труб ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.1. Специнвентарь ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.2. Мётлы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.3. Лопаты и черенки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.4. Движки д/снега ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.5. Грабли ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Инвентарь для уборки улиц =&gt; 1.6. Тачки строительные, садовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Уборочная техника =&gt; 2.1. Профессиональные пылесосы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.1. Вёдра на колесах, вёдра с отжимом ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.2. Комплекты (совок + щётка) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.3. Совки для мусора ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.4. Швабры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.5. Щётки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.6. Информационные таблички напольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.7. Сгоны для пола ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.8. Веники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.9. Держатели мопов (флаундеры) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.10. Комплекты для уборки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.11. Мопы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.12. Тележки уборочные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.13. Вёдра ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.14. Пады и размывочные круги, держатели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Инвентарь для уборки пола =&gt; 5.15. Рукоятки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.1. Баки для мусора ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.2. Урны ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.3. Контейнеры для мусора ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.4. Контейнеры и урны для раздельного сбора отходов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.1. Вёдра для мытья окон ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.2. Комплекты для мытья окон ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.3. Шубки и держатели для мытья окон ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.4. Сгоны, склизы для стёкол ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.5. Скребки, лезвия ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.6. Распылители ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Инвентарь для мытья стёкол =&gt; 7.7. Телескопические рукоятки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.1. Салфетки из микрофибры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.2. Салфетки для стеклянных поверхностей ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.3. Салфетки прорезиненные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>8. Салфетки хозяйственные =&gt; 8.4. Салфетки вискозные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.1. Входные грязезащитные влаговпитывающие коврики ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.2. Дезинфекционные коврики ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.3. Резиновые и диэлектрические коврики ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Входные ковры и коврики =&gt; 9.4. Противоскользящие ленты, коврики для ванной комнаты и туалета ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.1. Ткани ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.2. Тряпки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.3. Протирочный материал ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Хозяйственные ткани, полотенца =&gt; 11.4. Полотенца ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.1. Зеркала ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.2. Тазы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.3. Ерши для туалета ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.4. Вантузы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.1. Ерши для бутылок ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.2. Губки для мытья посуды ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.3. Щётки для посуды, скребки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.1. Свечи конические ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.2. Свечи столовые и хозяйственные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.3. Свечи для торта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.4. Свечи столбик ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.5. Свечи плавающие ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Свечи и подсвечники =&gt; 2.6. Свечи в стеклянном подсвечнике и прочее ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.1. Палочки для мороженого ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.2. Размешиватели деревянные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Размешиватели и палочки для мороженого =&gt; 3.3. Размешиватели пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.1. Скатерти нетканые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.2. Скатерти бумажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.1. Трубочки без изгиба ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.2. Трубочки гофрированные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Трубочки для напитков =&gt; 7.3. Бумажные трубочки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Салфетки для сервировки и папильотки =&gt; 9.1. Салфетки под чашку ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>9. Салфетки для сервировки и папильотки =&gt; 9.2. Салфетки для торта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Фольга =&gt; 1.1. Профессиональная (без инд. упаковки) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Фольга =&gt; 1.2. Бытовая ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.1. Ёмкости для хранения продуктов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.2. Пакеты для заморозки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.3. Бумага для выпечки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.4. Ёмкости для соуса ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.5. Рукав для запекания ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.6. Пергамент силиконизированный ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.1. Тарталетки бумажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.2. Формы для выпечки бумажные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.3. Лента бордюрная для торта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.4. Мешки кондитерские ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Кондитерские принадлежности =&gt; 3.5. Баллончики для сифона ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.1. Стаканы мерные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.2. Ножи кухонные поварские, молотки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Кухонный инвентарь =&gt; 4.3. Разделочные доски ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.1. Жидкость для розжига ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.2. Зажигалки, газ ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.3. Дрова ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.4. Уголь ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.5. Гели для подогрева ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Уголь, дрова, средства для розжига =&gt; 5.6. Сухое горючее ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая) ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.2. Пакеты бумажные с ручками ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.3. Пакеты бумажные под выпечку, уголки с плоским дном ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Пакеты бумажные =&gt; 1.4. Пакеты бумажные на вынос с прямоугольным дном ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.1. Пакеты типа майка ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.2. Пакеты типа "zip lock" ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.3. Пакеты вакуумные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.4. Пакеты мусорные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Пакеты полиэтиленовые =&gt; 2.5. Фасовочные пакеты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пакеты полипропиленовые =&gt; 4.1. Пакеты пп ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Пакеты полипропиленовые =&gt; 4.2. Пакеты пп с прямоугольным дном ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Пакеты с вырубными и петлевыми ручками =&gt; 5.1. Пакеты цветные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.1. Коробки для торта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.2. Подложка под пиццу, пирог ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.3. Гофрокороба ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Короба и коробки =&gt; 1.4. Коробки для пиццы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Упаковка из фбв =&gt; 2.1. Лотки и подложки фбв ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Сетки =&gt; 5.1. Сетка-рукав ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Сетки =&gt; 5.2. Сетка на бутылку ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.1. Диспенсеры для скотча ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.2. Клейкие ленты типа "скотч" ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.3. Малярная лента optiroll ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.4. Специальные ленты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Шпагаты и нити =&gt; 7.1. Шпагаты натуральные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Шпагаты и нити =&gt; 7.2. Шпагаты пп ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.1. Чехлы и щётки для одежды ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.2. Средства по уходу за обувью ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Индивидуальные принадлежности =&gt; 1.3. Галантерея ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Гостиничная парфюмерия и косметика =&gt; 2.1. Серия "hotel" ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Спецобувь =&gt; 2.1. Сабо ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Средства индивидуальной защиты =&gt; 3.1. Очки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Средства индивидуальной защиты =&gt; 3.2. Респираторы и маски ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.1. Халаты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.2. Костюмы рабочие ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.3. Фартуки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.4. Комбинезоны/полукомбенизоны/жилеты/куртки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Спецодежда =&gt; 4.5. Плащи ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.1. Перчатки латексные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.2. Перчатки тпэ ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.3. Рукавицы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.4. Перчатки виниловые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.5. Перчатки резиновые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.6. Перчатки х/б ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.7. Перчатки нитриловые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.8. Перчатки специального назначения ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Перчатки =&gt; 5.9. Перчатки полиэтиленовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.1. Халаты одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.2. Нарукавники одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.3. Комбинезоны, костюмы одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.4. Носки одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.5. Фартуки одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.6. Набородники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.7. Бахилы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.8. Головные уборы одноразовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Маркировочная продукция =&gt; 5.1. Этикет-ленты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Маркировочная продукция =&gt; 5.2. Этикет-пистолеты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Маркировочная продукция =&gt; 5.3. Игловые пистолеты и расходные материалы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Замки =&gt; 11.1. Почтовые замки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>11. Замки =&gt; 11.2. Навесные замки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.1. Сургуч, пластилин для опечатывания ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.2. Пломбы наклейки  ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.3. Пломбы свинцовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.4. Пломбы пластиковые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.5. Проволока для опломбирования ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>12. Товары для опломбирования =&gt; 12.6. Пломбы тросовые ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.1. Ленты бандерольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.2. Кольца бандерольные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>13. Упаковка денег =&gt; 13.3. Накладки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.1. Журналы по охране труда и пожарной безопасности ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.2. Законы, правила, кодексы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.3. Журналы и бланки для организаци пищевого производства, предприятий общественного питания ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.4. Журналы и бланки по делопроизводству, кадровой работе и бухгалтерскому учёту ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>15. Кассовые ленты =&gt; 15.1. Кассовая лента термо ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>14. Журналы и бланки =&gt; 14.5. Журналы и бланки для предприятий оптовой и розничной торговли ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.1. Детекторы валют и ценных бумаг ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.2. Счётчики банкнот ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>17. Cчётчики и детекторы валют =&gt; 17.3. Лампы для детекторов ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>19. Термолента для электронных весов и термопринтеров =&gt; 19.1. Термоэтикетка ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.1. Меловые таблички ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.2. Дели-системы и тейбл тенты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>20. Ценники и ценникодержатели =&gt; 20.3. Ценникодержатели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.1. Диспенсеры для мыла ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.2. Диспенсеры для  гиг.покрытий, протир.бумаги ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.3. Диспенсеры для полотенец ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.4. Диспенсеры для туалетной бумаги ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Диспенсеры =&gt; 4.5. Диспенсеры для салфеток ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.1. Вафли, пряники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.2. Конфеты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.3. Печенье ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Кондитерские изделия =&gt; 1.4. Рулеты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Чай =&gt; 3.1. Чай чёрный в пакетиках ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Чай =&gt; 3.2. Чай зелёный в пакетиках ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Чай =&gt; 3.3. Чай травяной, фруктовый ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Кофе =&gt; 4.1. Кофе в зёрнах ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Кофе =&gt; 4.2. Кофе растворимый ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.1. Вода ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.2. Напитки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Безалкогольные напитки =&gt; 5.3. Соки, нектары, морсы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Носители информации =&gt; 2.1. Флеш-память usb ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Носители информации =&gt; 2.2. Внешние жёсткие диски ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.1. Телефоны DECT ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.2. Факсимильные аппараты ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Телефоны и факсы =&gt; 3.3. Телефоны проводные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.1. МФУ лазерные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.2. Принтеры струйные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.3. МФУ струйные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Принтеры и МФУ =&gt; 4.4. Принтеры лазерные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Картриджи для печатающей техники =&gt; 5.1. Картриджи для принтеров оригинальные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.1. Обложки для переплёта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.2. Брошюровщики ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.3. Ламинаторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.4. Резаки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.5. Расходные материалы для офисной техники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.6. Пружины для переплёта ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Компьютерная периферия =&gt; 7.1. Клавиатуры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>7. Компьютерная периферия =&gt; 7.2. Мыши компьютерные ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.1. Конвекторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.2. Обогреватели ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.3. Метеооборудование, термометры, гигрометры ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>1. Климатическая техника =&gt; 1.4. Вентиляторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.1. Батарейки ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.2. Аккумуляторы ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>2. Элементы питания =&gt; 2.3. Зарядные устройства ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.1. Микроволновые печи ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.2. Кофе-машины ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>3. Техника для кухни =&gt; 3.3. Чайники электрические ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>4. Крупная бытовая техника =&gt; 4.1. Холодильники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>5. Электротовары =&gt; 5.1. Светильники ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Мелкая бытовая техника =&gt; 6.1. Утюги ***[[  ]]***</t>
-  </si>
-  <si>
-    <t>6. Мелкая бытовая техника =&gt; 6.2. Пылесосы ***[[  ]]***</t>
+    <t>5. Бумага форматная белая =&gt; 5.2. Бумага форматная белая А3 ***[[ bumaga-formatnaja-belaja-a3 ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.1. Контейнеры для холодного прямоугольные, крышка отдельно ***[[ kontejneri-dlja-holodnogo-prjamougolnie--krishka-otdelno ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.2. Контейнеры для яиц ***[[ kontejneri-dlja-jaic ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.3. Контейнеры для холодного прямоугольные с неразъёмной крышкой ***[[ kontejneri-dlja-holodnogo-prjamougolnie-s-nerazjomnoj-krishkoj ]]***</t>
+  </si>
+  <si>
+    <t>1. Контейнеры для холодного =&gt; 1.4. Контейнеры для холодного круглые ***[[ kontejneri-dlja-holodnogo-kruglie ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.1. Контейнеры для горячего прямоугольные ***[[ kontejneri-dlja-gorjachego-prjamougolnie ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.2. Контейнеры для горячего круглые ***[[ kontejneri-dlja-gorjachego-kruglie ]]***</t>
+  </si>
+  <si>
+    <t>2. Контейнеры для горячего =&gt; 2.3. Банки под пресервы ***[[ banki-pod-preservi ]]***</t>
+  </si>
+  <si>
+    <t>4. Контейнеры для тортов =&gt; 4.1. Контейнеры для тортов круглые, многоугольные ***[[ kontejneri-dlja-tortov-kruglie--mnogougolnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Бутылки, банки пэт =&gt; 5.1. Бутылки с широким горлом 38мм (для молока, соков, масла) ***[[ butilki-s-shirokim-gorlom-38mm--dlja-moloka--sokov--masla- ]]***</t>
+  </si>
+  <si>
+    <t>5. Бутылки, банки пэт =&gt; 5.2. Бутылки с узким горлом 28мм (для газированных напитков, пива, кваса) ***[[ butilki-s-uzkim-gorlom-28mm--dlja-gazirovannih-napitkov--piva--kvasa- ]]***</t>
+  </si>
+  <si>
+    <t>8. Ланч-боксы =&gt; 8.1. Ланч-боксы био из сахарного тростника ***[[ lanch-boksi-bio-iz-saharnogo-trostnika ]]***</t>
+  </si>
+  <si>
+    <t>8. Ланч-боксы =&gt; 8.2. Ланч-боксы впс ***[[ lanch-boksi-vps ]]***</t>
+  </si>
+  <si>
+    <t>3. Бумага туалетная =&gt; 3.1. Бумага туалетная бытовая ***[[ bumaga-tualetnaja-bitovaja ]]***</t>
+  </si>
+  <si>
+    <t>3. Бумага туалетная =&gt; 3.2. Бумага туалетная профессиональная ***[[ bumaga-tualetnaja-professionalnaja ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.1. Полотенца бумажные листовые ***[[ polotenca-bumazhnie-listovie ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.2. Полотенца бумажные в рулонах профессиональные ***[[ polotenca-bumazhnie-v-rulonah-professionalnie ]]***</t>
+  </si>
+  <si>
+    <t>4. Полотенца бумажные =&gt; 4.3. Полотенца бумажные в рулонах бытовые ***[[ polotenca-bumazhnie-v-rulonah-bitovie ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.1. Салфетки бумажные с рисунком ***[[ salfetki-bumazhnie-s-risunkom ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.2. Салфетки бумажные 24-25 ***[[ salfetki-bumazhnie-24-25 ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.3. Салфетки для диспенсеров ***[[ salfetki-dlja-dispenserov ]]***</t>
+  </si>
+  <si>
+    <t>5. Салфетки бумажные =&gt; 5.4. Салфетки бумажные 33-40 ***[[ salfetki-bumazhnie-33-40 ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.1. Салфетки влажные антибактериальные ***[[ salfetki-vlazhnie-antibakterialnie ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.2. Платки носовые бумажные ***[[ platki-nosovie-bumazhnie ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.3. Салфетки влажные ***[[ salfetki-vlazhnie ]]***</t>
+  </si>
+  <si>
+    <t>6. Салфетки влажные, косметические, носовые платки =&gt; 6.4. Салфетки косметические ***[[ salfetki-kosmeticheskie ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.1. Миски, супницы пластиковые ***[[ miski--supnici-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.2. Тарелки пластиковые ***[[ tarelki-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.3. Тарелки из кукурузного крахмала ***[[ tarelki-iz-kukuruznogo-krahmala ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.4. Креманки и крышки к ним ***[[ kremanki-i-krishki-k-nim ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.5. Тарелки из картона ***[[ tarelki-iz-kartona ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.6. Тарелки и миски из целлюлозы ***[[ tarelki-i-miski-iz-celljulozi ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.7. Миски впс, крышки ***[[ miski-vps--krishki ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.8. Миски из сахарного тростника ***[[ miski-iz-saharnogo-trostnika ]]***</t>
+  </si>
+  <si>
+    <t>1. Тарелки, миски, креманки =&gt; 1.9. Тарелки из сахарного тростника ***[[ tarelki-iz-saharnogo-trostnika ]]***</t>
+  </si>
+  <si>
+    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.1. Комплекты одноразовой посуды ***[[ komplekti-odnorazovoj-posudi ]]***</t>
+  </si>
+  <si>
+    <t>3. Наборы и комплекты одноразовой посуды =&gt; 3.2. Наборы одноразовой посуды ***[[ nabori-odnorazovoj-posudi ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.1. Стаканы картонные ***[[ stakani-kartonnie ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.2. Держатели и манжеты для стаканов ***[[ derzhateli-i-manzheti-dlja-stakanov ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.3. Крышки для бумажных стаканов ***[[ krishki-dlja-bumazhnih-stakanov ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.4. Стаканы pet ***[[ stakani-pet ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.5. Бокалы, фужеры, рюмки ***[[ bokali--fuzheri--rjumki ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.6. Стаканы пластиковые ***[[ stakani-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>4. Стаканы и чашки =&gt; 4.7. Чашки ***[[ chashki ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.1. Коробка под картофель фри ***[[ korobka-pod-kartofel-fri ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.2. Упаковка из картона ***[[ upakovka-iz-kartona ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.3. Универсальные бумажные контейнеры ***[[ universalnie-bumazhnie-kontejneri ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.4. Коробка и обёртка для гамбургера ***[[ korobka-i-objortka-dlja-gamburgera ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.5. Контейнеры для лапши ***[[ kontejneri-dlja-lapshi ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.6. Упаковка для кондитерских изделий ***[[ upakovka-dlja-konditerskih-izdelij ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.7. Лотки и подносы ***[[ lotki-i-podnosi ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.8. Коробка под ролл ***[[ korobka-pod-roll ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.9. Упаковка под сэндвич ***[[ upakovka-pod-sjendvich ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.10. Контейнеры круглые бумажные для холодного и горячего ***[[ kontejneri-kruglie-bumazhnie-dlja-holodnogo-i-gorjachego ]]***</t>
+  </si>
+  <si>
+    <t>5. Одноразовая бумажная упаковка =&gt; 5.11. Коробка на вынос ***[[ korobka-na-vinos ]]***</t>
+  </si>
+  <si>
+    <t>6. Посуда из дерева =&gt; 6.1. Биоразлагаемая упаковка из дерева ***[[ biorazlagaemaja-upakovka-iz-dereva ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.1. Круглая фольгированная посуда ***[[ kruglaja-folgirovannaja-posuda ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.2. Крышки к фольгированной посуде ***[[ krishki-k-folgirovannoj-posude ]]***</t>
+  </si>
+  <si>
+    <t>7. Фольгированная посуда =&gt; 7.3. Прямоугольная фольгированная посуда ***[[ prjamougolnaja-folgirovannaja-posuda ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.1. Столовые приборы из кукурузного крахмала ***[[ stolovie-pribori-iz-kukuruznogo-krahmala ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.2. Столовые приборы стандарт, компакт ***[[ stolovie-pribori-standart--kompakt ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.3. Мини-приборы ***[[ mini-pribori ]]***</t>
+  </si>
+  <si>
+    <t>8. Столовые приборы =&gt; 8.4. Столовые приборы класса премиум ***[[ stolovie-pribori-klassa-premium ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.1. Другое ***[[ drugoe ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.2. Аксессуары для химии tana ***[[ aksessuari-dlja-himii-tana ]]***</t>
+  </si>
+  <si>
+    <t>4. Оборудование для профессиональной химии =&gt; 4.3. Дозаторы для мыла и антисептиков ***[[ dozatori-dlja-mila-i-antiseptikov ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.1. Бизнес-блокноты ***[[ biznes-bloknoti ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.2. Бизнес-тетради на кольцах ***[[ biznes-tetradi-na-kolcah ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.3. Бизнес-тетради на сшивке ***[[ biznes-tetradi-na-sshivke ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.4. Закладки клейкие ***[[ zakladki-klejkie ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.5. Блоки бумажные ***[[ bloki-bumazhnie ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.6. Тетради ***[[ tetradi ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.7. Блоки самоклеящиеся ***[[ bloki-samoklejashhiesja ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.8. Блокноты ***[[ bloknoti ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.9. Подставки для бумажных блоков ***[[ podstavki-dlja-bumazhnih-blokov ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.10. Бизнес-тетради на скрепке ***[[ biznes-tetradi-na-skrepke ]]***</t>
+  </si>
+  <si>
+    <t>1. Бумажная продукция =&gt; 1.11. Бизнес-тетради на спирали ***[[ biznes-tetradi-na-spirali ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.1. Пакеты E4 (300x400 мм) ***[[ paketi-e4--300x400-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.2. Пакеты полиэтиленовые ***[[ paketi-polijetilenovie ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.3. Конверты нестандартных размеров ***[[ konverti-nestandartnih-razmerov ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.4. Конверты E65 (110x220 мм) ***[[ konverti-e65--110x220-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.5. Конверты C4 (229x324 мм) ***[[ konverti-c4--229x324-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.6. Конверты C5 (162x229 мм) ***[[ konverti-c5--162x229-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.7. Конверты C6 (114x162 мм) ***[[ konverti-c6--114x162-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.8. Конверты C65 (114x229 мм) ***[[ konverti-c65--114x229-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.9. Пакеты C4 (229x324 мм) ***[[ paketi-c4--229x324-mm- ]]***</t>
+  </si>
+  <si>
+    <t>2. Конверты и пакеты для писем =&gt; 2.10. Пакеты B4 (250x353 мм) ***[[ paketi-b4--250x353-mm- ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.1. Увлажнители ***[[ uvlazhniteli ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.2. Лотки для бумаг вертикальные ***[[ lotki-dlja-bumag-vertikalnie ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.3. Ножницы ***[[ nozhnici ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.4. Скобы для степлеров ***[[ skobi-dlja-steplerov ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.5. Клейкая лента канцелярская ***[[ klejkaja-lenta-kanceljarskaja ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.6. Калькуляторы ***[[ kalkuljatori ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.7. Этикетки самоклеящиеся ***[[ jetiketki-samoklejashhiesja ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.8. Скрепки ***[[ skrepki ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.9. Корзины для бумаг ***[[ korzini-dlja-bumag ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.10. Клей канцелярский ***[[ klej-kanceljarskij ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.11. Степлеры, антистеплеры ***[[ stepleri--antistepleri ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.12. Дыроколы ***[[ dirokoli ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.13. Линейки ***[[ linejki ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.14. Ножи канцелярские, лезвия ***[[ nozhi-kanceljarskie--lezvija ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.15. Наборы офисные ***[[ nabori-ofisnie ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.16. Зажим канцелярский ***[[ zazhim-kanceljarskij ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.17. Лотки для бумаг горизонтальные ***[[ lotki-dlja-bumag-gorizontalnie ]]***</t>
+  </si>
+  <si>
+    <t>3. Офисные принадлежности =&gt; 3.18. Кнопки ***[[ knopki ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.1. Ластики ***[[ lastiki ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.2. Ручки ***[[ ruchki ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.3. Маркеры, текстовыделители ***[[ markeri--tekstovideliteli ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.4. Точилки ***[[ tochilki ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.5. Корректирующие средства ***[[ korrektirujushhie-sredstva ]]***</t>
+  </si>
+  <si>
+    <t>4. Пишущие принадлежности =&gt; 4.6. Карандаши, грифели ***[[ karandashi--grifeli ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.1. Папки с файлами ***[[ papki-s-fajlami ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.2. Папки-конверты на кнопке ***[[ papki-konverti-na-knopke ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.3. Папки-скоросшиватели пластиковые ***[[ papki-skorosshivateli-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.4. Папки-скоросшиватели картонные ***[[ papki-skorosshivateli-kartonnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.5. Папки с прижимным механизмом ***[[ papki-s-prizhimnim-mehanizmom ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.6. Папки с клипом ***[[ papki-s-klipom ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.7. Короба архивные на резинках ***[[ koroba-arhivnie-na-rezinkah ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.8. Короба для переездов ***[[ koroba-dlja-pereezdov ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.9. Папки-регистраторы ***[[ papki-registratori ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.10. Папки подвесные ***[[ papki-podvesnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.11. Папки с пружинным механизмом ***[[ papki-s-pruzhinnim-mehanizmom ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.12. Папки на резинке ***[[ papki-na-rezinke ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.13. Короба архивные на завязках ***[[ koroba-arhivnie-na-zavjazkah ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.14. Папки адресные, портфели ***[[ papki-adresnie--portfeli ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.15. Папки на кольцах ***[[ papki-na-kolcah ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.16. Файлы с перфорацией ***[[ fajli-s-perforaciej ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.17. Папки на завязках ***[[ papki-na-zavjazkah ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.18. Папки-уголки ***[[ papki-ugolki ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.19. Разделители ***[[ razdeliteli ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.20. Планшеты ***[[ plansheti ]]***</t>
+  </si>
+  <si>
+    <t>5. Папки из картона и пластика =&gt; 5.21. Папки-конверты на молнии ***[[ papki-konverti-na-molnii ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.1. Принадлежности и аксессуары ***[[ prinadlezhnosti-i-aksessuari ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.2. Записные книжки ***[[ zapisnie-knizhki ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.3. Визитницы ***[[ vizitnici ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.4. Ежедневники ***[[ ezhednevniki ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.5. Карты и рамки ***[[ karti-i-ramki ]]***</t>
+  </si>
+  <si>
+    <t>6. Деловые аксессуары =&gt; 6.6. Бейджы, ленты ***[[ bejdzhi--lenti ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.1. Краски штемпельные ***[[ kraski-shtempelnie ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.2. Штампы самонаборные ***[[ shtampi-samonabornie ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.3. Подушки настольные ***[[ podushki-nastolnie ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.4. Оснастки для печатей, штампов ***[[ osnastki-dlja-pechatej--shtampov ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.5. Штампы ***[[ shtampi ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.6. Нумераторы ***[[ numeratori ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.7. Печати круглые самонаборные ***[[ pechati-kruglie-samonabornie ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.8. Подушки сменные ***[[ podushki-smennie ]]***</t>
+  </si>
+  <si>
+    <t>7. Штемпельная продукция =&gt; 7.9. Датеры ***[[ dateri ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.1. Подставки и накопители демонстрационные ***[[ podstavki-i-nakopiteli-demonstracionnie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.2. Информационные рамки ***[[ informacionnie-ramki ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.3. Демо-панели ***[[ demo-paneli ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.4. Демосистемы напольные ***[[ demosistemi-napolnie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.5. Аксессуары для досок ***[[ aksessuari-dlja-dosok ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.6. Информационные таблички ***[[ informacionnie-tablichki ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.7. Демосистемы настенные ***[[ demosistemi-nastennie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.8. Демосистемы настольные ***[[ demosistemi-nastolnie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.9. Доски магнитно-маркерные ***[[ doski-magnitno-markernie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.10. Доски пробковые ***[[ doski-probkovie ]]***</t>
+  </si>
+  <si>
+    <t>8. Демонстрационное оборудование =&gt; 8.11. Флипчарты ***[[ flipcharti ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.1. Акварель ***[[ akvarel ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.2. Пластилин ***[[ plastilin ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.3. Карандаши цветные ***[[ karandashi-cvetnie ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.4. Картон цветной/белый ***[[ karton-cvetnoj-belij ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.5. Мел ***[[ mel ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.6. Альбомы для рисования ***[[ albomi-dlja-risovanija ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.7. Бумага для акварели ***[[ bumaga-dlja-akvareli ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.8. Циркули, готовальни ***[[ cirkuli--gotovalni ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.9. Фломастеры ***[[ flomasteri ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.10. Товары для школы ***[[ tovari-dlja-shkoli ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.11. Раскраски ***[[ raskraski ]]***</t>
+  </si>
+  <si>
+    <t>9. Товары для детей =&gt; 9.12. Товары для детского творчества ***[[ tovari-dlja-detskogo-tvorchestva ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.1. Мыло туалетное ***[[ milo-tualetnoe ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.2. Мыло хозяйственное ***[[ milo-hozjajstvennoe ]]***</t>
+  </si>
+  <si>
+    <t>3. Мыло =&gt; 3.3. Мыло жидкое ***[[ milo-zhidkoe ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 1. Стиральные порошки ***[[ stiralnie-poroshki ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 2. Антистатики и крахмалы ***[[ antistatiki-i-krahmali ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 3. Кондиционеры и ополаскиватели для белья ***[[ kondicioneri-i-opolaskivateli-dlja-belja ]]***</t>
+  </si>
+  <si>
+    <t>5. Средства для стирки и ухода =&gt; 5. 4. Отбеливатели и пятновыводители ***[[ otbelivateli-i-pjatnovivoditeli ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.1. Средства для удаления жира, накипи ***[[ sredstva-dlja-udalenija-zhira--nakipi ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.2. Средства для мытья посуды ***[[ sredstva-dlja-mitja-posudi ]]***</t>
+  </si>
+  <si>
+    <t>7. Чистящие и моющие средства для кухни =&gt; 7.3. Средства для пмм ***[[ sredstva-dlja-pmm ]]***</t>
+  </si>
+  <si>
+    <t>10. Уход за телом =&gt; 10.1. Средства для рук ***[[ sredstva-dlja-ruk ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.1. Средства для унитазов и писуаров ***[[ sredstva-dlja-unitazov-i-pisuarov ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.2. Средства для ухода за сантехникой ***[[ sredstva-dlja-uhoda-za-santehnikoj ]]***</t>
+  </si>
+  <si>
+    <t>11. Средства для санузлов и ванных комнат =&gt; 11.3. Средства для прочистки труб ***[[ sredstva-dlja-prochistki-trub ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.1. Специнвентарь ***[[ specinventar ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.2. Мётлы ***[[ mjotli ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.3. Лопаты и черенки ***[[ lopati-i-cherenki ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.4. Движки д/снега ***[[ dvizhki-d-snega ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.5. Грабли ***[[ grabli ]]***</t>
+  </si>
+  <si>
+    <t>1. Инвентарь для уборки улиц =&gt; 1.6. Тачки строительные, садовые ***[[ tachki-stroitelnie--sadovie ]]***</t>
+  </si>
+  <si>
+    <t>2. Уборочная техника =&gt; 2.1. Профессиональные пылесосы ***[[ professionalnie-pilesosi ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.1. Вёдра на колесах, вёдра с отжимом ***[[ vjodra-na-kolesah--vjodra-s-otzhimom ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.2. Комплекты (совок + щётка) ***[[ komplekti--sovok---shhjotka- ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.3. Совки для мусора ***[[ sovki-dlja-musora ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.4. Швабры ***[[ shvabri ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.5. Щётки ***[[ shhjotki ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.6. Информационные таблички напольные ***[[ informacionnie-tablichki-napolnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.7. Сгоны для пола ***[[ sgoni-dlja-pola ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.8. Веники ***[[ veniki ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.9. Держатели мопов (флаундеры) ***[[ derzhateli-mopov ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.10. Комплекты для уборки ***[[ komplekti-dlja-uborki ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.11. Мопы ***[[ mopi ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.12. Тележки уборочные ***[[ telezhki-uborochnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.13. Вёдра ***[[ vjodra ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.14. Пады и размывочные круги, держатели ***[[ padi-i-razmivochnie-krugi--derzhateli ]]***</t>
+  </si>
+  <si>
+    <t>5. Инвентарь для уборки пола =&gt; 5.15. Рукоятки ***[[ rukojatki ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.1. Баки для мусора ***[[ baki-dlja-musora ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.2. Урны ***[[ urni ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.3. Контейнеры для мусора ***[[ kontejneri-dlja-musora ]]***</t>
+  </si>
+  <si>
+    <t>6. Баки для мусора, контейнеры, урны =&gt; 6.4. Контейнеры и урны для раздельного сбора отходов ***[[ kontejneri-i-urni-dlja-razdelnogo-sbora-othodov ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.1. Вёдра для мытья окон ***[[ vjodra-dlja-mitja-okon ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.2. Комплекты для мытья окон ***[[ komplekti-dlja-mitja-okon ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.3. Шубки и держатели для мытья окон ***[[ shubki-i-derzhateli-dlja-mitja-okon ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.4. Сгоны, склизы для стёкол ***[[ sgoni--sklizi-dlja-stjokol ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.5. Скребки, лезвия ***[[ skrebki--lezvija ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.6. Распылители ***[[ raspiliteli ]]***</t>
+  </si>
+  <si>
+    <t>7. Инвентарь для мытья стёкол =&gt; 7.7. Телескопические рукоятки ***[[ teleskopicheskie-rukojatki ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.1. Салфетки из микрофибры ***[[ salfetki-iz-mikrofibri ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.2. Салфетки для стеклянных поверхностей ***[[ salfetki-dlja-stekljannih-poverhnostej ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.3. Салфетки прорезиненные ***[[ salfetki-prorezinennie ]]***</t>
+  </si>
+  <si>
+    <t>8. Салфетки хозяйственные =&gt; 8.4. Салфетки вискозные ***[[ salfetki-viskoznie ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.1. Входные грязезащитные влаговпитывающие коврики ***[[ vhodnie-grjazezashhitnie-vlagovpitivajushhie-kovriki ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.2. Дезинфекционные коврики ***[[ dezinfekcionnie-kovriki ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.3. Резиновые и диэлектрические коврики ***[[ rezinovie-i-dijelektricheskie-kovriki ]]***</t>
+  </si>
+  <si>
+    <t>9. Входные ковры и коврики =&gt; 9.4. Противоскользящие ленты, коврики для ванной комнаты и туалета ***[[ protivoskolzjashhie-lenti--kovriki-dlja-vannoj-komnati-i-tualeta ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.1. Ткани ***[[ -tkani ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.2. Тряпки ***[[ trjapki ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.3. Протирочный материал ***[[ protirochnij-material ]]***</t>
+  </si>
+  <si>
+    <t>11. Хозяйственные ткани, полотенца =&gt; 11.4. Полотенца ***[[ polotenca ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.1. Зеркала ***[[ zerkala ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.2. Тазы ***[[ tazi ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.3. Ерши для туалета ***[[ ershi-dlja-tualeta ]]***</t>
+  </si>
+  <si>
+    <t>12. Инвентарь для туалетных и ванных комнат =&gt; 12.4. Вантузы ***[[ vantuzi ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.1. Ерши для бутылок ***[[ ershi-dlja-butilok ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.2. Губки для мытья посуды ***[[ gubki-dlja-mitja-posudi ]]***</t>
+  </si>
+  <si>
+    <t>13. Инвентарь для уборки и мойки посуды =&gt; 13.3. Щётки для посуды, скребки ***[[ shhjotki-dlja-posudi--skrebki ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.1. Свечи конические ***[[ svechi-konicheskie ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.2. Свечи столовые и хозяйственные ***[[ svechi-stolovie-i-hozjajstvennie ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.3. Свечи для торта ***[[ svechi-dlja-torta ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.4. Свечи столбик ***[[ svechi-stolbik ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.5. Свечи плавающие ***[[ svechi-plavajushhie ]]***</t>
+  </si>
+  <si>
+    <t>2. Свечи и подсвечники =&gt; 2.6. Свечи в стеклянном подсвечнике и прочее ***[[ svechi-v-stekljannom-podsvechnike-i-prochee ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.1. Палочки для мороженого ***[[ palochki-dlja-morozhenogo ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.2. Размешиватели деревянные ***[[ razmeshivateli-derevjannie ]]***</t>
+  </si>
+  <si>
+    <t>3. Размешиватели и палочки для мороженого =&gt; 3.3. Размешиватели пластиковые ***[[ razmeshivateli-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.1. Скатерти нетканые ***[[ skaterti-netkanie ]]***</t>
+  </si>
+  <si>
+    <t>6. Скатерти, подтарельники и нагрудники =&gt; 6.2. Скатерти бумажные ***[[ skaterti-bumazhnie ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.1. Трубочки без изгиба ***[[ trubochki-bez-izgiba ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.2. Трубочки гофрированные ***[[ trubochki-gofrirovannie ]]***</t>
+  </si>
+  <si>
+    <t>7. Трубочки для напитков =&gt; 7.3. Бумажные трубочки ***[[ bumazhnie-trubochki ]]***</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.1. Салфетки под чашку ***[[ salfetki-pod-chashku ]]***</t>
+  </si>
+  <si>
+    <t>9. Салфетки для сервировки и папильотки =&gt; 9.2. Салфетки для торта ***[[ salfetki-dlja-torta ]]***</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.1. Профессиональная (без инд. упаковки) ***[[ professionalnaja--bez-ind--upakovki- ]]***</t>
+  </si>
+  <si>
+    <t>1. Фольга =&gt; 1.2. Бытовая ***[[ bitovaja ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.1. Ёмкости для хранения продуктов ***[[ jomkosti-dlja-hranenija-produktov ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.2. Пакеты для заморозки ***[[ paketi-dlja-zamorozki ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.3. Бумага для выпечки ***[[ bumaga-dlja-vipechki ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.4. Ёмкости для соуса ***[[ jomkosti-dlja-sousa ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.5. Рукав для запекания ***[[ rukav-dlja-zapekanija ]]***</t>
+  </si>
+  <si>
+    <t>2. Аксессуары для приготовления и хранения пищи =&gt; 2.6. Пергамент силиконизированный ***[[ pergament-silikonizirovannij ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.1. Тарталетки бумажные ***[[ tartaletki-bumazhnie ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.2. Формы для выпечки бумажные ***[[ formi-dlja-vipechki-bumazhnie ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.3. Лента бордюрная для торта ***[[ lenta-bordjurnaja-dlja-torta ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.4. Мешки кондитерские ***[[ meshki-konditerskie ]]***</t>
+  </si>
+  <si>
+    <t>3. Кондитерские принадлежности =&gt; 3.5. Баллончики для сифона ***[[ ballonchiki-dlja-sifona ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.1. Стаканы мерные ***[[ stakani-mernie ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.2. Ножи кухонные поварские, молотки ***[[ nozhi-kuhonnie-povarskie--molotki ]]***</t>
+  </si>
+  <si>
+    <t>4. Кухонный инвентарь =&gt; 4.3. Разделочные доски ***[[ razdelochnie-doski ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.1. Жидкость для розжига ***[[ zhidkost-dlja-rozzhiga ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.2. Зажигалки, газ ***[[ zazhigalki--gaz ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.3. Дрова ***[[ drova ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.4. Уголь ***[[ ugol ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.5. Гели для подогрева ***[[ geli-dlja-podogreva ]]***</t>
+  </si>
+  <si>
+    <t>5. Уголь, дрова, средства для розжига =&gt; 5.6. Сухое горючее ***[[ suhoe-gorjuchee ]]***</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.1. Плёнка парниковая ***[[ pljonka-parnikovaja ]]***</t>
+  </si>
+  <si>
+    <t>2. Плёнка полиэтиленовая пвд/пнд =&gt; 2.2. Плёнка вп ***[[ pljonka-vp ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.1. Плёнка под запайку ***[[ pljonka-pod-zapajku ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.2. Плёнка пищевая пвх  (дышащая) ***[[ pljonka-pishhevaja-pvh---dishashhaja- ]]***</t>
+  </si>
+  <si>
+    <t>4. Плёнка пищевая =&gt; 4.3. Плёнка пищевая пэ ***[[ pljonka-pishhevaja-pje ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.1. Пакеты для кур-гриль ***[[ paketi-dlja-kur-gril ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.2. Пакеты бумажные с ручками ***[[ paketi-bumazhnie-s-ruchkami ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.3. Пакеты бумажные под выпечку, уголки с плоским дном ***[[ paketi-bumazhnie-pod-vipechku--ugolki-s-ploskim-dnom ]]***</t>
+  </si>
+  <si>
+    <t>1. Пакеты бумажные =&gt; 1.4. Пакеты бумажные на вынос с прямоугольным дном ***[[ paketi-bumazhnie-na-vinos-s-prjamougolnim-dnom ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.1. Пакеты типа майка ***[[ paketi-tipa-majka ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.2. Пакеты типа "zip lock" ***[[ paketi-tipa--zip-lock- ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.3. Пакеты вакуумные ***[[ paketi-vakuumnie ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.4. Пакеты мусорные ***[[ paketi-musornie ]]***</t>
+  </si>
+  <si>
+    <t>2. Пакеты полиэтиленовые =&gt; 2.5. Фасовочные пакеты ***[[ fasovochnie-paketi ]]***</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.1. Пакеты пп ***[[ paketi-pp ]]***</t>
+  </si>
+  <si>
+    <t>4. Пакеты полипропиленовые =&gt; 4.2. Пакеты пп с прямоугольным дном ***[[ paketi-pp-s-prjamougolnim-dnom ]]***</t>
+  </si>
+  <si>
+    <t>5. Пакеты с вырубными и петлевыми ручками =&gt; 5.1. Пакеты цветные ***[[ paketi-cvetnie ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.1. Коробки для торта ***[[ korobki-dlja-torta ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.2. Подложка под пиццу, пирог ***[[ podlozhka-pod-piccu--pirog ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.3. Гофрокороба ***[[ gofrokoroba ]]***</t>
+  </si>
+  <si>
+    <t>1. Короба и коробки =&gt; 1.4. Коробки для пиццы ***[[ korobki-dlja-picci ]]***</t>
+  </si>
+  <si>
+    <t>2. Упаковка из фбв =&gt; 2.1. Лотки и подложки фбв ***[[ lotki-i-podlozhki-fbv ]]***</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.1. Сетка-рукав ***[[ setka-rukav ]]***</t>
+  </si>
+  <si>
+    <t>5. Сетки =&gt; 5.2. Сетка на бутылку ***[[ setka-na-butilku ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.1. Диспенсеры для скотча ***[[ dispenseri-dlja-skotcha ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.2. Клейкие ленты типа "скотч" ***[[ klejkie-lenti-tipa--skotch- ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.3. Малярная лента optiroll ***[[ maljarnaja-lenta-optiroll ]]***</t>
+  </si>
+  <si>
+    <t>6. Клейкие ленты типа "скотч", диспенсеры =&gt; 6.4. Специальные ленты ***[[ specialnie-lenti ]]***</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.1. Шпагаты натуральные ***[[ shpagati-naturalnie ]]***</t>
+  </si>
+  <si>
+    <t>7. Шпагаты и нити =&gt; 7.2. Шпагаты пп ***[[ shpagati-pp ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.1. Чехлы и щётки для одежды ***[[ chehli-i-shhjotki-dlja-odezhdi ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.2. Средства по уходу за обувью ***[[ sredstva-po-uhodu-za-obuvju ]]***</t>
+  </si>
+  <si>
+    <t>1. Индивидуальные принадлежности =&gt; 1.3. Галантерея ***[[ galantereja ]]***</t>
+  </si>
+  <si>
+    <t>2. Гостиничная парфюмерия и косметика =&gt; 2.1. Серия "hotel" ***[[ serija--hotel- ]]***</t>
+  </si>
+  <si>
+    <t>2. Спецобувь =&gt; 2.1. Сабо ***[[ sabo ]]***</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.1. Очки ***[[ ochki ]]***</t>
+  </si>
+  <si>
+    <t>3. Средства индивидуальной защиты =&gt; 3.2. Респираторы и маски ***[[ respiratori-i-maski ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.1. Халаты ***[[ halati ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.2. Костюмы рабочие ***[[ kostjumi-rabochie ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.3. Фартуки ***[[ fartuki ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.4. Комбинезоны/полукомбенизоны/жилеты/куртки ***[[ kombinezoni-polukombenizoni-zhileti-kurtki ]]***</t>
+  </si>
+  <si>
+    <t>4. Спецодежда =&gt; 4.5. Плащи ***[[ plashhi ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.1. Перчатки латексные ***[[ perchatki-lateksnie ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.2. Перчатки тпэ ***[[ perchatki-tpje ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.3. Рукавицы ***[[ rukavici ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.4. Перчатки виниловые ***[[ perchatki-vinilovie ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.5. Перчатки резиновые ***[[ perchatki-rezinovie ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.6. Перчатки х/б ***[[ perchatki-h-b ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.7. Перчатки нитриловые ***[[ perchatki-nitrilovie ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.8. Перчатки специального назначения ***[[ perchatki-specialnogo-naznachenija ]]***</t>
+  </si>
+  <si>
+    <t>5. Перчатки =&gt; 5.9. Перчатки полиэтиленовые ***[[ perchatki-polijetilenovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.1. Халаты одноразовые ***[[ halati-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.2. Нарукавники одноразовые ***[[ narukavniki-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.3. Комбинезоны, костюмы одноразовые ***[[ kombinezoni--kostjumi-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.4. Носки одноразовые ***[[ noski-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.5. Фартуки одноразовые ***[[ fartuki-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.6. Набородники ***[[ naborodniki ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.7. Бахилы ***[[ bahili ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.8. Головные уборы одноразовые ***[[ golovnie-ubori-odnorazovie ]]***</t>
+  </si>
+  <si>
+    <t>6. Одноразовая одежда =&gt; 6.9. Маски медицинские ***[[ maski-medicinskie ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.1. Этикет-ленты ***[[ jetiket-lenti ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.2. Этикет-пистолеты ***[[ Этикет-пистолеты ]]***</t>
+  </si>
+  <si>
+    <t>5. Маркировочная продукция =&gt; 5.3. Игловые пистолеты и расходные материалы ***[[ iglovie-pistoleti-i-rashodnie-materiali ]]***</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.1. Почтовые замки ***[[ pochtovie-zamki ]]***</t>
+  </si>
+  <si>
+    <t>11. Замки =&gt; 11.2. Навесные замки ***[[ navesnie-zamki ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.1. Сургуч, пластилин для опечатывания ***[[ surguch--plastilin-dlja-opechativanija ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.2. Пломбы наклейки  ***[[ plombi-naklejki ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.3. Пломбы свинцовые ***[[ plombi-svincovie ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.4. Пломбы пластиковые ***[[ plombi-plastikovie ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.5. Проволока для опломбирования ***[[ provoloka-dlja-oplombirovanija ]]***</t>
+  </si>
+  <si>
+    <t>12. Товары для опломбирования =&gt; 12.6. Пломбы тросовые ***[[ plombi-trosovie ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.1. Ленты бандерольные ***[[ lenti-banderolnie ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.2. Кольца бандерольные ***[[ kolca-banderolnie ]]***</t>
+  </si>
+  <si>
+    <t>13. Упаковка денег =&gt; 13.3. Накладки ***[[ nakladki ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.1. Журналы по охране труда и пожарной безопасности ***[[ zhurnali-po-ohrane-truda-i-pozharnoj-bezopasnosti ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.2. Законы, правила, кодексы ***[[ zakoni--pravila--kodeksi ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.3. Журналы и бланки для организаци пищевого производства, предприятий общественного питания ***[[ zhurnali-i-blanki-dlja-organizaci-pishhevogo-proizvodstva--predprijatij-obshhestvennogo-pitanija ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.4. Журналы и бланки по делопроизводству, кадровой работе и бухгалтерскому учёту ***[[ zhurnali-i-blanki-po-deloproizvodstvu--kadrovoj-rabote-i-buhgalterskomu-uchjotu ]]***</t>
+  </si>
+  <si>
+    <t>14. Журналы и бланки =&gt; 14.5. Журналы и бланки для предприятий оптовой и розничной торговли ***[[ zhurnali-i-blanki-dlja-predprijatij-optovoj-i-roznichnoj-torgovli ]]***</t>
+  </si>
+  <si>
+    <t>15. Кассовые ленты =&gt; 15.1. Кассовая лента термо ***[[ kassovaja-lenta-termo ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.1. Детекторы валют и ценных бумаг ***[[ detektori-valjut-i-cennih-bumag ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.2. Счётчики банкнот ***[[ schjotchiki-banknot ]]***</t>
+  </si>
+  <si>
+    <t>17. Cчётчики и детекторы валют =&gt; 17.3. Лампы для детекторов ***[[ lampi-dlja-detektorov ]]***</t>
+  </si>
+  <si>
+    <t>19. Термолента для электронных весов и термопринтеров =&gt; 19.1. Термоэтикетка ***[[ termojetiketka ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.1. Меловые таблички ***[[ melovie-tablichki ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.2. Дели-системы и тейбл тенты ***[[ deli-sistemi-i-tejbl-tenti ]]***</t>
+  </si>
+  <si>
+    <t>20. Ценники и ценникодержатели =&gt; 20.3. Ценникодержатели ***[[ cennikoderzhateli ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.1. Диспенсеры для мыла ***[[ dispenseri-dlja-mila ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.2. Диспенсеры для  гиг.покрытий, протир.бумаги ***[[ dispenseri-dlja--gig-pokritij--protir-bumagi ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.3. Диспенсеры для полотенец ***[[ dispenseri-dlja-polotenec ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.4. Диспенсеры для туалетной бумаги ***[[ dispenseri-dlja-tualetnoj-bumagi ]]***</t>
+  </si>
+  <si>
+    <t>4. Диспенсеры =&gt; 4.5. Диспенсеры для салфеток ***[[ dispenseri-dlja-salfetok ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.1. Вафли, пряники ***[[ vafli--prjaniki ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.2. Конфеты ***[[ konfeti ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.3. Печенье ***[[ pechene ]]***</t>
+  </si>
+  <si>
+    <t>1. Кондитерские изделия =&gt; 1.4. Рулеты ***[[ ruleti ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.1. Чай чёрный в пакетиках ***[[ chaj-chjornij-v-paketikah ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.2. Чай зелёный в пакетиках ***[[ chaj-zeljonij-v-paketikah ]]***</t>
+  </si>
+  <si>
+    <t>3. Чай =&gt; 3.3. Чай травяной, фруктовый ***[[ chaj-travjanoj--fruktovij ]]***</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.1. Кофе в зёрнах ***[[ kofe-v-zjornah ]]***</t>
+  </si>
+  <si>
+    <t>4. Кофе =&gt; 4.2. Кофе растворимый ***[[ kofe-rastvorimij ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.1. Вода ***[[ voda ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.2. Напитки ***[[ napitki ]]***</t>
+  </si>
+  <si>
+    <t>5. Безалкогольные напитки =&gt; 5.3. Соки, нектары, морсы ***[[ soki--nektari--morsi ]]***</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.1. Флеш-память usb ***[[ flesh-pamjat-usb ]]***</t>
+  </si>
+  <si>
+    <t>2. Носители информации =&gt; 2.2. Внешние жёсткие диски ***[[ vneshnie-zhjostkie-diski ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.1. Телефоны DECT ***[[ telefoni-dect ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.2. Факсимильные аппараты ***[[ faksimilnie-apparati ]]***</t>
+  </si>
+  <si>
+    <t>3. Телефоны и факсы =&gt; 3.3. Телефоны проводные ***[[ telefoni-provodnie ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.1. МФУ лазерные ***[[ mfu-lazernie ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.2. Принтеры струйные ***[[ printeri-strujnie ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.3. МФУ струйные ***[[ mfu-strujnie ]]***</t>
+  </si>
+  <si>
+    <t>4. Принтеры и МФУ =&gt; 4.4. Принтеры лазерные ***[[ printeri-lazernie ]]***</t>
+  </si>
+  <si>
+    <t>5. Картриджи для печатающей техники =&gt; 5.1. Картриджи для принтеров оригинальные ***[[ kartridzhi-dlja-printerov-originalnie ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.1. Обложки для переплёта ***[[ oblozhki-dlja-perepljota ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.2. Брошюровщики ***[[ broshjurovshhiki ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.3. Ламинаторы ***[[ laminatori ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.4. Резаки ***[[ rezaki ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.5. Расходные материалы для офисной техники ***[[ rashodnie-materiali-dlja-ofisnoj-tehniki ]]***</t>
+  </si>
+  <si>
+    <t>6. Оборудование для переплёта и ламинирования =&gt; 6.6. Пружины для переплёта ***[[ pruzhini-dlja-perepljota ]]***</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.1. Клавиатуры ***[[ klaviaturi ]]***</t>
+  </si>
+  <si>
+    <t>7. Компьютерная периферия =&gt; 7.2. Мыши компьютерные ***[[ mishi-kompjuternie ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.1. Конвекторы ***[[ konvektori ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.2. Обогреватели ***[[ obogrevateli ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.3. Метеооборудование, термометры, гигрометры ***[[ meteooborudovanie--termometri--gigrometri ]]***</t>
+  </si>
+  <si>
+    <t>1. Климатическая техника =&gt; 1.4. Вентиляторы ***[[ ventiljatori ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.1. Батарейки ***[[ batarejki ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.2. Аккумуляторы ***[[ Аккумуляторы ]]***</t>
+  </si>
+  <si>
+    <t>2. Элементы питания =&gt; 2.3. Зарядные устройства ***[[ zarjadnie-ustrojstva ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.1. Микроволновые печи ***[[ mikrovolnovie-pechi ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.2. Кофе-машины ***[[ kofe-mashini ]]***</t>
+  </si>
+  <si>
+    <t>3. Техника для кухни =&gt; 3.3. Чайники электрические ***[[ chajniki-jelektricheskie ]]***</t>
+  </si>
+  <si>
+    <t>4. Крупная бытовая техника =&gt; 4.1. Холодильники ***[[ holodilniki ]]***</t>
+  </si>
+  <si>
+    <t>5. Электротовары =&gt; 5.1. Светильники ***[[ svetilniki ]]***</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.1. Утюги ***[[ utjugi ]]***</t>
+  </si>
+  <si>
+    <t>6. Мелкая бытовая техника =&gt; 6.2. Пылесосы ***[[ pilesosi ]]***</t>
   </si>
 </sst>
 </file>
@@ -2044,8 +2044,8 @@
   <dimension ref="A1:B2181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A572" sqref="A572"/>
+      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4864,13 +4864,13 @@
     </row>
     <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B486" s="1"/>
     </row>
     <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B487" s="1"/>
     </row>
